--- a/文稿/水浒数值设计.xlsx
+++ b/文稿/水浒数值设计.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7290" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7290" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基本公式" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="单位兵攻防" sheetId="2" r:id="rId3"/>
     <sheet name="兵种战力" sheetId="4" r:id="rId4"/>
+    <sheet name="其他表格" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>战斗核心基础公式设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同等级攻防伤害值指数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击力绝对伤害因子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,14 +232,121 @@
   </si>
   <si>
     <t>防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围获得的加成数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵种范围属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得的额外攻击次数</t>
+  </si>
+  <si>
+    <t>解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间可以放枪兵、工兵或者骑兵，防护可能更大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期加成效果成长不会变快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵战力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力绝对伤害指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力绝对受伤害指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵战力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0级士兵配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0级士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵战力值=(当前士兵造成的伤害-0级士兵造成的伤害) + (0级士兵受到的损害-当前士兵受到的损害)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上作战对手均为0级士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得的额外攻击优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同等级攻击指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同等级防御指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同等兵力受到伤害值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方攻击力绝对指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间可以放枪兵或者工兵，本兵种获得防护效果估算为多了30%攻击次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同等兵力受到的伤害比率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义：攻击力，防御力为0，速度为125(px/30s)，攻击速度3(次/s)，攻击范围1(格)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵种速度属性(px/30s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度获得的加成数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,8 +379,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.79998168889431442"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +419,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -322,7 +446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,6 +498,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -386,17 +522,34 @@
       <color rgb="FF66FF99"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -408,7 +561,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>单位兵攻防!$A$3:$A$10</c:f>
+              <c:f>单位兵攻防!$A$22:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -441,37 +594,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>单位兵攻防!$M$3:$M$10</c:f>
+              <c:f>单位兵攻防!$S$22:$S$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.185</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.186</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.188</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1925</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -484,7 +638,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>单位兵攻防!$A$3:$A$10</c:f>
+              <c:f>单位兵攻防!$A$22:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -517,37 +671,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>单位兵攻防!$P$3:$P$10</c:f>
+              <c:f>单位兵攻防!$X$22:$X$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.255</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25600000000000001</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25800000000000001</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26250000000000001</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -560,7 +715,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>单位兵攻防!$A$3:$A$10</c:f>
+              <c:f>单位兵攻防!$A$22:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -593,7 +748,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>单位兵攻防!$S$3:$S$10</c:f>
+              <c:f>单位兵攻防!$AB$22:$AB$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -601,58 +756,75 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13300000000000001</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13750000000000001</c:v>
+                  <c:v>5.8500000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14499999999999999</c:v>
+                  <c:v>5.8400000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="71878528"/>
-        <c:axId val="71880064"/>
+        <c:smooth val="0"/>
+        <c:axId val="109864832"/>
+        <c:axId val="109866368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71878528"/>
+        <c:axId val="109864832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71880064"/>
+        <c:crossAx val="109866368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71880064"/>
+        <c:axId val="109866368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71878528"/>
+        <c:crossAx val="109864832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -660,8 +832,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -673,12 +848,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -687,7 +874,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>单位兵攻防!$A$3:$A$10</c:f>
+              <c:f>单位兵攻防!$A$22:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -720,7 +907,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>单位兵攻防!$V$3:$V$10</c:f>
+              <c:f>单位兵攻防!$AE$22:$AE$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -728,29 +915,30 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.186</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13700000000000001</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.111</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3600000000000003E-2</c:v>
+                  <c:v>6.6000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -760,7 +948,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>单位兵攻防!$A$3:$A$10</c:f>
+              <c:f>单位兵攻防!$A$22:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -793,30 +981,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>单位兵攻防!$Y$3:$Y$10</c:f>
+              <c:f>单位兵攻防!$AH$22:$AH$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.20599999999999999</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.224</c:v>
+                  <c:v>0.152</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24399999999999999</c:v>
+                  <c:v>0.16600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28799999999999998</c:v>
+                  <c:v>0.192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41799999999999998</c:v>
+                  <c:v>0.27600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63800000000000001</c:v>
+                  <c:v>0.41199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.68799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -824,35 +1012,52 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="78587008"/>
-        <c:axId val="78607872"/>
+        <c:smooth val="0"/>
+        <c:axId val="110039040"/>
+        <c:axId val="110040576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78587008"/>
+        <c:axId val="110039040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78607872"/>
+        <c:crossAx val="110040576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78607872"/>
+        <c:axId val="110040576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78587008"/>
+        <c:crossAx val="110039040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -860,8 +1065,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -876,15 +1084,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -905,16 +1113,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -937,7 +1145,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1011,6 +1219,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1045,6 +1254,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1220,163 +1430,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="120.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:1" s="2" customFormat="1">
+    <row r="3" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="2" customFormat="1">
+    <row r="23" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="2" customFormat="1">
+    <row r="32" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35">
         <v>2000</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36">
         <v>8000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1387,12 +1622,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1401,1008 +1636,2223 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.125" customWidth="1"/>
-    <col min="13" max="13" width="12" style="13" customWidth="1"/>
-    <col min="14" max="14" width="13.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.125" style="11" customWidth="1"/>
-    <col min="16" max="16" width="12" style="13" customWidth="1"/>
-    <col min="17" max="17" width="13.375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="13.375" customWidth="1"/>
-    <col min="19" max="19" width="12" style="13" customWidth="1"/>
-    <col min="20" max="20" width="13.375" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="12.625" customWidth="1"/>
-    <col min="22" max="22" width="11.125" style="13" customWidth="1"/>
-    <col min="23" max="23" width="12.5" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="10.875" customWidth="1"/>
-    <col min="25" max="25" width="12" style="13" customWidth="1"/>
-    <col min="26" max="27" width="11.75" style="8" customWidth="1"/>
-    <col min="28" max="28" width="9" style="8"/>
-    <col min="29" max="29" width="8.75" style="8" customWidth="1"/>
-    <col min="30" max="30" width="9" style="8"/>
+    <col min="2" max="2" width="11.5" style="19" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="10" max="10" width="9" style="11"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="8.125" customWidth="1"/>
+    <col min="18" max="18" width="10.25" customWidth="1"/>
+    <col min="19" max="20" width="12" style="13" customWidth="1"/>
+    <col min="21" max="21" width="12" style="11" customWidth="1"/>
+    <col min="22" max="22" width="13.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.125" style="11" customWidth="1"/>
+    <col min="24" max="24" width="12" style="13" customWidth="1"/>
+    <col min="25" max="25" width="12" style="11" customWidth="1"/>
+    <col min="26" max="26" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.375" customWidth="1"/>
+    <col min="28" max="28" width="12" style="13" customWidth="1"/>
+    <col min="29" max="29" width="13.375" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="12.625" customWidth="1"/>
+    <col min="31" max="31" width="11.125" style="13" customWidth="1"/>
+    <col min="32" max="32" width="12.5" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="10.875" customWidth="1"/>
+    <col min="34" max="34" width="12" style="13" customWidth="1"/>
+    <col min="35" max="36" width="11.75" style="8" customWidth="1"/>
+    <col min="37" max="37" width="9" style="8"/>
+    <col min="38" max="38" width="8.75" style="8" customWidth="1"/>
+    <col min="39" max="39" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" s="7" customFormat="1" ht="27">
+      <c r="V1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="I2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="AJ2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="U20"/>
+      <c r="Y20"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="U21"/>
+      <c r="Y21"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>ROUND(POWER($A$22*C22/100,$AI$22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>ROUND(POWER($A$22*E22/100,$AI$22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <f ca="1">ROUND(30/G22*L22*J22,0)</f>
+        <v>10</v>
+      </c>
+      <c r="I22" s="1">
+        <v>125</v>
+      </c>
+      <c r="J22" s="11">
+        <f ca="1">OFFSET(其他表格!G1,I22/100,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="11">
+        <f ca="1">OFFSET(其他表格!B1,K22,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f>ROUND(($D$22+200)*$AJ$22,0)</f>
+        <v>30</v>
+      </c>
+      <c r="N22">
+        <f>ROUND(($D$22+200)*$AJ$22,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O22">
+        <f>ROUND(POWER(($D$22+200-$F$22-200+$AL$22),2)/$AK$22,0)</f>
+        <v>42</v>
+      </c>
+      <c r="P22">
+        <f>ROUND(POWER(($F$22+200-$D$22-200+$AL$22),2)/$AK$22,0)</f>
+        <v>42</v>
+      </c>
+      <c r="Q22">
+        <f>ROUND(($M$22+$O$22)*($A$22+$A$22)/$AM$22,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <f>ROUND((N22+P22)*($A$22+$A$22)/$AM$22,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S22" s="15">
+        <f ca="1">MIN(ROUND(Q22/$A$22*$H$22,4),1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="T22" s="15">
+        <f ca="1">MIN(ROUND($R$22/$A$22*$H$22,4),1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="U22">
+        <f>ROUND(($D$22+250)*$AJ$22,0)</f>
+        <v>38</v>
+      </c>
+      <c r="V22">
+        <f>ROUND(POWER(($D$22+250-$F$22-100+$AL$22),2)/$AK$22,0)</f>
+        <v>70</v>
+      </c>
+      <c r="W22">
+        <f>ROUND(($U$22+$V$22)*($A$22+$A$22)/$AM$22,0)</f>
+        <v>2</v>
+      </c>
+      <c r="X22" s="15">
+        <f ca="1">MIN(ROUND(W22/$A$22*$H$22,4),1)</f>
+        <v>0.2</v>
+      </c>
+      <c r="Y22">
+        <f>ROUND(($D$22+100)*$AJ$22,0)</f>
+        <v>15</v>
+      </c>
+      <c r="Z22" s="10">
+        <f>ROUND(POWER(($D$22+100-$F$22-250+$AL$22),2)/$AK$22,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AA22" s="10">
+        <f>ROUND(($Y$22+$Z$22)*($A$22+$A$22)/$AM$22,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB22" s="15">
+        <f>MIN(ROUND($AA$22/$A$22*10,4),1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AC22" s="10">
+        <f>ROUND(POWER(($D$26+200-$F$22-200+$AL$22),2)/$AK$22,0)</f>
+        <v>42</v>
+      </c>
+      <c r="AD22" s="10">
+        <f>ROUND(($M$26+$AC$22)*($A$26+$A$22)/$AM$22,0)</f>
+        <v>31</v>
+      </c>
+      <c r="AE22" s="15">
+        <f ca="1">MIN(ROUND($AD$22/$A$22*$H$22,4),1)</f>
+        <v>1</v>
+      </c>
+      <c r="AF22" s="10">
+        <f>ROUND(POWER(($D$22+200-$F$26-200+900),2)/$AK$22,0)</f>
+        <v>135</v>
+      </c>
+      <c r="AG22" s="10">
+        <f>ROUND(($M$22+$AF$22)*($A$26+$A$22)/$AM$22,0)</f>
+        <v>70</v>
+      </c>
+      <c r="AH22" s="15">
+        <f ca="1">MIN(ROUND($AG$22/$A$26*$H$22,4),1)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AI22" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AJ22" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AK22" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AL22" s="8">
+        <v>500</v>
+      </c>
+      <c r="AM22" s="8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>500</v>
+      </c>
+      <c r="B23" s="19">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>ROUND(POWER($A$23*C23/100,$AI$23),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>ROUND(POWER($A$23*E23/100,$AI$23),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23:H29" ca="1" si="0">ROUND(30/G23*L23*J23,0)</f>
+        <v>10</v>
+      </c>
+      <c r="I23" s="1">
+        <v>125</v>
+      </c>
+      <c r="J23" s="11">
+        <f ca="1">OFFSET(其他表格!G1,I23/100,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="11">
+        <f ca="1">OFFSET(其他表格!B1,K23,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f>ROUND(($D$23+200)*$AJ$23,0)</f>
+        <v>30</v>
+      </c>
+      <c r="N23">
+        <f>ROUND(($D$23+200)*$AJ$23,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O23">
+        <f>ROUND(POWER(($D$23+200-$F$23-200+$AL$22),2)/$AK$23,0)</f>
+        <v>42</v>
+      </c>
+      <c r="P23">
+        <f>ROUND(POWER(($F$23+200-$D$23-200+$AL$23),2)/$AK$23,0)</f>
+        <v>42</v>
+      </c>
+      <c r="Q23">
+        <f>ROUND(($M$23+$O$23)*($A$23+$A$23)/$AM$23,0)</f>
+        <v>6</v>
+      </c>
+      <c r="R23">
+        <f>ROUND((N23+P23)*($A$23+$A$23)/$AM$23,0)</f>
+        <v>6</v>
+      </c>
+      <c r="S23" s="15">
+        <f ca="1">MIN(ROUND(Q23/$A$23*$H$23,4),1)</f>
+        <v>0.12</v>
+      </c>
+      <c r="T23" s="15">
+        <f ca="1">MIN(ROUND($R$23/$A$23*$H$23,4),1)</f>
+        <v>0.12</v>
+      </c>
+      <c r="U23">
+        <f>ROUND(($D$23+250)*$AJ$23,0)</f>
+        <v>38</v>
+      </c>
+      <c r="V23">
+        <f>ROUND(POWER(($D$23+250-$F$23-100+$AL$22),2)/$AK$23,0)</f>
+        <v>70</v>
+      </c>
+      <c r="W23">
+        <f>ROUND(($U$23+$V$23)*($A$23+$A$23)/$AM$23,0)</f>
+        <v>9</v>
+      </c>
+      <c r="X23" s="15">
+        <f ca="1">MIN(ROUND(W23/$A$23*$H$23,4),1)</f>
+        <v>0.18</v>
+      </c>
+      <c r="Y23">
+        <f>ROUND(($D$23+100)*$AJ$23,0)</f>
+        <v>15</v>
+      </c>
+      <c r="Z23" s="10">
+        <f>ROUND(POWER(($D$23+100-$F$23-250+$AL$23),2)/$AK$23,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AA23" s="10">
+        <f>ROUND(($Y$23+$Z$23)*($A$23+$A$23)/$AM$23,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AB23" s="15">
+        <f>MIN(ROUND($AA$23/$A$23*10,4),1)</f>
+        <v>0.06</v>
+      </c>
+      <c r="AC23" s="10">
+        <f>ROUND(POWER(($D$26+200-$F$23-200+$AL$22),2)/$AK$23,0)</f>
+        <v>42</v>
+      </c>
+      <c r="AD23" s="10">
+        <f>ROUND(($M$26+$AC$23)*($A$26+$A$23)/$AM$23,0)</f>
+        <v>33</v>
+      </c>
+      <c r="AE23" s="15">
+        <f ca="1">MIN(ROUND($AD$23/$A$23*$H$23,4),1)</f>
+        <v>0.66</v>
+      </c>
+      <c r="AF23" s="10">
+        <f>ROUND(POWER(($D$23+200-$F$26-200+900),2)/$AK$23,0)</f>
+        <v>135</v>
+      </c>
+      <c r="AG23" s="10">
+        <f>ROUND(($M$23+$AF$23)*($A$26+$A$23)/$AM$23,0)</f>
+        <v>76</v>
+      </c>
+      <c r="AH23" s="15">
+        <f ca="1">MIN(ROUND($AG$23/$A$26*$H$23,4),1)</f>
+        <v>0.152</v>
+      </c>
+      <c r="AI23" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AJ23" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AK23" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AL23" s="8">
+        <v>500</v>
+      </c>
+      <c r="AM23" s="8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1000</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f>ROUND(POWER($A$24*C24/100,$AI$24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>ROUND(POWER($A$24*E24/100,$AI$24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I24" s="1">
+        <v>125</v>
+      </c>
+      <c r="J24" s="11">
+        <f ca="1">OFFSET(其他表格!G1,I24/100,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="11">
+        <f ca="1">OFFSET(其他表格!B1,K24,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f>ROUND(($D$24+200)*$AJ$24,0)</f>
+        <v>30</v>
+      </c>
+      <c r="N24">
+        <f>ROUND(($D$24+200)*$AJ$24,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O24">
+        <f>ROUND(POWER(($D$24+200-$F$24-200+$AL$22),2)/$AK$24,0)</f>
+        <v>42</v>
+      </c>
+      <c r="P24">
+        <f>ROUND(POWER(($F$24+200-$D$24-200+$AL$24),2)/$AK$24,0)</f>
+        <v>42</v>
+      </c>
+      <c r="Q24">
+        <f>ROUND(($M$24+$O$24)*($A$24+$A$24)/$AM$24,0)</f>
+        <v>12</v>
+      </c>
+      <c r="R24">
+        <f>ROUND((N24+P24)*($A$24+$A$24)/$AM$24,0)</f>
+        <v>12</v>
+      </c>
+      <c r="S24" s="15">
+        <f ca="1">MIN(ROUND(Q24/$A$24*$H$24,4),1)</f>
+        <v>0.12</v>
+      </c>
+      <c r="T24" s="15">
+        <f ca="1">MIN(ROUND($R$24/$A$24*$H$24,4),1)</f>
+        <v>0.12</v>
+      </c>
+      <c r="U24">
+        <f>ROUND(($D$24+250)*$AJ$24,0)</f>
+        <v>38</v>
+      </c>
+      <c r="V24">
+        <f>ROUND(POWER(($D$24+250-$F$24-100+$AL$22),2)/$AK$24,0)</f>
+        <v>70</v>
+      </c>
+      <c r="W24">
+        <f>ROUND(($U$24+$V$24)*($A$24+$A$24)/$AM$24,0)</f>
+        <v>18</v>
+      </c>
+      <c r="X24" s="15">
+        <f ca="1">MIN(ROUND(W24/$A$24*$H$24,4),1)</f>
+        <v>0.18</v>
+      </c>
+      <c r="Y24">
+        <f>ROUND(($D$24+100)*$AJ$24,0)</f>
+        <v>15</v>
+      </c>
+      <c r="Z24" s="10">
+        <f>ROUND(POWER(($D$24+100-$F$24-250+$AL$24),2)/$AK$24,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AA24" s="10">
+        <f>ROUND(($Y$24+$Z$24)*($A$24+$A$24)/$AM$24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AB24" s="15">
+        <f>MIN(ROUND($AA$24/$A$24*10,4),1)</f>
+        <v>0.06</v>
+      </c>
+      <c r="AC24" s="10">
+        <f>ROUND(POWER(($D$26+200-$F$24-200+$AL$22),2)/$AK$24,0)</f>
+        <v>42</v>
+      </c>
+      <c r="AD24" s="10">
+        <f>ROUND(($M$26+$AC$24)*($A$26+$A$24)/$AM$24,0)</f>
+        <v>36</v>
+      </c>
+      <c r="AE24" s="15">
+        <f ca="1">MIN(ROUND($AD$24/$A$24*$H$24,4),1)</f>
+        <v>0.36</v>
+      </c>
+      <c r="AF24" s="10">
+        <f>ROUND(POWER(($D$24+200-$F$26-200+900),2)/$AK$24,0)</f>
+        <v>135</v>
+      </c>
+      <c r="AG24" s="10">
+        <f>ROUND(($M$24+$AF$24)*($A$26+$A$24)/$AM$24,0)</f>
+        <v>83</v>
+      </c>
+      <c r="AH24" s="15">
+        <f ca="1">MIN(ROUND($AG$24/$A$26*$H$24,4),1)</f>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="AI24" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AJ24" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AK24" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AL24" s="8">
+        <v>500</v>
+      </c>
+      <c r="AM24" s="8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>2000</v>
+      </c>
+      <c r="B25" s="19">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>ROUND(POWER($A$25*C25/100,$AI$25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>ROUND(POWER($A$25*E25/100,$AI$25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I25" s="1">
+        <v>125</v>
+      </c>
+      <c r="J25" s="11">
+        <f ca="1">OFFSET(其他表格!G1,I25/100,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="11">
+        <f ca="1">OFFSET(其他表格!B1,K25,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f>ROUND(($D$25+200)*$AJ$25,0)</f>
+        <v>30</v>
+      </c>
+      <c r="N25">
+        <f>ROUND(($D$25+200)*$AJ$25,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O25">
+        <f>ROUND(POWER(($D$25+200-$F$25-200+$AL$22),2)/$AK$25,0)</f>
+        <v>42</v>
+      </c>
+      <c r="P25">
+        <f>ROUND(POWER(($F$25+200-$D$25-200+$AL$25),2)/$AK$25,0)</f>
+        <v>42</v>
+      </c>
+      <c r="Q25">
+        <f>ROUND(($M$25+$O$25)*($A$25+$A$25)/$AM$25,0)</f>
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <f>ROUND((N25+P25)*($A$25+$A$25)/$AM$25,0)</f>
+        <v>24</v>
+      </c>
+      <c r="S25" s="15">
+        <f ca="1">MIN(ROUND(Q25/$A$25*$H$25,4),1)</f>
+        <v>0.12</v>
+      </c>
+      <c r="T25" s="15">
+        <f ca="1">MIN(ROUND($R$25/$A$25*$H$25,4),1)</f>
+        <v>0.12</v>
+      </c>
+      <c r="U25">
+        <f>ROUND(($D$25+250)*$AJ$25,0)</f>
+        <v>38</v>
+      </c>
+      <c r="V25">
+        <f>ROUND(POWER(($D$25+250-$F$25-100+$AL$22),2)/$AK$25,0)</f>
+        <v>70</v>
+      </c>
+      <c r="W25">
+        <f>ROUND(($U$25+$V$25)*($A$25+$A$25)/$AM$25,0)</f>
+        <v>36</v>
+      </c>
+      <c r="X25" s="15">
+        <f ca="1">MIN(ROUND(W25/$A$25*$H$25,4),1)</f>
+        <v>0.18</v>
+      </c>
+      <c r="Y25">
+        <f>ROUND(($D$25+100)*$AJ$25,0)</f>
+        <v>15</v>
+      </c>
+      <c r="Z25" s="10">
+        <f>ROUND(POWER(($D$25+100-$F$25-250+$AL$25),2)/$AK$25,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AA25" s="10">
+        <f>ROUND(($Y$25+$Z$25)*($A$25+$A$25)/$AM$25,0)</f>
+        <v>12</v>
+      </c>
+      <c r="AB25" s="15">
+        <f>MIN(ROUND($AA$25/$A$25*10,4),1)</f>
+        <v>0.06</v>
+      </c>
+      <c r="AC25" s="10">
+        <f>ROUND(POWER(($D$26+200-$F$25-200+$AL$22),2)/$AK$25,0)</f>
+        <v>42</v>
+      </c>
+      <c r="AD25" s="10">
+        <f>ROUND(($M$26+$AC$25)*($A$26+$A$25)/$AM$25,0)</f>
+        <v>42</v>
+      </c>
+      <c r="AE25" s="15">
+        <f ca="1">MIN(ROUND($AD$25/$A$25*$H$25,4),1)</f>
+        <v>0.21</v>
+      </c>
+      <c r="AF25" s="10">
+        <f>ROUND(POWER(($D$25+200-$F$26-200+900),2)/$AK$25,0)</f>
+        <v>135</v>
+      </c>
+      <c r="AG25" s="10">
+        <f>ROUND(($M$25+$AF$25)*($A$26+$A$25)/$AM$25,0)</f>
+        <v>96</v>
+      </c>
+      <c r="AH25" s="15">
+        <f ca="1">MIN(ROUND($AG$25/$A$26*$H$25,4),1)</f>
+        <v>0.192</v>
+      </c>
+      <c r="AI25" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AJ25" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AK25" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AL25" s="8">
+        <v>500</v>
+      </c>
+      <c r="AM25" s="8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>5000</v>
+      </c>
+      <c r="B26" s="19">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>ROUND(POWER($A$26*C26/100,$AI$26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>ROUND(POWER($A$26*E26/100,$AI$26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I26" s="1">
+        <v>125</v>
+      </c>
+      <c r="J26" s="11">
+        <f ca="1">OFFSET(其他表格!G1,I26/100,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="11">
+        <f ca="1">OFFSET(其他表格!B1,K26,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f>ROUND(($D$26+200)*$AJ$26,0)</f>
+        <v>30</v>
+      </c>
+      <c r="N26">
+        <f>ROUND(($D$26+200)*$AJ$26,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O26">
+        <f>ROUND(POWER(($D$26+200-$F$26-200+$AL$22),2)/$AK$26,0)</f>
+        <v>42</v>
+      </c>
+      <c r="P26">
+        <f>ROUND(POWER(($F$26+200-$D$26-200+$AL$26),2)/$AK$26,0)</f>
+        <v>42</v>
+      </c>
+      <c r="Q26">
+        <f>ROUND(($M$26+$O$26)*($A$26+$A$26)/$AM$26,0)</f>
+        <v>60</v>
+      </c>
+      <c r="R26">
+        <f>ROUND((N26+P26)*($A$26+$A$26)/$AM$26,0)</f>
+        <v>60</v>
+      </c>
+      <c r="S26" s="15">
+        <f ca="1">MIN(ROUND(Q26/$A$26*$H$26,4),1)</f>
+        <v>0.12</v>
+      </c>
+      <c r="T26" s="15">
+        <f ca="1">MIN(ROUND($R$26/$A$26*$H$26,4),1)</f>
+        <v>0.12</v>
+      </c>
+      <c r="U26">
+        <f>ROUND(($D$26+250)*$AJ$26,0)</f>
+        <v>38</v>
+      </c>
+      <c r="V26">
+        <f>ROUND(POWER(($D$26+250-$F$26-100+$AL$22),2)/$AK$26,0)</f>
+        <v>70</v>
+      </c>
+      <c r="W26">
+        <f>ROUND(($U$26+$V$26)*($A$26+$A$26)/$AM$26,0)</f>
+        <v>90</v>
+      </c>
+      <c r="X26" s="15">
+        <f ca="1">MIN(ROUND(W26/$A$26*$H$26,4),1)</f>
+        <v>0.18</v>
+      </c>
+      <c r="Y26">
+        <f>ROUND(($D$26+100)*$AJ$26,0)</f>
+        <v>15</v>
+      </c>
+      <c r="Z26" s="10">
+        <f>ROUND(POWER(($D$26+100-$F$26-250+$AL$26),2)/$AK$26,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AA26" s="10">
+        <f>ROUND(($Y$26+$Z$26)*($A$26+$A$26)/$AM$26,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AB26" s="15">
+        <f>MIN(ROUND($AA$26/$A$26*10,4),1)</f>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AC26" s="10">
+        <f>ROUND(POWER(($D$26+200-$F$26-200+$AL$22),2)/$AK$26,0)</f>
+        <v>42</v>
+      </c>
+      <c r="AD26" s="10">
+        <f>ROUND(($M$26+$AC$26)*($A$26+$A$26)/$AM$26,0)</f>
+        <v>60</v>
+      </c>
+      <c r="AE26" s="15">
+        <f ca="1">MIN(ROUND($AD$26/$A$26*$H$26,4),1)</f>
+        <v>0.12</v>
+      </c>
+      <c r="AF26" s="10">
+        <f>ROUND(POWER(($D$26+200-$F$26-200+900),2)/$AK$26,0)</f>
+        <v>135</v>
+      </c>
+      <c r="AG26" s="10">
+        <f>ROUND(($M$26+$AF$26)*($A$26+$A$26)/$AM$26,0)</f>
+        <v>138</v>
+      </c>
+      <c r="AH26" s="15">
+        <f ca="1">MIN(ROUND($AG$26/$A$26*$H$26,4),1)</f>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="AI26" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AJ26" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AK26" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AL26" s="8">
+        <v>500</v>
+      </c>
+      <c r="AM26" s="8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>10000</v>
+      </c>
+      <c r="B27" s="19">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f>ROUND(POWER($A$27*C27/100,$AI$27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>ROUND(POWER($A$27*E27/100,$AI$27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I27" s="1">
+        <v>125</v>
+      </c>
+      <c r="J27" s="11">
+        <f ca="1">OFFSET(其他表格!G1,I27/100,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="11">
+        <f ca="1">OFFSET(其他表格!B1,K27,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f>ROUND(($D$27+200)*$AJ$27,0)</f>
+        <v>30</v>
+      </c>
+      <c r="N27">
+        <f>ROUND(($D$27+200)*$AJ$27,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O27">
+        <f>ROUND(POWER(($D$27+200-$F$27-200+$AL$22),2)/$AK$27,0)</f>
+        <v>42</v>
+      </c>
+      <c r="P27">
+        <f>ROUND(POWER(($F$27+200-$D$27-200+$AL$27),2)/$AK$27,0)</f>
+        <v>42</v>
+      </c>
+      <c r="Q27">
+        <f>ROUND(($M$27+$O$27)*($A$27+$A$27)/$AM$27,0)</f>
+        <v>120</v>
+      </c>
+      <c r="R27">
+        <f>ROUND((N27+P27)*($A$27+$A$27)/$AM$27,0)</f>
+        <v>120</v>
+      </c>
+      <c r="S27" s="15">
+        <f ca="1">MIN(ROUND(Q27/$A$27*$H$27,4),1)</f>
+        <v>0.12</v>
+      </c>
+      <c r="T27" s="15">
+        <f ca="1">MIN(ROUND($R$27/$A$27*$H$27,4),1)</f>
+        <v>0.12</v>
+      </c>
+      <c r="U27">
+        <f>ROUND(($D$27+250)*$AJ$27,0)</f>
+        <v>38</v>
+      </c>
+      <c r="V27">
+        <f>ROUND(POWER(($D$27+250-$F$27-100+$AL$22),2)/$AK$27,0)</f>
+        <v>70</v>
+      </c>
+      <c r="W27">
+        <f>ROUND(($U$27+$V$27)*($A$27+$A$27)/$AM$27,0)</f>
+        <v>180</v>
+      </c>
+      <c r="X27" s="15">
+        <f ca="1">MIN(ROUND(W27/$A$27*$H$27,4),1)</f>
+        <v>0.18</v>
+      </c>
+      <c r="Y27">
+        <f>ROUND(($D$27+100)*$AJ$27,0)</f>
+        <v>15</v>
+      </c>
+      <c r="Z27" s="10">
+        <f>ROUND(POWER(($D$27+100-$F$27-250+$AL$27),2)/$AK$27,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AA27" s="10">
+        <f>ROUND(($Y$27+$Z$27)*($A$27+$A$27)/$AM$27,0)</f>
+        <v>58</v>
+      </c>
+      <c r="AB27" s="15">
+        <f>MIN(ROUND($AA$27/$A$27*10,4),1)</f>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AC27" s="10">
+        <f>ROUND(POWER(($D$26+200-$F$27-200+$AL$22),2)/$AK$27,0)</f>
+        <v>42</v>
+      </c>
+      <c r="AD27" s="10">
+        <f>ROUND(($M$26+$AC$27)*($A$26+$A$27)/$AM$27,0)</f>
+        <v>90</v>
+      </c>
+      <c r="AE27" s="15">
+        <f ca="1">MIN(ROUND($AD$27/$A$27*$H$27,4),1)</f>
+        <v>0.09</v>
+      </c>
+      <c r="AF27" s="10">
+        <f>ROUND(POWER(($D$27+200-$F$26-200+900),2)/$AK$27,0)</f>
+        <v>135</v>
+      </c>
+      <c r="AG27" s="10">
+        <f>ROUND(($M$27+$AF$27)*($A$26+$A$27)/$AM$27,0)</f>
+        <v>206</v>
+      </c>
+      <c r="AH27" s="15">
+        <f ca="1">MIN(ROUND($AG$27/$A$26*$H$27,4),1)</f>
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="AI27" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AJ27" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AK27" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AL27" s="8">
+        <v>500</v>
+      </c>
+      <c r="AM27" s="8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>20000</v>
+      </c>
+      <c r="B28" s="19">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f>ROUND(POWER($A$28*C28/100,$AI$28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>ROUND(POWER($A$28*E28/100,$AI$28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I28" s="1">
+        <v>125</v>
+      </c>
+      <c r="J28" s="11">
+        <f ca="1">OFFSET(其他表格!G1,I28/100,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="11">
+        <f ca="1">OFFSET(其他表格!B1,K28,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f>ROUND(($D$28+200)*$AJ$28,0)</f>
+        <v>30</v>
+      </c>
+      <c r="N28">
+        <f>ROUND(($D$28+200)*$AJ$28,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O28">
+        <f>ROUND(POWER(($D$28+200-$F$28-200+$AL$22),2)/$AK$28,0)</f>
+        <v>42</v>
+      </c>
+      <c r="P28">
+        <f>ROUND(POWER(($F$28+200-$D$28-200+$AL$28),2)/$AK$28,0)</f>
+        <v>42</v>
+      </c>
+      <c r="Q28">
+        <f>ROUND(($M$28+$O$28)*($A$28+$A$28)/$AM$28,0)</f>
+        <v>240</v>
+      </c>
+      <c r="R28">
+        <f>ROUND((N28+P28)*($A$28+$A$28)/$AM$28,0)</f>
+        <v>240</v>
+      </c>
+      <c r="S28" s="15">
+        <f ca="1">MIN(ROUND(Q28/$A$28*$H$28,4),1)</f>
+        <v>0.12</v>
+      </c>
+      <c r="T28" s="15">
+        <f ca="1">MIN(ROUND($R$28/$A$28*$H$28,4),1)</f>
+        <v>0.12</v>
+      </c>
+      <c r="U28">
+        <f>ROUND(($D$28+250)*$AJ$28,0)</f>
+        <v>38</v>
+      </c>
+      <c r="V28">
+        <f>ROUND(POWER(($D$28+250-$F$28-100+$AL$22),2)/$AK$28,0)</f>
+        <v>70</v>
+      </c>
+      <c r="W28">
+        <f>ROUND(($U$28+$V$28)*($A$28+$A$28)/$AM$28,0)</f>
+        <v>360</v>
+      </c>
+      <c r="X28" s="15">
+        <f ca="1">MIN(ROUND(W28/$A$28*$H$28,4),1)</f>
+        <v>0.18</v>
+      </c>
+      <c r="Y28">
+        <f>ROUND(($D$28+100)*$AJ$28,0)</f>
+        <v>15</v>
+      </c>
+      <c r="Z28" s="10">
+        <f>ROUND(POWER(($D$28+100-$F$28-250+$AL$28),2)/$AK$28,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AA28" s="10">
+        <f>ROUND(($Y$28+$Z$28)*($A$28+$A$28)/$AM$28,0)</f>
+        <v>117</v>
+      </c>
+      <c r="AB28" s="15">
+        <f>MIN(ROUND($AA$28/$A$28*10,4),1)</f>
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="AC28" s="10">
+        <f>ROUND(POWER(($D$26+200-$F$28-200+$AL$22),2)/$AK$28,0)</f>
+        <v>42</v>
+      </c>
+      <c r="AD28" s="10">
+        <f>ROUND(($M$26+$AC$28)*($A$26+$A$28)/$AM$28,0)</f>
+        <v>150</v>
+      </c>
+      <c r="AE28" s="15">
+        <f ca="1">MIN(ROUND($AD$28/$A$28*$H$28,4),1)</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AF28" s="10">
+        <f>ROUND(POWER(($D$28+200-$F$26-200+900),2)/$AK$28,0)</f>
+        <v>135</v>
+      </c>
+      <c r="AG28" s="10">
+        <f>ROUND(($M$28+$AF$28)*($A$26+$A$28)/$AM$28,0)</f>
+        <v>344</v>
+      </c>
+      <c r="AH28" s="15">
+        <f ca="1">MIN(ROUND($AG$28/$A$26*$H$28,4),1)</f>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="AI28" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AJ28" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AK28" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AL28" s="8">
+        <v>500</v>
+      </c>
+      <c r="AM28" s="8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>50000</v>
+      </c>
+      <c r="B29" s="19">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f>ROUND(POWER($A$29*C29/100,$AI$29),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>ROUND(POWER($A$29*E29/100,$AI$29),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I29" s="1">
+        <v>125</v>
+      </c>
+      <c r="J29" s="11">
+        <f ca="1">OFFSET(其他表格!G1,I29/100,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="11">
+        <f ca="1">OFFSET(其他表格!B1,K29,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f>ROUND(($D$29+200)*$AJ$29,0)</f>
+        <v>30</v>
+      </c>
+      <c r="N29">
+        <f>ROUND(($D$29+200)*$AJ$29,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O29">
+        <f>ROUND(POWER(($D$29+200-$F$29-200+$AL$22),2)/$AK$29,0)</f>
+        <v>42</v>
+      </c>
+      <c r="P29">
+        <f>ROUND(POWER(($F$29+200-$D$29-200+$AL$29),2)/$AK$29,0)</f>
+        <v>42</v>
+      </c>
+      <c r="Q29">
+        <f>ROUND(($M$29+$O$29)*($A$29+$A$29)/$AM$29,0)</f>
+        <v>600</v>
+      </c>
+      <c r="R29">
+        <f>ROUND((N29+P29)*($A$29+$A$29)/$AM$29,0)</f>
+        <v>600</v>
+      </c>
+      <c r="S29" s="15">
+        <f ca="1">MIN(ROUND(Q29/$A$29*$H$29,4),1)</f>
+        <v>0.12</v>
+      </c>
+      <c r="T29" s="15">
+        <f ca="1">MIN(ROUND($R$29/$A$29*$H$29,4),1)</f>
+        <v>0.12</v>
+      </c>
+      <c r="U29">
+        <f>ROUND(($D$29+250)*$AJ$29,0)</f>
+        <v>38</v>
+      </c>
+      <c r="V29">
+        <f>ROUND(POWER(($D$29+250-$F$29-100+$AL$22),2)/$AK$29,0)</f>
+        <v>70</v>
+      </c>
+      <c r="W29">
+        <f>ROUND(($U$29+$V$29)*($A$29+$A$29)/$AM$29,0)</f>
+        <v>900</v>
+      </c>
+      <c r="X29" s="15">
+        <f ca="1">MIN(ROUND(W29/$A$29*$H$29,4),1)</f>
+        <v>0.18</v>
+      </c>
+      <c r="Y29">
+        <f>ROUND(($D$29+100)*$AJ$29,0)</f>
+        <v>15</v>
+      </c>
+      <c r="Z29" s="10">
+        <f>ROUND(POWER(($D$29+100-$F$29-250+$AL$29),2)/$AK$29,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AA29" s="10">
+        <f>ROUND(($Y$29+$Z$29)*($A$29+$A$29)/$AM$29,0)</f>
+        <v>292</v>
+      </c>
+      <c r="AB29" s="15">
+        <f>MIN(ROUND($AA$29/$A$29*10,4),1)</f>
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="AC29" s="10">
+        <f>ROUND(POWER(($D$26+200-$F$29-200+$AL$22),2)/$AK$29,0)</f>
+        <v>42</v>
+      </c>
+      <c r="AD29" s="10">
+        <f>ROUND(($M$26+$AC$29)*($A$26+$A$29)/$AM$29,0)</f>
+        <v>330</v>
+      </c>
+      <c r="AE29" s="15">
+        <f ca="1">MIN(ROUND($AD$29/$A$29*$H$29,4),1)</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="AF29" s="10">
+        <f>ROUND(POWER(($D$29+200-$F$26-200+900),2)/$AK$29,0)</f>
+        <v>135</v>
+      </c>
+      <c r="AG29" s="10">
+        <f>ROUND(($M$29+$AF$29)*($A$26+$A$29)/$AM$29,0)</f>
+        <v>756</v>
+      </c>
+      <c r="AH29" s="15">
+        <f ca="1">MIN(ROUND($AG$29/$A$26*$H$29,4),1)</f>
+        <v>1</v>
+      </c>
+      <c r="AI29" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AJ29" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AK29" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AL29" s="8">
+        <v>500</v>
+      </c>
+      <c r="AM29" s="8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="U30"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32" s="19">
+        <f ca="1">ROUND(((Q32-Q22)+(R22-R32))*H32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <f>ROUND(POWER(A32*C32/100,AI32),0)</f>
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <f>ROUND(POWER($A$22*E32/100,$AI$22),0)</f>
+        <v>2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <f ca="1">ROUND(30/G32*L32*J32,0)</f>
+        <v>15</v>
+      </c>
+      <c r="I32" s="1">
+        <v>250</v>
+      </c>
+      <c r="J32" s="11">
+        <f ca="1">OFFSET(其他表格!G1,I32/100,0)</f>
+        <v>1.05</v>
+      </c>
+      <c r="K32" s="1">
+        <v>6</v>
+      </c>
+      <c r="L32" s="11">
+        <f ca="1">OFFSET(其他表格!B1,K32,0)</f>
+        <v>1.45</v>
+      </c>
+      <c r="M32">
+        <f>ROUND((D32+200)*AJ32,0)</f>
+        <v>30</v>
+      </c>
+      <c r="N32">
+        <f>ROUND(($D$22+200)*$AJ$22,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O32">
+        <f>ROUND(POWER((D32+200-F22-200+AL32),2)/AK32,0)</f>
+        <v>42</v>
+      </c>
+      <c r="P32">
+        <f>ROUND(POWER((D22+200-F32-200+AL32),2)/AK32,0)</f>
+        <v>41</v>
+      </c>
+      <c r="Q32">
+        <f>ROUND((M32+O32)*(A32+A32)/AM32,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <f>ROUND((N32+P32)*(A32+A32)/AM32,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S32" s="15">
+        <f ca="1">MIN(ROUND(Q32/A32*H32,4),1)</f>
+        <v>0.15</v>
+      </c>
+      <c r="T32" s="15">
+        <f ca="1">MIN(ROUND(R32/A32*H32,4),1)</f>
+        <v>0.15</v>
+      </c>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32" s="15"/>
+      <c r="Y32"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AJ32" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AK32" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AL32" s="8">
+        <v>500</v>
+      </c>
+      <c r="AM32" s="8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>500</v>
+      </c>
+      <c r="B33" s="19">
+        <f t="shared" ref="B33:B39" ca="1" si="1">ROUND(((Q33-Q23)+(R23-R33))*H33,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <f>ROUND(POWER(A33*C33/100,AI33),0)</f>
+        <v>7</v>
+      </c>
+      <c r="E33" s="1">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <f>ROUND(POWER($A$23*E33/100,$AI$23),0)</f>
+        <v>5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33:H39" ca="1" si="2">ROUND(30/G33*L33*J33,0)</f>
+        <v>15</v>
+      </c>
+      <c r="I33" s="1">
+        <v>250</v>
+      </c>
+      <c r="J33" s="11">
+        <f ca="1">OFFSET(其他表格!G1,I33/100,0)</f>
+        <v>1.05</v>
+      </c>
+      <c r="K33" s="1">
+        <v>6</v>
+      </c>
+      <c r="L33" s="11">
+        <f ca="1">OFFSET(其他表格!B1,K33,0)</f>
+        <v>1.45</v>
+      </c>
+      <c r="M33">
+        <f>ROUND((D33+200)*AJ33,0)</f>
+        <v>31</v>
+      </c>
+      <c r="N33">
+        <f>ROUND(($D$23+200)*$AJ$23,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O33">
+        <f>ROUND(POWER((D33+200-F23-200+AL33),2)/AK33,0)</f>
+        <v>43</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ref="P33:P39" si="3">ROUND(POWER((D23+200-F33-200+AL33),2)/AK33,0)</f>
+        <v>41</v>
+      </c>
+      <c r="Q33">
+        <f>ROUND((M33+O33)*(A33+A33)/AM33,0)</f>
+        <v>6</v>
+      </c>
+      <c r="R33">
+        <f t="shared" ref="R33:R39" si="4">ROUND((N33+P33)*(A33+A33)/AM33,0)</f>
+        <v>6</v>
+      </c>
+      <c r="S33" s="15">
+        <f ca="1">MIN(ROUND(Q33/A33*H33,4),1)</f>
+        <v>0.18</v>
+      </c>
+      <c r="T33" s="15">
+        <f t="shared" ref="T33:T39" ca="1" si="5">MIN(ROUND(R33/A33*H33,4),1)</f>
+        <v>0.18</v>
+      </c>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33" s="15"/>
+      <c r="Y33"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AJ33" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AK33" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AL33" s="8">
+        <v>500</v>
+      </c>
+      <c r="AM33" s="8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>1000</v>
+      </c>
+      <c r="B34" s="19">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C34" s="1">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <f>ROUND(POWER(A34*C34/100,AI34),0)</f>
+        <v>10</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <f>ROUND(POWER($A$24*E34/100,$AI$24),0)</f>
+        <v>7</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I34" s="1">
+        <v>250</v>
+      </c>
+      <c r="J34" s="11">
+        <f ca="1">OFFSET(其他表格!G1,I34/100,0)</f>
+        <v>1.05</v>
+      </c>
+      <c r="K34" s="1">
+        <v>6</v>
+      </c>
+      <c r="L34" s="11">
+        <f ca="1">OFFSET(其他表格!B1,K34,0)</f>
+        <v>1.45</v>
+      </c>
+      <c r="M34">
+        <f>ROUND((D34+200)*AJ34,0)</f>
+        <v>32</v>
+      </c>
+      <c r="N34">
+        <f>ROUND(($D$24+200)*$AJ$24,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O34">
+        <f>ROUND(POWER((D34+200-F24-200+AL34),2)/AK34,0)</f>
+        <v>43</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="Q34">
+        <f>ROUND((M34+O34)*(A34+A34)/AM34,0)</f>
+        <v>13</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="S34" s="15">
+        <f ca="1">MIN(ROUND(Q34/A34*H34,4),1)</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="T34" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.18</v>
+      </c>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34" s="15"/>
+      <c r="Y34"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AJ34" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AK34" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AL34" s="8">
+        <v>500</v>
+      </c>
+      <c r="AM34" s="8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>2000</v>
+      </c>
+      <c r="B35" s="19">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <f>ROUND(POWER(A35*C35/100,AI35),0)</f>
+        <v>14</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <f>ROUND(POWER($A$25*E35/100,$AI$25),0)</f>
+        <v>10</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I35" s="1">
+        <v>250</v>
+      </c>
+      <c r="J35" s="11">
+        <f ca="1">OFFSET(其他表格!G1,I35/100,0)</f>
+        <v>1.05</v>
+      </c>
+      <c r="K35" s="1">
+        <v>6</v>
+      </c>
+      <c r="L35" s="11">
+        <f ca="1">OFFSET(其他表格!B1,K35,0)</f>
+        <v>1.45</v>
+      </c>
+      <c r="M35">
+        <f>ROUND((D35+200)*AJ35,0)</f>
+        <v>32</v>
+      </c>
+      <c r="N35">
+        <f>ROUND(($D$25+200)*$AJ$25,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O35">
+        <f>ROUND(POWER((D35+200-F25-200+AL35),2)/AK35,0)</f>
+        <v>44</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="Q35">
+        <f>ROUND((M35+O35)*(A35+A35)/AM35,0)</f>
+        <v>25</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="S35" s="15">
+        <f ca="1">MIN(ROUND(Q35/A35*H35,4),1)</f>
+        <v>0.1875</v>
+      </c>
+      <c r="T35" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35" s="15"/>
+      <c r="Y35"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AJ35" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AK35" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AL35" s="8">
+        <v>500</v>
+      </c>
+      <c r="AM35" s="8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>5000</v>
+      </c>
+      <c r="B36" s="19">
+        <f t="shared" ca="1" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="C36" s="1">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <f>ROUND(POWER(A36*C36/100,AI36),0)</f>
+        <v>22</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <f>ROUND(POWER($A$26*E36/100,$AI$26),0)</f>
+        <v>16</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I36" s="1">
+        <v>250</v>
+      </c>
+      <c r="J36" s="11">
+        <f ca="1">OFFSET(其他表格!G1,I36/100,0)</f>
+        <v>1.05</v>
+      </c>
+      <c r="K36" s="1">
+        <v>6</v>
+      </c>
+      <c r="L36" s="11">
+        <f ca="1">OFFSET(其他表格!B1,K36,0)</f>
+        <v>1.45</v>
+      </c>
+      <c r="M36">
+        <f>ROUND((D36+200)*AJ36,0)</f>
+        <v>33</v>
+      </c>
+      <c r="N36">
+        <f>ROUND(($D$26+200)*$AJ$26,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O36">
+        <f>ROUND(POWER((D36+200-F26-200+AL36),2)/AK36,0)</f>
+        <v>45</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="Q36">
+        <f>ROUND((M36+O36)*(A36+A36)/AM36,0)</f>
+        <v>65</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="S36" s="15">
+        <f ca="1">MIN(ROUND(Q36/A36*H36,4),1)</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="T36" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36" s="15"/>
+      <c r="Y36"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AJ36" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AK36" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AL36" s="8">
+        <v>500</v>
+      </c>
+      <c r="AM36" s="8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>10000</v>
+      </c>
+      <c r="B37" s="19">
+        <f t="shared" ca="1" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <f>ROUND(POWER(A37*C37/100,AI37),0)</f>
+        <v>32</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <f>ROUND(POWER($A$27*E37/100,$AI$27),0)</f>
+        <v>22</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I37" s="1">
+        <v>250</v>
+      </c>
+      <c r="J37" s="11">
+        <f ca="1">OFFSET(其他表格!G1,I37/100,0)</f>
+        <v>1.05</v>
+      </c>
+      <c r="K37" s="1">
+        <v>6</v>
+      </c>
+      <c r="L37" s="11">
+        <f ca="1">OFFSET(其他表格!B1,K37,0)</f>
+        <v>1.45</v>
+      </c>
+      <c r="M37">
+        <f>ROUND((D37+200)*AJ37,0)</f>
+        <v>35</v>
+      </c>
+      <c r="N37">
+        <f>ROUND(($D$27+200)*$AJ$27,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O37">
+        <f>ROUND(POWER((D37+200-F27-200+AL37),2)/AK37,0)</f>
+        <v>47</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="Q37">
+        <f>ROUND((M37+O37)*(A37+A37)/AM37,0)</f>
+        <v>137</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="S37" s="15">
+        <f ca="1">MIN(ROUND(Q37/A37*H37,4),1)</f>
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="T37" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37" s="15"/>
+      <c r="Y37"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="15"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="15"/>
+      <c r="AI37" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AJ37" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AK37" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AL37" s="8">
+        <v>500</v>
+      </c>
+      <c r="AM37" s="8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>20000</v>
+      </c>
+      <c r="B38" s="19">
+        <f t="shared" ca="1" si="1"/>
+        <v>1005</v>
+      </c>
+      <c r="C38" s="1">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <f>ROUND(POWER(A38*C38/100,AI38),0)</f>
+        <v>45</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <f>ROUND(POWER($A$28*E38/100,$AI$28),0)</f>
+        <v>32</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I38" s="1">
+        <v>250</v>
+      </c>
+      <c r="J38" s="11">
+        <f ca="1">OFFSET(其他表格!G1,I38/100,0)</f>
+        <v>1.05</v>
+      </c>
+      <c r="K38" s="1">
+        <v>6</v>
+      </c>
+      <c r="L38" s="11">
+        <f ca="1">OFFSET(其他表格!B1,K38,0)</f>
+        <v>1.45</v>
+      </c>
+      <c r="M38">
+        <f>ROUND((D38+200)*AJ38,0)</f>
+        <v>37</v>
+      </c>
+      <c r="N38">
+        <f>ROUND(($D$28+200)*$AJ$28,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O38">
+        <f>ROUND(POWER((D38+200-F28-200+AL38),2)/AK38,0)</f>
         <v>50</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="P38">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="Q38">
+        <f>ROUND((M38+O38)*(A38+A38)/AM38,0)</f>
+        <v>290</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="4"/>
+        <v>223</v>
+      </c>
+      <c r="S38" s="15">
+        <f ca="1">MIN(ROUND(Q38/A38*H38,4),1)</f>
+        <v>0.2175</v>
+      </c>
+      <c r="T38" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1673</v>
+      </c>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38" s="15"/>
+      <c r="Y38"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="15"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="15"/>
+      <c r="AI38" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AJ38" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AK38" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AL38" s="8">
+        <v>500</v>
+      </c>
+      <c r="AM38" s="8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>50000</v>
+      </c>
+      <c r="B39" s="19">
+        <f t="shared" ca="1" si="1"/>
+        <v>3885</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <f>ROUND(POWER(A39*C39/100,AI39),0)</f>
+        <v>71</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <f>ROUND(POWER($A$29*E39/100,$AI$29),0)</f>
+        <v>50</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I39" s="1">
+        <v>250</v>
+      </c>
+      <c r="J39" s="11">
+        <f ca="1">OFFSET(其他表格!G1,I39/100,0)</f>
+        <v>1.05</v>
+      </c>
+      <c r="K39" s="1">
+        <v>6</v>
+      </c>
+      <c r="L39" s="11">
+        <f ca="1">OFFSET(其他表格!B1,K39,0)</f>
+        <v>1.45</v>
+      </c>
+      <c r="M39">
+        <f>ROUND((D39+200)*AJ39,0)</f>
+        <v>41</v>
+      </c>
+      <c r="N39">
+        <f>ROUND(($D$29+200)*$AJ$29,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O39">
+        <f>ROUND(POWER((D39+200-F29-200+AL39),2)/AK39,0)</f>
         <v>54</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="14" t="s">
+      <c r="P39">
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <f>ROUND(30/C3,0)</f>
-        <v>10</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3">
-        <f>ROUND(POWER(A3*B3/100,Z3),0)</f>
-        <v>2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <f>ROUND(POWER(A3*H3/100,Z3),0)</f>
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J10" si="0">ROUND((G3+200)*AA3,0)</f>
-        <v>30</v>
-      </c>
-      <c r="K3">
-        <f>ROUND(POWER((G3+200-I3-200+AC3),2)/AB3,0)</f>
-        <v>42</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L10" si="1">ROUND((J3+K3)*(A3+A3)/AD3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="M3" s="15">
-        <f>MIN(ROUND(L3/A3*D3,4),1)</f>
-        <v>0.2</v>
-      </c>
-      <c r="N3">
-        <f>ROUND(POWER((G3+250-I3-100+AC3),2)/AB3,0)</f>
-        <v>70</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O10" si="2">ROUND((J3+N3)*(A3+A3)/AD3,0)</f>
-        <v>3</v>
-      </c>
-      <c r="P3" s="15">
-        <f>MIN(ROUND(O3/A3*D3,4),1)</f>
-        <v>0.3</v>
-      </c>
-      <c r="Q3" s="10">
-        <f>ROUND(POWER((G3+100-I3-250+AC3),2)/AB3,0)</f>
-        <v>20</v>
-      </c>
-      <c r="R3" s="10">
-        <f>ROUND((J3+Q3)*(A3+A3)/AD3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S3" s="15">
-        <f>MIN(ROUND(R3/A3*10,4),1)</f>
-        <v>0.1</v>
-      </c>
-      <c r="T3" s="10">
-        <f>ROUND(POWER((G7+200-I3-200+AC3),2)/AB3,0)</f>
-        <v>44</v>
-      </c>
-      <c r="U3" s="10">
-        <f>ROUND((J7+T3)*(A7+A3)/AD3,0)</f>
-        <v>48</v>
-      </c>
-      <c r="V3" s="15">
-        <f>MIN(ROUND(U3/A3*D3,4),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W3" s="10">
-        <f>ROUND(POWER((G3+200-I7-200+900),2)/AB3,0)</f>
-        <v>131</v>
-      </c>
-      <c r="X3" s="10">
-        <f>ROUND((J3+W3)*(A7+A3)/AD3,0)</f>
-        <v>103</v>
-      </c>
-      <c r="Y3" s="15">
-        <f>MIN(ROUND(X3/A7*D3,4),1)</f>
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="Z3" s="8">
+      <c r="Q39">
+        <f>ROUND((M39+O39)*(A39+A39)/AM39,0)</f>
+        <v>792</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="4"/>
+        <v>533</v>
+      </c>
+      <c r="S39" s="15">
+        <f ca="1">MIN(ROUND(Q39/A39*H39,4),1)</f>
+        <v>0.23760000000000001</v>
+      </c>
+      <c r="T39" s="15">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.15989999999999999</v>
+      </c>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39" s="15"/>
+      <c r="Y39"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="8">
         <v>0.5</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AJ39" s="8">
         <v>0.15</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AK39" s="8">
         <v>6000</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AL39" s="8">
         <v>500</v>
       </c>
-      <c r="AD3" s="8">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4">
-        <v>500</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D10" si="3">ROUND(30/C4,0)</f>
-        <v>10</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4">
-        <f t="shared" ref="G4:G10" si="4">ROUND(POWER(A4*B4/100,Z4),0)</f>
-        <v>5</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I10" si="5">ROUND(POWER(A4*H4/100,Z4),0)</f>
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="K4">
-        <f>ROUND(POWER((G4+200-I4-200+AC3),2)/AB4,0)</f>
-        <v>42</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="M4" s="15">
-        <f t="shared" ref="M4:M10" si="6">MIN(ROUND(L4/A4*D4,4),1)</f>
-        <v>0.18</v>
-      </c>
-      <c r="N4">
-        <f>ROUND(POWER((G4+250-I4-100+AC3),2)/AB4,0)</f>
-        <v>70</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="P4" s="15">
-        <f t="shared" ref="P4:P10" si="7">MIN(ROUND(O4/A4*D4,4),1)</f>
-        <v>0.26</v>
-      </c>
-      <c r="Q4" s="10">
-        <f t="shared" ref="Q4:Q10" si="8">ROUND(POWER((G4+100-I4-250+AC4),2)/AB4,0)</f>
-        <v>20</v>
-      </c>
-      <c r="R4" s="10">
-        <f t="shared" ref="R4:R10" si="9">ROUND((J4+Q4)*(A4+A4)/AD4,0)</f>
-        <v>6</v>
-      </c>
-      <c r="S4" s="15">
-        <f t="shared" ref="S4:S10" si="10">MIN(ROUND(R4/A4*10,4),1)</f>
-        <v>0.12</v>
-      </c>
-      <c r="T4" s="10">
-        <f>ROUND(POWER((G7+200-I4-200+AC3),2)/AB4,0)</f>
-        <v>44</v>
-      </c>
-      <c r="U4" s="10">
-        <f>ROUND((J7+T4)*(A7+A4)/AD4,0)</f>
-        <v>52</v>
-      </c>
-      <c r="V4" s="15">
-        <f>MIN(ROUND(U4/A4*D4,4),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W4" s="10">
-        <f>ROUND(POWER((G4+200-I7-200+900),2)/AB4,0)</f>
-        <v>132</v>
-      </c>
-      <c r="X4" s="10">
-        <f>ROUND((J4+W4)*(A7+A4)/AD4,0)</f>
-        <v>112</v>
-      </c>
-      <c r="Y4" s="15">
-        <f>MIN(ROUND(X4/A7*D4,4),1)</f>
-        <v>0.224</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>6000</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>500</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
-      <c r="A5">
-        <v>1000</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="K5">
-        <f>ROUND(POWER((G5+200-I5-200+AC3),2)/AB5,0)</f>
-        <v>42</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="M5" s="15">
-        <f t="shared" si="6"/>
-        <v>0.18</v>
-      </c>
-      <c r="N5">
-        <f>ROUND(POWER((G5+250-I5-100+AC3),2)/AB5,0)</f>
-        <v>70</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="P5" s="15">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
-      </c>
-      <c r="Q5" s="10">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="R5" s="10">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="S5" s="15">
-        <f t="shared" si="10"/>
-        <v>0.13</v>
-      </c>
-      <c r="T5" s="10">
-        <f>ROUND(POWER((G7+200-I5-200+AC3),2)/AB5,0)</f>
-        <v>43</v>
-      </c>
-      <c r="U5" s="10">
-        <f>ROUND((J7+T5)*(A7+A5)/AD5,0)</f>
-        <v>56</v>
-      </c>
-      <c r="V5" s="15">
-        <f t="shared" ref="V5:V10" si="11">MIN(ROUND(U5/A5*D5,4),1)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="W5" s="10">
-        <f>ROUND(POWER((G5+200-I7-200+900),2)/AB5,0)</f>
-        <v>132</v>
-      </c>
-      <c r="X5" s="10">
-        <f>ROUND((J5+W5)*(A7+A5)/AD5,0)</f>
-        <v>122</v>
-      </c>
-      <c r="Y5" s="15">
-        <f>MIN(ROUND(X5/A7*D5,4),1)</f>
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>6000</v>
-      </c>
-      <c r="AC5" s="8">
-        <v>500</v>
-      </c>
-      <c r="AD5" s="8">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
-      <c r="A6">
-        <v>2000</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="K6">
-        <f>ROUND(POWER((G6+200-I6-200+AC3),2)/AB6,0)</f>
-        <v>42</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="M6" s="15">
-        <f t="shared" si="6"/>
-        <v>0.185</v>
-      </c>
-      <c r="N6">
-        <f>ROUND(POWER((G6+250-I6-100+AC3),2)/AB6,0)</f>
-        <v>70</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="P6" s="15">
-        <f t="shared" si="7"/>
-        <v>0.255</v>
-      </c>
-      <c r="Q6" s="10">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="R6" s="10">
-        <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="S6" s="15">
-        <f t="shared" si="10"/>
-        <v>0.13</v>
-      </c>
-      <c r="T6" s="10">
-        <f>ROUND(POWER((G7+200-I6-200+AC3),2)/AB6,0)</f>
-        <v>43</v>
-      </c>
-      <c r="U6" s="10">
-        <f>ROUND((J7+T6)*(A7+A6)/AD6,0)</f>
-        <v>66</v>
-      </c>
-      <c r="V6" s="15">
-        <f t="shared" si="11"/>
-        <v>0.33</v>
-      </c>
-      <c r="W6" s="10">
-        <f>ROUND(POWER((G6+200-I7-200+900),2)/AB6,0)</f>
-        <v>133</v>
-      </c>
-      <c r="X6" s="10">
-        <f>ROUND((J6+W6)*(A7+A6)/AD6,0)</f>
-        <v>144</v>
-      </c>
-      <c r="Y6" s="15">
-        <f>MIN(ROUND(X6/A7*D6,4),1)</f>
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>6000</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>500</v>
-      </c>
-      <c r="AD6" s="8">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="A7">
-        <v>5000</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="K7">
-        <f>ROUND(POWER((G7+200-I7-200+AC3),2)/AB7,0)</f>
-        <v>42</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="M7" s="15">
-        <f t="shared" si="6"/>
-        <v>0.186</v>
-      </c>
-      <c r="N7">
-        <f>ROUND(POWER((G7+250-I7-100+AC3),2)/AB7,0)</f>
-        <v>70</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="2"/>
-        <v>128</v>
-      </c>
-      <c r="P7" s="15">
-        <f t="shared" si="7"/>
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="Q7" s="10">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="R7" s="10">
-        <f t="shared" si="9"/>
-        <v>65</v>
-      </c>
-      <c r="S7" s="15">
-        <f t="shared" si="10"/>
-        <v>0.13</v>
-      </c>
-      <c r="T7" s="10">
-        <f>ROUND(POWER((G7+200-I7-200+AC3),2)/AB7,0)</f>
-        <v>42</v>
-      </c>
-      <c r="U7" s="10">
-        <f>ROUND((J7+T7)*(A7+A7)/AD7,0)</f>
-        <v>93</v>
-      </c>
-      <c r="V7" s="15">
-        <f t="shared" si="11"/>
-        <v>0.186</v>
-      </c>
-      <c r="W7" s="10">
-        <f>ROUND(POWER((G7+200-I7-200+900),2)/AB7,0)</f>
-        <v>135</v>
-      </c>
-      <c r="X7" s="10">
-        <f>ROUND((J7+W7)*(A7+A7)/AD7,0)</f>
-        <v>209</v>
-      </c>
-      <c r="Y7" s="15">
-        <f>MIN(ROUND(X7/A7*D7,4),1)</f>
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>6000</v>
-      </c>
-      <c r="AC7" s="8">
-        <v>500</v>
-      </c>
-      <c r="AD7" s="8">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="A8">
-        <v>10000</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="K8">
-        <f>ROUND(POWER((G8+200-I8-200+AC3),2)/AB8,0)</f>
-        <v>42</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>188</v>
-      </c>
-      <c r="M8" s="15">
-        <f t="shared" si="6"/>
-        <v>0.188</v>
-      </c>
-      <c r="N8">
-        <f>ROUND(POWER((G8+250-I8-100+AC3),2)/AB8,0)</f>
-        <v>70</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="2"/>
-        <v>258</v>
-      </c>
-      <c r="P8" s="15">
-        <f t="shared" si="7"/>
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="Q8" s="10">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="R8" s="10">
-        <f t="shared" si="9"/>
-        <v>133</v>
-      </c>
-      <c r="S8" s="15">
-        <f t="shared" si="10"/>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="T8" s="10">
-        <f>ROUND(POWER((G7+200-I8-200+AC3),2)/AB8,0)</f>
-        <v>41</v>
-      </c>
-      <c r="U8" s="10">
-        <f>ROUND((J7+T8)*(A7+A8)/AD8,0)</f>
-        <v>137</v>
-      </c>
-      <c r="V8" s="15">
-        <f t="shared" si="11"/>
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="W8" s="10">
-        <f>ROUND(POWER((G8+200-I7-200+900),2)/AB8,0)</f>
-        <v>137</v>
-      </c>
-      <c r="X8" s="10">
-        <f>ROUND((J8+W8)*(A7+A8)/AD8,0)</f>
-        <v>319</v>
-      </c>
-      <c r="Y8" s="15">
-        <f>MIN(ROUND(X8/A7*D8,4),1)</f>
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>6000</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>500</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="A9">
-        <v>20000</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="H9" s="1">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="K9">
-        <f>ROUND(POWER((G9+200-I9-200+AC3),2)/AB9,0)</f>
-        <v>42</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>385</v>
-      </c>
-      <c r="M9" s="15">
-        <f t="shared" si="6"/>
-        <v>0.1925</v>
-      </c>
-      <c r="N9">
-        <f>ROUND(POWER((G9+250-I9-100+AC3),2)/AB9,0)</f>
-        <v>70</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="2"/>
-        <v>525</v>
-      </c>
-      <c r="P9" s="15">
-        <f t="shared" si="7"/>
-        <v>0.26250000000000001</v>
-      </c>
-      <c r="Q9" s="10">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="R9" s="10">
-        <f t="shared" si="9"/>
-        <v>275</v>
-      </c>
-      <c r="S9" s="15">
-        <f t="shared" si="10"/>
-        <v>0.13750000000000001</v>
-      </c>
-      <c r="T9" s="10">
-        <f>ROUND(POWER((G7+200-I9-200+AC3),2)/AB9,0)</f>
-        <v>39</v>
-      </c>
-      <c r="U9" s="10">
-        <f>ROUND((J7+T9)*(A7+A9)/AD9,0)</f>
-        <v>222</v>
-      </c>
-      <c r="V9" s="15">
-        <f t="shared" si="11"/>
-        <v>0.111</v>
-      </c>
-      <c r="W9" s="10">
-        <f>ROUND(POWER((G9+200-I7-200+900),2)/AB9,0)</f>
-        <v>140</v>
-      </c>
-      <c r="X9" s="10">
-        <f>ROUND((J9+W9)*(A7+A9)/AD9,0)</f>
-        <v>547</v>
-      </c>
-      <c r="Y9" s="15">
-        <f>MIN(ROUND(X9/A7*D9,4),1)</f>
-        <v>1</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>6000</v>
-      </c>
-      <c r="AC9" s="8">
-        <v>500</v>
-      </c>
-      <c r="AD9" s="8">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="A10">
-        <v>50000</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="H10" s="1">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="K10">
-        <f>ROUND(POWER((G10+200-I10-200+AC3),2)/AB10,0)</f>
-        <v>42</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="M10" s="15">
-        <f t="shared" si="6"/>
-        <v>0.2</v>
-      </c>
-      <c r="N10">
-        <f>ROUND(POWER((G10+250-I10-100+AC3),2)/AB10,0)</f>
-        <v>70</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="2"/>
-        <v>1350</v>
-      </c>
-      <c r="P10" s="15">
-        <f t="shared" si="7"/>
-        <v>0.27</v>
-      </c>
-      <c r="Q10" s="10">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="R10" s="10">
-        <f t="shared" si="9"/>
-        <v>725</v>
-      </c>
-      <c r="S10" s="15">
-        <f t="shared" si="10"/>
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="T10" s="10">
-        <f>ROUND(POWER((G7+200-I10-200+AC3),2)/AB10,0)</f>
-        <v>36</v>
-      </c>
-      <c r="U10" s="10">
-        <f>ROUND((J7+T10)*(A7+A10)/AD10,0)</f>
-        <v>468</v>
-      </c>
-      <c r="V10" s="15">
-        <f t="shared" si="11"/>
-        <v>9.3600000000000003E-2</v>
-      </c>
-      <c r="W10" s="10">
-        <f>ROUND(POWER((G10+200-I7-200+900),2)/AB10,0)</f>
-        <v>145</v>
-      </c>
-      <c r="X10" s="10">
-        <f>ROUND((J10+W10)*(A7+A10)/AD10,0)</f>
-        <v>1258</v>
-      </c>
-      <c r="Y10" s="15">
-        <f>MIN(ROUND(X10/A7*D10,4),1)</f>
-        <v>1</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>6000</v>
-      </c>
-      <c r="AC10" s="8">
-        <v>500</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>8000</v>
+      <c r="AM39" s="8">
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
@@ -2414,14 +3864,220 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="9" style="18"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3">
+        <f>G2+0.05</f>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1.3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G11" si="0">G3+0.05</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5">
+        <v>400</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.1500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.4</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1.45</v>
+      </c>
+      <c r="F7">
+        <v>600</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.5</v>
+      </c>
+      <c r="F8">
+        <v>700</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1.3000000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.5</v>
+      </c>
+      <c r="F9">
+        <v>800</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.3500000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1.55</v>
+      </c>
+      <c r="F10">
+        <v>900</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1.55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1.4500000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/文稿/水浒数值设计.xlsx
+++ b/文稿/水浒数值设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13485" yWindow="-15" windowWidth="7050" windowHeight="7860" activeTab="4"/>
+    <workbookView xWindow="13485" yWindow="15" windowWidth="7050" windowHeight="7830" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="基本公式" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="大地图" sheetId="12" r:id="rId9"/>
     <sheet name="其他表格" sheetId="5" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="490">
   <si>
     <t>战斗核心基础公式设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1946,11 +1946,19 @@
     <t>黄金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>可派遣队伍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派兵上限(人口)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
@@ -2418,12 +2426,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2499,6 +2519,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2575,6 +2596,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2651,45 +2673,63 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="74730880"/>
-        <c:axId val="74744960"/>
+        <c:smooth val="0"/>
+        <c:axId val="119228672"/>
+        <c:axId val="119238656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74730880"/>
+        <c:axId val="119228672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74744960"/>
+        <c:crossAx val="119238656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74744960"/>
+        <c:axId val="119238656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74730880"/>
+        <c:crossAx val="119228672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2701,12 +2741,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2779,6 +2831,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2852,45 +2905,63 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="74769536"/>
-        <c:axId val="74771072"/>
+        <c:smooth val="0"/>
+        <c:axId val="119251712"/>
+        <c:axId val="119253248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74769536"/>
+        <c:axId val="119251712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74771072"/>
+        <c:crossAx val="119253248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74771072"/>
+        <c:axId val="119253248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74769536"/>
+        <c:crossAx val="119251712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2902,12 +2973,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2994,6 +3077,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3081,6 +3165,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3168,43 +3253,62 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="83927040"/>
-        <c:axId val="83928576"/>
+        <c:smooth val="0"/>
+        <c:axId val="120708480"/>
+        <c:axId val="120710272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83927040"/>
+        <c:axId val="120708480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83928576"/>
+        <c:crossAx val="120710272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83928576"/>
+        <c:axId val="120710272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83927040"/>
+        <c:crossAx val="120708480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3315,7 +3419,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3389,6 +3493,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3423,6 +3528,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3598,7 +3704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E187"/>
   <sheetViews>
     <sheetView topLeftCell="A127" workbookViewId="0">
@@ -4776,11 +4882,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5807,7 +5913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19868,7 +19974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20695,7 +20801,7 @@
         <v>7</v>
       </c>
       <c r="O12" s="41">
-        <f t="shared" ref="O10:O23" si="16">M12*F12</f>
+        <f t="shared" ref="O12:O23" si="16">M12*F12</f>
         <v>5400864</v>
       </c>
       <c r="P12" s="45">
@@ -22412,7 +22518,7 @@
         <v>18</v>
       </c>
       <c r="O36" s="41">
-        <f t="shared" ref="O32:O45" si="38">M36*F36</f>
+        <f t="shared" ref="O36:O45" si="38">M36*F36</f>
         <v>26453952</v>
       </c>
       <c r="P36" s="45">
@@ -24099,7 +24205,7 @@
         <v>27</v>
       </c>
       <c r="O59" s="41">
-        <f t="shared" ref="O54:O67" si="59">M59*F59</f>
+        <f t="shared" ref="O59:O67" si="59">M59*F59</f>
         <v>59019840</v>
       </c>
       <c r="P59" s="45">
@@ -26282,7 +26388,7 @@
         <v>150</v>
       </c>
       <c r="N87" s="41">
-        <f t="shared" ref="N76:N89" si="78">M87*F87</f>
+        <f t="shared" ref="N87:N89" si="78">M87*F87</f>
         <v>385930800</v>
       </c>
       <c r="O87" s="41">
@@ -26509,14 +26615,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C298" sqref="C298:H317"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -34716,11 +34822,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="F303" sqref="F303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -34811,11 +34917,11 @@
         <v>549</v>
       </c>
       <c r="E3" s="85">
-        <f>C3-C2</f>
+        <f t="shared" ref="E3:E21" si="1">C3-C2</f>
         <v>0.15249818748450436</v>
       </c>
       <c r="F3" s="85">
-        <f t="shared" ref="F3:F20" si="1">E3/24</f>
+        <f t="shared" ref="F3:F20" si="2">E3/24</f>
         <v>6.3540911451876814E-3</v>
       </c>
       <c r="G3" s="1">
@@ -34842,11 +34948,11 @@
         <v>1989</v>
       </c>
       <c r="E4" s="85">
-        <f>C4-C3</f>
+        <f t="shared" si="1"/>
         <v>0.55244567411169043</v>
       </c>
       <c r="F4" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3018569754653769E-2</v>
       </c>
       <c r="G4" s="1">
@@ -34873,11 +34979,11 @@
         <v>3569</v>
       </c>
       <c r="E5" s="85">
-        <f>C5-C4</f>
+        <f t="shared" si="1"/>
         <v>0.9914469388717132</v>
       </c>
       <c r="F5" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1310289119654717E-2</v>
       </c>
       <c r="G5" s="1">
@@ -34904,11 +35010,11 @@
         <v>6105</v>
       </c>
       <c r="E6" s="85">
-        <f>C6-C5</f>
+        <f t="shared" si="1"/>
         <v>1.6958960796489837</v>
       </c>
       <c r="F6" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0662336652040983E-2</v>
       </c>
       <c r="G6" s="1">
@@ -34935,11 +35041,11 @@
         <v>9012</v>
       </c>
       <c r="E7" s="85">
-        <f>C7-C6</f>
+        <f t="shared" si="1"/>
         <v>2.5034404912912427</v>
       </c>
       <c r="F7" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10431002047046845</v>
       </c>
       <c r="G7" s="1">
@@ -34966,11 +35072,11 @@
         <v>15531</v>
       </c>
       <c r="E8" s="85">
-        <f>C8-C7</f>
+        <f t="shared" si="1"/>
         <v>4.314167935247621</v>
       </c>
       <c r="F8" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17975699730198422</v>
       </c>
       <c r="G8" s="1">
@@ -34997,11 +35103,11 @@
         <v>35646</v>
       </c>
       <c r="E9" s="85">
-        <f>C9-C8</f>
+        <f t="shared" si="1"/>
         <v>9.9017527759617181</v>
       </c>
       <c r="F9" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41257303233173825</v>
       </c>
       <c r="G9" s="1">
@@ -35028,11 +35134,11 @@
         <v>51715</v>
       </c>
       <c r="E10" s="85">
-        <f>C10-C9</f>
+        <f t="shared" si="1"/>
         <v>14.365364858493667</v>
       </c>
       <c r="F10" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.59855686910390282</v>
       </c>
       <c r="G10" s="1">
@@ -35059,11 +35165,11 @@
         <v>81236</v>
       </c>
       <c r="E11" s="85">
-        <f>C11-C10</f>
+        <f t="shared" si="1"/>
         <v>22.565437260791725</v>
       </c>
       <c r="F11" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94022655253298859</v>
       </c>
       <c r="G11" s="1">
@@ -35090,11 +35196,11 @@
         <v>148416</v>
       </c>
       <c r="E12" s="85">
-        <f>C12-C11</f>
+        <f t="shared" si="1"/>
         <v>41.226630688197822</v>
       </c>
       <c r="F12" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7177762786749093</v>
       </c>
       <c r="G12" s="1">
@@ -35121,11 +35227,11 @@
         <v>204854</v>
       </c>
       <c r="E13" s="85">
-        <f>C13-C12</f>
+        <f t="shared" si="1"/>
         <v>56.903958705215501</v>
       </c>
       <c r="F13" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3709982793839792</v>
       </c>
       <c r="G13" s="1">
@@ -35152,11 +35258,11 @@
         <v>312563</v>
       </c>
       <c r="E14" s="85">
-        <f>C14-C13</f>
+        <f t="shared" si="1"/>
         <v>86.8231586836622</v>
       </c>
       <c r="F14" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6176316118192582</v>
       </c>
       <c r="G14" s="1">
@@ -35183,11 +35289,11 @@
         <v>412701</v>
       </c>
       <c r="E15" s="85">
-        <f>C15-C14</f>
+        <f t="shared" si="1"/>
         <v>114.63905052675003</v>
       </c>
       <c r="F15" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7766271052812508</v>
       </c>
       <c r="G15" s="1">
@@ -35214,11 +35320,11 @@
         <v>526133</v>
       </c>
       <c r="E16" s="85">
-        <f>C16-C15</f>
+        <f t="shared" si="1"/>
         <v>146.14802932649997</v>
       </c>
       <c r="F16" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0895012219374989</v>
       </c>
       <c r="G16" s="1">
@@ -35245,11 +35351,11 @@
         <v>654173</v>
       </c>
       <c r="E17" s="85">
-        <f>C17-C16</f>
+        <f t="shared" si="1"/>
         <v>181.71471536249999</v>
       </c>
       <c r="F17" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5714464734374998</v>
       </c>
       <c r="G17" s="1">
@@ -35276,11 +35382,11 @@
         <v>798245</v>
       </c>
       <c r="E18" s="85">
-        <f>C18-C17</f>
+        <f t="shared" si="1"/>
         <v>221.73466545000008</v>
       </c>
       <c r="F18" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.2389443937500033</v>
       </c>
       <c r="G18" s="1">
@@ -35307,11 +35413,11 @@
         <v>959892</v>
       </c>
       <c r="E19" s="85">
-        <f>C19-C18</f>
+        <f t="shared" si="1"/>
         <v>266.63676599999985</v>
       </c>
       <c r="F19" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.109865249999993</v>
       </c>
       <c r="G19" s="1">
@@ -35338,11 +35444,11 @@
         <v>1140789</v>
       </c>
       <c r="E20" s="85">
-        <f>C20-C19</f>
+        <f t="shared" si="1"/>
         <v>316.88579999999979</v>
       </c>
       <c r="F20" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.203574999999992</v>
       </c>
       <c r="G20" s="1">
@@ -35369,7 +35475,7 @@
         <v>1342747</v>
       </c>
       <c r="E21" s="85">
-        <f>C21-C20</f>
+        <f t="shared" si="1"/>
         <v>372.9852000000003</v>
       </c>
       <c r="F21" s="85">
@@ -35462,15 +35568,15 @@
         <v>0.15486591848049022</v>
       </c>
       <c r="D24" s="86">
-        <f t="shared" ref="D24:D42" si="2">ROUND(E24*3600,0)</f>
+        <f t="shared" ref="D24:D42" si="3">ROUND(E24*3600,0)</f>
         <v>494</v>
       </c>
       <c r="E24" s="85">
-        <f>C24-C23</f>
+        <f t="shared" ref="E24:E42" si="4">C24-C23</f>
         <v>0.13724836873605392</v>
       </c>
       <c r="F24" s="85">
-        <f t="shared" ref="F24:F41" si="3">E24/24</f>
+        <f t="shared" ref="F24:F41" si="5">E24/24</f>
         <v>5.7186820306689137E-3</v>
       </c>
       <c r="G24" s="11">
@@ -35478,11 +35584,11 @@
         <v>9300</v>
       </c>
       <c r="H24" s="71">
-        <f t="shared" ref="H24:H42" si="4">G24</f>
+        <f t="shared" ref="H24:H42" si="6">G24</f>
         <v>9300</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" ref="I24:I42" si="5">SUM(G24:H24)</f>
+        <f t="shared" ref="I24:I42" si="7">SUM(G24:H24)</f>
         <v>18600</v>
       </c>
     </row>
@@ -35499,15 +35605,15 @@
         <v>0.65206702518101156</v>
       </c>
       <c r="D25" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1790</v>
       </c>
       <c r="E25" s="85">
-        <f>C25-C24</f>
+        <f t="shared" si="4"/>
         <v>0.49720110670052131</v>
       </c>
       <c r="F25" s="85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0716712779188389E-2</v>
       </c>
       <c r="G25" s="11">
@@ -35515,11 +35621,11 @@
         <v>13800</v>
       </c>
       <c r="H25" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>13800</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>27600</v>
       </c>
     </row>
@@ -35536,15 +35642,15 @@
         <v>1.5443692701655534</v>
       </c>
       <c r="D26" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3212</v>
       </c>
       <c r="E26" s="85">
-        <f>C26-C25</f>
+        <f t="shared" si="4"/>
         <v>0.8923022449845418</v>
       </c>
       <c r="F26" s="85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.717926020768924E-2</v>
       </c>
       <c r="G26" s="11">
@@ -35552,11 +35658,11 @@
         <v>22800</v>
       </c>
       <c r="H26" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22800</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>45600</v>
       </c>
     </row>
@@ -35573,15 +35679,15 @@
         <v>3.0706757418496387</v>
       </c>
       <c r="D27" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5495</v>
       </c>
       <c r="E27" s="85">
-        <f>C27-C26</f>
+        <f t="shared" si="4"/>
         <v>1.5263064716840853</v>
       </c>
       <c r="F27" s="85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.3596102986836892E-2</v>
       </c>
       <c r="G27" s="11">
@@ -35589,11 +35695,11 @@
         <v>37900</v>
       </c>
       <c r="H27" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37900</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75800</v>
       </c>
     </row>
@@ -35610,15 +35716,15 @@
         <v>5.323772184011756</v>
       </c>
       <c r="D28" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8111</v>
       </c>
       <c r="E28" s="85">
-        <f>C28-C27</f>
+        <f t="shared" si="4"/>
         <v>2.2530964421621174</v>
       </c>
       <c r="F28" s="85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.3879018423421556E-2</v>
       </c>
       <c r="G28" s="11">
@@ -35626,11 +35732,11 @@
         <v>96500</v>
       </c>
       <c r="H28" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>96500</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>193000</v>
       </c>
     </row>
@@ -35647,15 +35753,15 @@
         <v>9.2065233257346151</v>
       </c>
       <c r="D29" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13978</v>
       </c>
       <c r="E29" s="85">
-        <f>C29-C28</f>
+        <f t="shared" si="4"/>
         <v>3.8827511417228591</v>
       </c>
       <c r="F29" s="85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1617812975717858</v>
       </c>
       <c r="G29" s="11">
@@ -35663,11 +35769,11 @@
         <v>190100</v>
       </c>
       <c r="H29" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>190100</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>380200</v>
       </c>
     </row>
@@ -35684,15 +35790,15 @@
         <v>18.118100824100161</v>
       </c>
       <c r="D30" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32082</v>
       </c>
       <c r="E30" s="85">
-        <f>C30-C29</f>
+        <f t="shared" si="4"/>
         <v>8.9115774983655456</v>
       </c>
       <c r="F30" s="85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37131572909856442</v>
       </c>
       <c r="G30" s="11">
@@ -35700,11 +35806,11 @@
         <v>341800</v>
       </c>
       <c r="H30" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>341800</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>683600</v>
       </c>
     </row>
@@ -35721,15 +35827,15 @@
         <v>31.046929196744461</v>
       </c>
       <c r="D31" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46544</v>
       </c>
       <c r="E31" s="85">
-        <f>C31-C30</f>
+        <f t="shared" si="4"/>
         <v>12.928828372644301</v>
       </c>
       <c r="F31" s="85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.53870118219351248</v>
       </c>
       <c r="G31" s="11">
@@ -35737,11 +35843,11 @@
         <v>493100</v>
       </c>
       <c r="H31" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>493100</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>986200</v>
       </c>
     </row>
@@ -35758,15 +35864,15 @@
         <v>51.35582273145701</v>
       </c>
       <c r="D32" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>73112</v>
       </c>
       <c r="E32" s="85">
-        <f>C32-C31</f>
+        <f t="shared" si="4"/>
         <v>20.308893534712549</v>
       </c>
       <c r="F32" s="85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.84620389727968959</v>
       </c>
       <c r="G32" s="11">
@@ -35774,11 +35880,11 @@
         <v>749900</v>
       </c>
       <c r="H32" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>749900</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1499800</v>
       </c>
     </row>
@@ -35795,15 +35901,15 @@
         <v>88.459790350835036</v>
       </c>
       <c r="D33" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>133574</v>
       </c>
       <c r="E33" s="85">
-        <f>C33-C32</f>
+        <f t="shared" si="4"/>
         <v>37.103967619378025</v>
       </c>
       <c r="F33" s="85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5459986508074177</v>
       </c>
       <c r="G33" s="11">
@@ -35811,11 +35917,11 @@
         <v>1091300</v>
       </c>
       <c r="H33" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1091300</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2182600</v>
       </c>
     </row>
@@ -35832,15 +35938,15 @@
         <v>139.67335318552901</v>
       </c>
       <c r="D34" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>184369</v>
       </c>
       <c r="E34" s="85">
-        <f>C34-C33</f>
+        <f t="shared" si="4"/>
         <v>51.213562834693974</v>
       </c>
       <c r="F34" s="85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.1338984514455821</v>
       </c>
       <c r="G34" s="11">
@@ -35848,11 +35954,11 @@
         <v>1960500</v>
       </c>
       <c r="H34" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1960500</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3921000</v>
       </c>
     </row>
@@ -35869,15 +35975,15 @@
         <v>217.81419600082498</v>
       </c>
       <c r="D35" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>281307</v>
       </c>
       <c r="E35" s="85">
-        <f>C35-C34</f>
+        <f t="shared" si="4"/>
         <v>78.140842815295969</v>
       </c>
       <c r="F35" s="85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.2558684506373319</v>
       </c>
       <c r="G35" s="11">
@@ -35885,11 +35991,11 @@
         <v>2682500</v>
       </c>
       <c r="H35" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2682500</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5365000</v>
       </c>
     </row>
@@ -35906,15 +36012,15 @@
         <v>320.98934147489996</v>
       </c>
       <c r="D36" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>371431</v>
       </c>
       <c r="E36" s="85">
-        <f>C36-C35</f>
+        <f t="shared" si="4"/>
         <v>103.17514547407498</v>
       </c>
       <c r="F36" s="85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.2989643947531242</v>
       </c>
       <c r="G36" s="11">
@@ -35922,11 +36028,11 @@
         <v>3313100</v>
       </c>
       <c r="H36" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3313100</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6626200</v>
       </c>
     </row>
@@ -35943,15 +36049,15 @@
         <v>452.52256786874995</v>
       </c>
       <c r="D37" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>473520</v>
       </c>
       <c r="E37" s="85">
-        <f>C37-C36</f>
+        <f t="shared" si="4"/>
         <v>131.53322639384999</v>
       </c>
       <c r="F37" s="85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.4805510997437494</v>
       </c>
       <c r="G37" s="11">
@@ -35959,11 +36065,11 @@
         <v>4022400</v>
       </c>
       <c r="H37" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4022400</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8044800</v>
       </c>
     </row>
@@ -35980,15 +36086,15 @@
         <v>616.06581169499998</v>
       </c>
       <c r="D38" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>588756</v>
       </c>
       <c r="E38" s="85">
-        <f>C38-C37</f>
+        <f t="shared" si="4"/>
         <v>163.54324382625003</v>
       </c>
       <c r="F38" s="85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.8143018260937511</v>
       </c>
       <c r="G38" s="11">
@@ -35996,11 +36102,11 @@
         <v>4714100</v>
       </c>
       <c r="H38" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4714100</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9428200</v>
       </c>
     </row>
@@ -36017,15 +36123,15 @@
         <v>815.62701059999995</v>
       </c>
       <c r="D39" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>718420</v>
       </c>
       <c r="E39" s="85">
-        <f>C39-C38</f>
+        <f t="shared" si="4"/>
         <v>199.56119890499997</v>
       </c>
       <c r="F39" s="85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.3150499543749987</v>
       </c>
       <c r="G39" s="11">
@@ -36033,11 +36139,11 @@
         <v>5456500</v>
       </c>
       <c r="H39" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5456500</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10913000</v>
       </c>
     </row>
@@ -36054,15 +36160,15 @@
         <v>1055.6000999999997</v>
       </c>
       <c r="D40" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>863903</v>
       </c>
       <c r="E40" s="85">
-        <f>C40-C39</f>
+        <f t="shared" si="4"/>
         <v>239.97308939999971</v>
       </c>
       <c r="F40" s="85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.9988787249999884</v>
       </c>
       <c r="G40" s="11">
@@ -36070,11 +36176,11 @@
         <v>6269200</v>
       </c>
       <c r="H40" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6269200</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12538400</v>
       </c>
     </row>
@@ -36091,15 +36197,15 @@
         <v>1340.7973199999997</v>
       </c>
       <c r="D41" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1026710</v>
       </c>
       <c r="E41" s="85">
-        <f>C41-C40</f>
+        <f t="shared" si="4"/>
         <v>285.19722000000002</v>
       </c>
       <c r="F41" s="85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11.883217500000001</v>
       </c>
       <c r="G41" s="11">
@@ -36107,11 +36213,11 @@
         <v>7127300</v>
       </c>
       <c r="H41" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7127300</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14254600</v>
       </c>
     </row>
@@ -36128,11 +36234,11 @@
         <v>1676.4839999999997</v>
       </c>
       <c r="D42" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1208472</v>
       </c>
       <c r="E42" s="85">
-        <f>C42-C41</f>
+        <f t="shared" si="4"/>
         <v>335.68668000000002</v>
       </c>
       <c r="F42" s="85">
@@ -36144,11 +36250,11 @@
         <v>8385000</v>
       </c>
       <c r="H42" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8385000</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16770000</v>
       </c>
     </row>
@@ -36240,15 +36346,15 @@
         <v>0.10324394565366014</v>
       </c>
       <c r="D45" s="86">
-        <f t="shared" ref="D45:D63" si="6">ROUND(E45*3600,0)</f>
+        <f t="shared" ref="D45:D63" si="8">ROUND(E45*3600,0)</f>
         <v>329</v>
       </c>
       <c r="E45" s="85">
-        <f>C45-C44</f>
+        <f t="shared" ref="E45:E63" si="9">C45-C44</f>
         <v>9.1498912490702605E-2</v>
       </c>
       <c r="F45" s="85">
-        <f t="shared" ref="F45:F62" si="7">E45/24</f>
+        <f t="shared" ref="F45:F62" si="10">E45/24</f>
         <v>3.8124546871126084E-3</v>
       </c>
       <c r="G45" s="1">
@@ -36280,15 +36386,15 @@
         <v>0.43471135012067436</v>
       </c>
       <c r="D46" s="86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1193</v>
       </c>
       <c r="E46" s="85">
-        <f>C46-C45</f>
+        <f t="shared" si="9"/>
         <v>0.33146740446701423</v>
       </c>
       <c r="F46" s="85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3811141852792259E-2</v>
       </c>
       <c r="G46" s="1">
@@ -36320,15 +36426,15 @@
         <v>1.0295795134437022</v>
       </c>
       <c r="D47" s="86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2142</v>
       </c>
       <c r="E47" s="85">
-        <f>C47-C46</f>
+        <f t="shared" si="9"/>
         <v>0.59486816332302794</v>
       </c>
       <c r="F47" s="85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.4786173471792832E-2</v>
       </c>
       <c r="G47" s="1">
@@ -36360,15 +36466,15 @@
         <v>2.0471171612330923</v>
       </c>
       <c r="D48" s="86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3663</v>
       </c>
       <c r="E48" s="85">
-        <f>C48-C47</f>
+        <f t="shared" si="9"/>
         <v>1.01753764778939</v>
       </c>
       <c r="F48" s="85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.2397401991224583E-2</v>
       </c>
       <c r="G48" s="1">
@@ -36401,15 +36507,15 @@
         <v>3.5491814560078376</v>
       </c>
       <c r="D49" s="86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5407</v>
       </c>
       <c r="E49" s="85">
-        <f>C49-C48</f>
+        <f t="shared" si="9"/>
         <v>1.5020642947747453</v>
       </c>
       <c r="F49" s="85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.2586012282281056E-2</v>
       </c>
       <c r="G49" s="1">
@@ -36419,7 +36525,7 @@
         <v>0.25</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" ref="I49:I52" si="8">I48+0.01</f>
+        <f t="shared" ref="I49:I52" si="11">I48+0.01</f>
         <v>0.03</v>
       </c>
       <c r="J49" s="1">
@@ -36442,15 +36548,15 @@
         <v>6.13768221715641</v>
       </c>
       <c r="D50" s="86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9319</v>
       </c>
       <c r="E50" s="85">
-        <f>C50-C49</f>
+        <f t="shared" si="9"/>
         <v>2.5885007611485724</v>
       </c>
       <c r="F50" s="85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.10785419838119052</v>
       </c>
       <c r="G50" s="1">
@@ -36460,7 +36566,7 @@
         <v>0.2</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="J50" s="1">
@@ -36483,15 +36589,15 @@
         <v>12.078733882733442</v>
       </c>
       <c r="D51" s="86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>21388</v>
       </c>
       <c r="E51" s="85">
-        <f>C51-C50</f>
+        <f t="shared" si="9"/>
         <v>5.9410516655770316</v>
       </c>
       <c r="F51" s="85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.24754381939904299</v>
       </c>
       <c r="G51" s="1">
@@ -36501,7 +36607,7 @@
         <v>0.15</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
       <c r="J51" s="1">
@@ -36524,15 +36630,15 @@
         <v>20.697952797829643</v>
       </c>
       <c r="D52" s="86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>31029</v>
       </c>
       <c r="E52" s="85">
-        <f>C52-C51</f>
+        <f t="shared" si="9"/>
         <v>8.6192189150962015</v>
       </c>
       <c r="F52" s="85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.35913412146234175</v>
       </c>
       <c r="G52" s="1">
@@ -36542,7 +36648,7 @@
         <v>0.1</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="J52" s="1">
@@ -36565,15 +36671,15 @@
         <v>34.237215154304671</v>
       </c>
       <c r="D53" s="86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>48741</v>
       </c>
       <c r="E53" s="85">
-        <f>C53-C52</f>
+        <f t="shared" si="9"/>
         <v>13.539262356475028</v>
       </c>
       <c r="F53" s="85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.5641359315197928</v>
       </c>
       <c r="G53" s="1">
@@ -36607,15 +36713,15 @@
         <v>58.973193567223362</v>
       </c>
       <c r="D54" s="86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>89050</v>
       </c>
       <c r="E54" s="85">
-        <f>C54-C53</f>
+        <f t="shared" si="9"/>
         <v>24.735978412918691</v>
       </c>
       <c r="F54" s="85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0306657672049455</v>
       </c>
       <c r="G54" s="1">
@@ -36625,11 +36731,11 @@
         <v>0.1</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" ref="I54:I57" si="9">I53+0.02</f>
+        <f t="shared" ref="I54:I57" si="12">I53+0.02</f>
         <v>0.1</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" ref="J54:J63" si="10">J53+0.01</f>
+        <f t="shared" ref="J54:J63" si="13">J53+0.01</f>
         <v>0.03</v>
       </c>
       <c r="K54" s="1">
@@ -36649,15 +36755,15 @@
         <v>93.115568790352668</v>
       </c>
       <c r="D55" s="86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>122913</v>
       </c>
       <c r="E55" s="85">
-        <f>C55-C54</f>
+        <f t="shared" si="9"/>
         <v>34.142375223129307</v>
       </c>
       <c r="F55" s="85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4225989676303878</v>
       </c>
       <c r="G55" s="1">
@@ -36667,11 +36773,11 @@
         <v>0.1</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.12000000000000001</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.04</v>
       </c>
       <c r="K55" s="1">
@@ -36691,15 +36797,15 @@
         <v>145.20946400054999</v>
       </c>
       <c r="D56" s="86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>187538</v>
       </c>
       <c r="E56" s="85">
-        <f>C56-C55</f>
+        <f t="shared" si="9"/>
         <v>52.093895210197317</v>
       </c>
       <c r="F56" s="85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.1705789670915547</v>
       </c>
       <c r="G56" s="1">
@@ -36709,11 +36815,11 @@
         <v>0.1</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="K56" s="1">
@@ -36733,15 +36839,15 @@
         <v>213.99289431659997</v>
       </c>
       <c r="D57" s="86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>247620</v>
       </c>
       <c r="E57" s="85">
-        <f>C57-C56</f>
+        <f t="shared" si="9"/>
         <v>68.783430316049987</v>
       </c>
       <c r="F57" s="85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.8659762631687493</v>
       </c>
       <c r="G57" s="1">
@@ -36751,11 +36857,11 @@
         <v>0.1</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="K57" s="1">
@@ -36776,15 +36882,15 @@
         <v>301.68171191249996</v>
       </c>
       <c r="D58" s="86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>315680</v>
       </c>
       <c r="E58" s="85">
-        <f>C58-C57</f>
+        <f t="shared" si="9"/>
         <v>87.688817595899991</v>
       </c>
       <c r="F58" s="85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.6537007331624998</v>
       </c>
       <c r="G58" s="1">
@@ -36798,11 +36904,11 @@
         <v>0.19</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" ref="K58:K63" si="11">K57+0.002</f>
+        <f t="shared" ref="K58:K63" si="14">K57+0.002</f>
         <v>1.4E-2</v>
       </c>
     </row>
@@ -36819,15 +36925,15 @@
         <v>410.71054112999997</v>
       </c>
       <c r="D59" s="86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>392504</v>
       </c>
       <c r="E59" s="85">
-        <f>C59-C58</f>
+        <f t="shared" si="9"/>
         <v>109.0288292175</v>
       </c>
       <c r="F59" s="85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.5428678840624999</v>
       </c>
       <c r="G59" s="1">
@@ -36837,15 +36943,15 @@
         <v>0.1</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" ref="I59:I63" si="12">I58+0.03</f>
+        <f t="shared" ref="I59:I63" si="15">I58+0.03</f>
         <v>0.22</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.08</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.6E-2</v>
       </c>
     </row>
@@ -36862,15 +36968,15 @@
         <v>543.7513404</v>
       </c>
       <c r="D60" s="86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>478947</v>
       </c>
       <c r="E60" s="85">
-        <f>C60-C59</f>
+        <f t="shared" si="9"/>
         <v>133.04079927000004</v>
       </c>
       <c r="F60" s="85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.5433666362500018</v>
       </c>
       <c r="G60" s="1">
@@ -36880,15 +36986,15 @@
         <v>0.1</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.09</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
@@ -36905,15 +37011,15 @@
         <v>703.73339999999985</v>
       </c>
       <c r="D61" s="86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>575935</v>
       </c>
       <c r="E61" s="85">
-        <f>C61-C60</f>
+        <f t="shared" si="9"/>
         <v>159.98205959999984</v>
       </c>
       <c r="F61" s="85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.6659191499999935</v>
       </c>
       <c r="G61" s="1">
@@ -36923,15 +37029,15 @@
         <v>0.1</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
@@ -36948,15 +37054,15 @@
         <v>893.86487999999974</v>
       </c>
       <c r="D62" s="86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>684473</v>
       </c>
       <c r="E62" s="85">
-        <f>C62-C61</f>
+        <f t="shared" si="9"/>
         <v>190.1314799999999</v>
       </c>
       <c r="F62" s="85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.922144999999996</v>
       </c>
       <c r="G62" s="1">
@@ -36966,15 +37072,15 @@
         <v>0.1</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.2000000000000006E-2</v>
       </c>
     </row>
@@ -36991,11 +37097,11 @@
         <v>1117.6559999999999</v>
       </c>
       <c r="D63" s="86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>805648</v>
       </c>
       <c r="E63" s="85">
-        <f>C63-C62</f>
+        <f t="shared" si="9"/>
         <v>223.79112000000021</v>
       </c>
       <c r="F63" s="85">
@@ -37009,15 +37115,15 @@
         <v>0.1</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.34000000000000008</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.11999999999999998</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.4000000000000007E-2</v>
       </c>
     </row>
@@ -37085,15 +37191,15 @@
         <v>0.10324394565366014</v>
       </c>
       <c r="D66" s="86">
-        <f t="shared" ref="D66:D84" si="13">ROUND(E66*3600,0)</f>
+        <f t="shared" ref="D66:D84" si="16">ROUND(E66*3600,0)</f>
         <v>329</v>
       </c>
       <c r="E66" s="85">
-        <f>C66-C65</f>
+        <f t="shared" ref="E66:E84" si="17">C66-C65</f>
         <v>9.1498912490702605E-2</v>
       </c>
       <c r="F66" s="85">
-        <f t="shared" ref="F66:F83" si="14">E66/24</f>
+        <f t="shared" ref="F66:F83" si="18">E66/24</f>
         <v>3.8124546871126084E-3</v>
       </c>
       <c r="G66" s="1">
@@ -37113,15 +37219,15 @@
         <v>0.43471135012067436</v>
       </c>
       <c r="D67" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1193</v>
       </c>
       <c r="E67" s="85">
-        <f>C67-C66</f>
+        <f t="shared" si="17"/>
         <v>0.33146740446701423</v>
       </c>
       <c r="F67" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.3811141852792259E-2</v>
       </c>
       <c r="G67" s="1">
@@ -37141,15 +37247,15 @@
         <v>1.0295795134437022</v>
       </c>
       <c r="D68" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2142</v>
       </c>
       <c r="E68" s="85">
-        <f>C68-C67</f>
+        <f t="shared" si="17"/>
         <v>0.59486816332302794</v>
       </c>
       <c r="F68" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.4786173471792832E-2</v>
       </c>
       <c r="G68" s="1">
@@ -37169,15 +37275,15 @@
         <v>2.0471171612330923</v>
       </c>
       <c r="D69" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3663</v>
       </c>
       <c r="E69" s="85">
-        <f>C69-C68</f>
+        <f t="shared" si="17"/>
         <v>1.01753764778939</v>
       </c>
       <c r="F69" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.2397401991224583E-2</v>
       </c>
       <c r="G69" s="1">
@@ -37197,15 +37303,15 @@
         <v>3.5491814560078376</v>
       </c>
       <c r="D70" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5407</v>
       </c>
       <c r="E70" s="85">
-        <f>C70-C69</f>
+        <f t="shared" si="17"/>
         <v>1.5020642947747453</v>
       </c>
       <c r="F70" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.2586012282281056E-2</v>
       </c>
       <c r="G70" s="1">
@@ -37225,15 +37331,15 @@
         <v>6.13768221715641</v>
       </c>
       <c r="D71" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9319</v>
       </c>
       <c r="E71" s="85">
-        <f>C71-C70</f>
+        <f t="shared" si="17"/>
         <v>2.5885007611485724</v>
       </c>
       <c r="F71" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.10785419838119052</v>
       </c>
       <c r="G71" s="1">
@@ -37253,15 +37359,15 @@
         <v>12.078733882733442</v>
       </c>
       <c r="D72" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>21388</v>
       </c>
       <c r="E72" s="85">
-        <f>C72-C71</f>
+        <f t="shared" si="17"/>
         <v>5.9410516655770316</v>
       </c>
       <c r="F72" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.24754381939904299</v>
       </c>
       <c r="G72" s="1">
@@ -37281,15 +37387,15 @@
         <v>20.697952797829643</v>
       </c>
       <c r="D73" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>31029</v>
       </c>
       <c r="E73" s="85">
-        <f>C73-C72</f>
+        <f t="shared" si="17"/>
         <v>8.6192189150962015</v>
       </c>
       <c r="F73" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.35913412146234175</v>
       </c>
       <c r="G73" s="1">
@@ -37309,15 +37415,15 @@
         <v>34.237215154304671</v>
       </c>
       <c r="D74" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>48741</v>
       </c>
       <c r="E74" s="85">
-        <f>C74-C73</f>
+        <f t="shared" si="17"/>
         <v>13.539262356475028</v>
       </c>
       <c r="F74" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.5641359315197928</v>
       </c>
       <c r="G74" s="1">
@@ -37337,15 +37443,15 @@
         <v>58.973193567223362</v>
       </c>
       <c r="D75" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>89050</v>
       </c>
       <c r="E75" s="85">
-        <f>C75-C74</f>
+        <f t="shared" si="17"/>
         <v>24.735978412918691</v>
       </c>
       <c r="F75" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.0306657672049455</v>
       </c>
       <c r="G75" s="1">
@@ -37365,15 +37471,15 @@
         <v>93.115568790352668</v>
       </c>
       <c r="D76" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>122913</v>
       </c>
       <c r="E76" s="85">
-        <f>C76-C75</f>
+        <f t="shared" si="17"/>
         <v>34.142375223129307</v>
       </c>
       <c r="F76" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.4225989676303878</v>
       </c>
       <c r="G76" s="1">
@@ -37393,15 +37499,15 @@
         <v>145.20946400054999</v>
       </c>
       <c r="D77" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>187538</v>
       </c>
       <c r="E77" s="85">
-        <f>C77-C76</f>
+        <f t="shared" si="17"/>
         <v>52.093895210197317</v>
       </c>
       <c r="F77" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.1705789670915547</v>
       </c>
       <c r="G77" s="1">
@@ -37421,15 +37527,15 @@
         <v>213.99289431659997</v>
       </c>
       <c r="D78" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>247620</v>
       </c>
       <c r="E78" s="85">
-        <f>C78-C77</f>
+        <f t="shared" si="17"/>
         <v>68.783430316049987</v>
       </c>
       <c r="F78" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.8659762631687493</v>
       </c>
       <c r="G78" s="1">
@@ -37449,15 +37555,15 @@
         <v>301.68171191249996</v>
       </c>
       <c r="D79" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>315680</v>
       </c>
       <c r="E79" s="85">
-        <f>C79-C78</f>
+        <f t="shared" si="17"/>
         <v>87.688817595899991</v>
       </c>
       <c r="F79" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.6537007331624998</v>
       </c>
       <c r="G79" s="1">
@@ -37477,15 +37583,15 @@
         <v>410.71054112999997</v>
       </c>
       <c r="D80" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>392504</v>
       </c>
       <c r="E80" s="85">
-        <f>C80-C79</f>
+        <f t="shared" si="17"/>
         <v>109.0288292175</v>
       </c>
       <c r="F80" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.5428678840624999</v>
       </c>
       <c r="G80" s="1">
@@ -37505,15 +37611,15 @@
         <v>543.7513404</v>
       </c>
       <c r="D81" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>478947</v>
       </c>
       <c r="E81" s="85">
-        <f>C81-C80</f>
+        <f t="shared" si="17"/>
         <v>133.04079927000004</v>
       </c>
       <c r="F81" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>5.5433666362500018</v>
       </c>
       <c r="G81" s="1">
@@ -37533,15 +37639,15 @@
         <v>703.73339999999985</v>
       </c>
       <c r="D82" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>575935</v>
       </c>
       <c r="E82" s="85">
-        <f>C82-C81</f>
+        <f t="shared" si="17"/>
         <v>159.98205959999984</v>
       </c>
       <c r="F82" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.6659191499999935</v>
       </c>
       <c r="G82" s="1">
@@ -37561,15 +37667,15 @@
         <v>893.86487999999974</v>
       </c>
       <c r="D83" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>684473</v>
       </c>
       <c r="E83" s="85">
-        <f>C83-C82</f>
+        <f t="shared" si="17"/>
         <v>190.1314799999999</v>
       </c>
       <c r="F83" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7.922144999999996</v>
       </c>
       <c r="G83" s="1">
@@ -37589,11 +37695,11 @@
         <v>1117.6559999999999</v>
       </c>
       <c r="D84" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>805648</v>
       </c>
       <c r="E84" s="85">
-        <f>C84-C83</f>
+        <f t="shared" si="17"/>
         <v>223.79112000000021</v>
       </c>
       <c r="F84" s="85">
@@ -37668,15 +37774,15 @@
         <v>6.882929710244011E-2</v>
       </c>
       <c r="D87" s="86">
-        <f t="shared" ref="D87:D105" si="15">ROUND(E87*3600,0)</f>
+        <f t="shared" ref="D87:D105" si="19">ROUND(E87*3600,0)</f>
         <v>220</v>
       </c>
       <c r="E87" s="85">
-        <f>C87-C86</f>
+        <f t="shared" ref="E87:E105" si="20">C87-C86</f>
         <v>6.0999274993801748E-2</v>
       </c>
       <c r="F87" s="85">
-        <f t="shared" ref="F87:F104" si="16">E87/24</f>
+        <f t="shared" ref="F87:F104" si="21">E87/24</f>
         <v>2.541636458075073E-3</v>
       </c>
       <c r="G87" s="1">
@@ -37696,15 +37802,15 @@
         <v>0.28980756674711627</v>
       </c>
       <c r="D88" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>796</v>
       </c>
       <c r="E88" s="85">
-        <f>C88-C87</f>
+        <f t="shared" si="20"/>
         <v>0.22097826964467615</v>
       </c>
       <c r="F88" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>9.2074279018615063E-3</v>
       </c>
       <c r="G88" s="1">
@@ -37724,15 +37830,15 @@
         <v>0.68638634229580153</v>
       </c>
       <c r="D89" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1428</v>
       </c>
       <c r="E89" s="85">
-        <f>C89-C88</f>
+        <f t="shared" si="20"/>
         <v>0.39657877554868526</v>
       </c>
       <c r="F89" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.6524115647861885E-2</v>
       </c>
       <c r="G89" s="1">
@@ -37752,15 +37858,15 @@
         <v>1.3647447741553951</v>
       </c>
       <c r="D90" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2442</v>
       </c>
       <c r="E90" s="85">
-        <f>C90-C89</f>
+        <f t="shared" si="20"/>
         <v>0.67835843185959355</v>
       </c>
       <c r="F90" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2.8264934660816397E-2</v>
       </c>
       <c r="G90" s="1">
@@ -37780,15 +37886,15 @@
         <v>2.3661209706718918</v>
       </c>
       <c r="D91" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3605</v>
       </c>
       <c r="E91" s="85">
-        <f>C91-C90</f>
+        <f t="shared" si="20"/>
         <v>1.0013761965164967</v>
       </c>
       <c r="F91" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.1724008188187361E-2</v>
       </c>
       <c r="G91" s="1">
@@ -37808,15 +37914,15 @@
         <v>4.0917881447709403</v>
       </c>
       <c r="D92" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6212</v>
       </c>
       <c r="E92" s="85">
-        <f>C92-C91</f>
+        <f t="shared" si="20"/>
         <v>1.7256671740990486</v>
       </c>
       <c r="F92" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>7.1902798920793695E-2</v>
       </c>
       <c r="G92" s="1">
@@ -37836,15 +37942,15 @@
         <v>8.0524892551556277</v>
       </c>
       <c r="D93" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>14259</v>
       </c>
       <c r="E93" s="85">
-        <f>C93-C92</f>
+        <f t="shared" si="20"/>
         <v>3.9607011103846874</v>
       </c>
       <c r="F93" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.16502921293269532</v>
       </c>
       <c r="G93" s="1">
@@ -37864,15 +37970,15 @@
         <v>13.798635198553095</v>
       </c>
       <c r="D94" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>20686</v>
       </c>
       <c r="E94" s="85">
-        <f>C94-C93</f>
+        <f t="shared" si="20"/>
         <v>5.7461459433974671</v>
       </c>
       <c r="F94" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.23942274764156113</v>
       </c>
       <c r="G94" s="1">
@@ -37892,15 +37998,15 @@
         <v>22.824810102869783</v>
       </c>
       <c r="D95" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>32494</v>
       </c>
       <c r="E95" s="85">
-        <f>C95-C94</f>
+        <f t="shared" si="20"/>
         <v>9.0261749043166883</v>
       </c>
       <c r="F95" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.37609062101319535</v>
       </c>
       <c r="G95" s="1">
@@ -37920,15 +38026,15 @@
         <v>39.315462378148908</v>
       </c>
       <c r="D96" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>59366</v>
       </c>
       <c r="E96" s="85">
-        <f>C96-C95</f>
+        <f t="shared" si="20"/>
         <v>16.490652275279125</v>
       </c>
       <c r="F96" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.68711051146996349</v>
       </c>
       <c r="G96" s="1">
@@ -37948,15 +38054,15 @@
         <v>62.07704586023511</v>
       </c>
       <c r="D97" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>81942</v>
       </c>
       <c r="E97" s="85">
-        <f>C97-C96</f>
+        <f t="shared" si="20"/>
         <v>22.761583482086202</v>
       </c>
       <c r="F97" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.94839931175359171</v>
       </c>
       <c r="G97" s="1">
@@ -37976,15 +38082,15 @@
         <v>96.8063093337</v>
       </c>
       <c r="D98" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>125025</v>
       </c>
       <c r="E98" s="85">
-        <f>C98-C97</f>
+        <f t="shared" si="20"/>
         <v>34.72926347346489</v>
       </c>
       <c r="F98" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.4470526447277037</v>
       </c>
       <c r="G98" s="1">
@@ -38004,15 +38110,15 @@
         <v>142.66192954439998</v>
       </c>
       <c r="D99" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>165080</v>
       </c>
       <c r="E99" s="85">
-        <f>C99-C98</f>
+        <f t="shared" si="20"/>
         <v>45.855620210699982</v>
       </c>
       <c r="F99" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.9106508421124992</v>
       </c>
       <c r="G99" s="1">
@@ -38032,15 +38138,15 @@
         <v>201.12114127499999</v>
       </c>
       <c r="D100" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>210453</v>
       </c>
       <c r="E100" s="85">
-        <f>C100-C99</f>
+        <f t="shared" si="20"/>
         <v>58.459211730600003</v>
       </c>
       <c r="F100" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2.435800488775</v>
       </c>
       <c r="G100" s="1">
@@ -38060,15 +38166,15 @@
         <v>273.80702742</v>
       </c>
       <c r="D101" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>261669</v>
       </c>
       <c r="E101" s="85">
-        <f>C101-C100</f>
+        <f t="shared" si="20"/>
         <v>72.685886145000012</v>
       </c>
       <c r="F101" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>3.0285785893750004</v>
       </c>
       <c r="G101" s="1">
@@ -38088,15 +38194,15 @@
         <v>362.50089359999998</v>
       </c>
       <c r="D102" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>319298</v>
       </c>
       <c r="E102" s="85">
-        <f>C102-C101</f>
+        <f t="shared" si="20"/>
         <v>88.693866179999986</v>
       </c>
       <c r="F102" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>3.6955777574999993</v>
       </c>
       <c r="G102" s="1">
@@ -38116,15 +38222,15 @@
         <v>469.15559999999994</v>
       </c>
       <c r="D103" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>383957</v>
       </c>
       <c r="E103" s="85">
-        <f>C103-C102</f>
+        <f t="shared" si="20"/>
         <v>106.65470639999995</v>
       </c>
       <c r="F103" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.443946099999998</v>
       </c>
       <c r="G103" s="1">
@@ -38144,15 +38250,15 @@
         <v>595.90991999999983</v>
       </c>
       <c r="D104" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>456316</v>
       </c>
       <c r="E104" s="85">
-        <f>C104-C103</f>
+        <f t="shared" si="20"/>
         <v>126.75431999999989</v>
       </c>
       <c r="F104" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>5.2814299999999959</v>
       </c>
       <c r="G104" s="1">
@@ -38172,11 +38278,11 @@
         <v>745.10399999999993</v>
       </c>
       <c r="D105" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>537099</v>
       </c>
       <c r="E105" s="85">
-        <f>C105-C104</f>
+        <f t="shared" si="20"/>
         <v>149.1940800000001</v>
       </c>
       <c r="F105" s="85">
@@ -38245,15 +38351,15 @@
         <v>0.13765859420488022</v>
       </c>
       <c r="D108" s="86">
-        <f t="shared" ref="D108:D126" si="17">ROUND(E108*3600,0)</f>
+        <f t="shared" ref="D108:D126" si="22">ROUND(E108*3600,0)</f>
         <v>439</v>
       </c>
       <c r="E108" s="85">
-        <f>C108-C107</f>
+        <f t="shared" ref="E108:E126" si="23">C108-C107</f>
         <v>0.1219985499876035</v>
       </c>
       <c r="F108" s="85">
-        <f t="shared" ref="F108:F125" si="18">E108/24</f>
+        <f t="shared" ref="F108:F125" si="24">E108/24</f>
         <v>5.083272916150146E-3</v>
       </c>
     </row>
@@ -38270,15 +38376,15 @@
         <v>0.57961513349423255</v>
       </c>
       <c r="D109" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>1591</v>
       </c>
       <c r="E109" s="85">
-        <f>C109-C108</f>
+        <f t="shared" si="23"/>
         <v>0.4419565392893523</v>
       </c>
       <c r="F109" s="85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1.8414855803723013E-2</v>
       </c>
     </row>
@@ -38295,15 +38401,15 @@
         <v>1.3727726845916031</v>
       </c>
       <c r="D110" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>2855</v>
       </c>
       <c r="E110" s="85">
-        <f>C110-C109</f>
+        <f t="shared" si="23"/>
         <v>0.79315755109737052</v>
       </c>
       <c r="F110" s="85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>3.3048231295723769E-2</v>
       </c>
     </row>
@@ -38320,15 +38426,15 @@
         <v>2.7294895483107902</v>
       </c>
       <c r="D111" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>4884</v>
       </c>
       <c r="E111" s="85">
-        <f>C111-C110</f>
+        <f t="shared" si="23"/>
         <v>1.3567168637191871</v>
       </c>
       <c r="F111" s="85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>5.6529869321632793E-2</v>
       </c>
     </row>
@@ -38345,15 +38451,15 @@
         <v>4.7322419413437835</v>
       </c>
       <c r="D112" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>7210</v>
       </c>
       <c r="E112" s="85">
-        <f>C112-C111</f>
+        <f t="shared" si="23"/>
         <v>2.0027523930329933</v>
       </c>
       <c r="F112" s="85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>8.3448016376374723E-2</v>
       </c>
     </row>
@@ -38370,15 +38476,15 @@
         <v>8.1835762895418807</v>
       </c>
       <c r="D113" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>12425</v>
       </c>
       <c r="E113" s="85">
-        <f>C113-C112</f>
+        <f t="shared" si="23"/>
         <v>3.4513343481980971</v>
       </c>
       <c r="F113" s="85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.14380559784158739</v>
       </c>
     </row>
@@ -38395,15 +38501,15 @@
         <v>16.104978510311255</v>
       </c>
       <c r="D114" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>28517</v>
       </c>
       <c r="E114" s="85">
-        <f>C114-C113</f>
+        <f t="shared" si="23"/>
         <v>7.9214022207693748</v>
       </c>
       <c r="F114" s="85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.33005842586539064</v>
       </c>
     </row>
@@ -38420,15 +38526,15 @@
         <v>27.59727039710619</v>
       </c>
       <c r="D115" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>41372</v>
       </c>
       <c r="E115" s="85">
-        <f>C115-C114</f>
+        <f t="shared" si="23"/>
         <v>11.492291886794934</v>
       </c>
       <c r="F115" s="85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.47884549528312226</v>
       </c>
     </row>
@@ -38445,15 +38551,15 @@
         <v>45.649620205739566</v>
       </c>
       <c r="D116" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>64988</v>
       </c>
       <c r="E116" s="85">
-        <f>C116-C115</f>
+        <f t="shared" si="23"/>
         <v>18.052349808633377</v>
       </c>
       <c r="F116" s="85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.7521812420263907</v>
       </c>
     </row>
@@ -38470,15 +38576,15 @@
         <v>78.630924756297816</v>
       </c>
       <c r="D117" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>118733</v>
       </c>
       <c r="E117" s="85">
-        <f>C117-C116</f>
+        <f t="shared" si="23"/>
         <v>32.981304550558249</v>
       </c>
       <c r="F117" s="85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1.374221022939927</v>
       </c>
     </row>
@@ -38495,15 +38601,15 @@
         <v>124.15409172047022</v>
       </c>
       <c r="D118" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>163883</v>
       </c>
       <c r="E118" s="85">
-        <f>C118-C117</f>
+        <f t="shared" si="23"/>
         <v>45.523166964172404</v>
       </c>
       <c r="F118" s="85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1.8967986235071834</v>
       </c>
     </row>
@@ -38520,15 +38626,15 @@
         <v>193.6126186674</v>
       </c>
       <c r="D119" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>250051</v>
       </c>
       <c r="E119" s="85">
-        <f>C119-C118</f>
+        <f t="shared" si="23"/>
         <v>69.45852694692978</v>
       </c>
       <c r="F119" s="85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2.8941052894554073</v>
       </c>
     </row>
@@ -38545,15 +38651,15 @@
         <v>285.32385908879996</v>
       </c>
       <c r="D120" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>330160</v>
       </c>
       <c r="E120" s="85">
-        <f>C120-C119</f>
+        <f t="shared" si="23"/>
         <v>91.711240421399964</v>
       </c>
       <c r="F120" s="85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>3.8213016842249985</v>
       </c>
     </row>
@@ -38570,15 +38676,15 @@
         <v>402.24228254999997</v>
       </c>
       <c r="D121" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>420906</v>
       </c>
       <c r="E121" s="85">
-        <f>C121-C120</f>
+        <f t="shared" si="23"/>
         <v>116.91842346120001</v>
       </c>
       <c r="F121" s="85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>4.87160097755</v>
       </c>
     </row>
@@ -38595,15 +38701,15 @@
         <v>547.61405483999999</v>
       </c>
       <c r="D122" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>523338</v>
       </c>
       <c r="E122" s="85">
-        <f>C122-C121</f>
+        <f t="shared" si="23"/>
         <v>145.37177229000002</v>
       </c>
       <c r="F122" s="85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>6.0571571787500007</v>
       </c>
     </row>
@@ -38620,15 +38726,15 @@
         <v>725.00178719999997</v>
       </c>
       <c r="D123" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>638596</v>
       </c>
       <c r="E123" s="85">
-        <f>C123-C122</f>
+        <f t="shared" si="23"/>
         <v>177.38773235999997</v>
       </c>
       <c r="F123" s="85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>7.3911555149999986</v>
       </c>
     </row>
@@ -38645,15 +38751,15 @@
         <v>938.31119999999987</v>
       </c>
       <c r="D124" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>767914</v>
       </c>
       <c r="E124" s="85">
-        <f>C124-C123</f>
+        <f t="shared" si="23"/>
         <v>213.3094127999999</v>
       </c>
       <c r="F124" s="85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>8.887892199999996</v>
       </c>
     </row>
@@ -38670,15 +38776,15 @@
         <v>1191.8198399999997</v>
       </c>
       <c r="D125" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>912631</v>
       </c>
       <c r="E125" s="85">
-        <f>C125-C124</f>
+        <f t="shared" si="23"/>
         <v>253.50863999999979</v>
       </c>
       <c r="F125" s="85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>10.562859999999992</v>
       </c>
     </row>
@@ -38695,11 +38801,11 @@
         <v>1490.2079999999999</v>
       </c>
       <c r="D126" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>1074197</v>
       </c>
       <c r="E126" s="85">
-        <f>C126-C125</f>
+        <f t="shared" si="23"/>
         <v>298.3881600000002</v>
       </c>
       <c r="F126" s="85">
@@ -38779,19 +38885,19 @@
         <v>0.13765859420488022</v>
       </c>
       <c r="D129" s="86">
-        <f t="shared" ref="D129:D147" si="19">ROUND(E129*3600,0)</f>
+        <f t="shared" ref="D129:D147" si="25">ROUND(E129*3600,0)</f>
         <v>439</v>
       </c>
       <c r="E129" s="85">
-        <f>C129-C128</f>
+        <f t="shared" ref="E129:E147" si="26">C129-C128</f>
         <v>0.1219985499876035</v>
       </c>
       <c r="F129" s="85">
-        <f t="shared" ref="F129:F146" si="20">E129/24</f>
+        <f t="shared" ref="F129:F146" si="27">E129/24</f>
         <v>5.083272916150146E-3</v>
       </c>
       <c r="G129" s="1">
-        <f t="shared" ref="G129:G147" si="21">H129</f>
+        <f t="shared" ref="G129:G147" si="28">H129</f>
         <v>1190</v>
       </c>
       <c r="H129">
@@ -38812,19 +38918,19 @@
         <v>0.57961513349423255</v>
       </c>
       <c r="D130" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1591</v>
       </c>
       <c r="E130" s="85">
-        <f>C130-C129</f>
+        <f t="shared" si="26"/>
         <v>0.4419565392893523</v>
       </c>
       <c r="F130" s="85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>1.8414855803723013E-2</v>
       </c>
       <c r="G130" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1760</v>
       </c>
       <c r="H130">
@@ -38845,19 +38951,19 @@
         <v>1.3727726845916031</v>
       </c>
       <c r="D131" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2855</v>
       </c>
       <c r="E131" s="85">
-        <f>C131-C130</f>
+        <f t="shared" si="26"/>
         <v>0.79315755109737052</v>
       </c>
       <c r="F131" s="85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>3.3048231295723769E-2</v>
       </c>
       <c r="G131" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>2920</v>
       </c>
       <c r="H131">
@@ -38878,19 +38984,19 @@
         <v>2.7294895483107902</v>
       </c>
       <c r="D132" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>4884</v>
       </c>
       <c r="E132" s="85">
-        <f>C132-C131</f>
+        <f t="shared" si="26"/>
         <v>1.3567168637191871</v>
       </c>
       <c r="F132" s="85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>5.6529869321632793E-2</v>
       </c>
       <c r="G132" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>4650</v>
       </c>
       <c r="H132">
@@ -38911,19 +39017,19 @@
         <v>4.7322419413437835</v>
       </c>
       <c r="D133" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>7210</v>
       </c>
       <c r="E133" s="85">
-        <f>C133-C132</f>
+        <f t="shared" si="26"/>
         <v>2.0027523930329933</v>
       </c>
       <c r="F133" s="85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>8.3448016376374723E-2</v>
       </c>
       <c r="G133" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>7540</v>
       </c>
       <c r="H133">
@@ -38944,19 +39050,19 @@
         <v>8.1835762895418807</v>
       </c>
       <c r="D134" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>12425</v>
       </c>
       <c r="E134" s="85">
-        <f>C134-C133</f>
+        <f t="shared" si="26"/>
         <v>3.4513343481980971</v>
       </c>
       <c r="F134" s="85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>0.14380559784158739</v>
       </c>
       <c r="G134" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>12160</v>
       </c>
       <c r="H134">
@@ -38977,19 +39083,19 @@
         <v>16.104978510311255</v>
       </c>
       <c r="D135" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>28517</v>
       </c>
       <c r="E135" s="85">
-        <f>C135-C134</f>
+        <f t="shared" si="26"/>
         <v>7.9214022207693748</v>
       </c>
       <c r="F135" s="85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>0.33005842586539064</v>
       </c>
       <c r="G135" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>19680</v>
       </c>
       <c r="H135">
@@ -39010,19 +39116,19 @@
         <v>27.59727039710619</v>
       </c>
       <c r="D136" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>41372</v>
       </c>
       <c r="E136" s="85">
-        <f>C136-C135</f>
+        <f t="shared" si="26"/>
         <v>11.492291886794934</v>
       </c>
       <c r="F136" s="85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>0.47884549528312226</v>
       </c>
       <c r="G136" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>27190</v>
       </c>
       <c r="H136">
@@ -39043,19 +39149,19 @@
         <v>45.649620205739566</v>
       </c>
       <c r="D137" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>64988</v>
       </c>
       <c r="E137" s="85">
-        <f>C137-C136</f>
+        <f t="shared" si="26"/>
         <v>18.052349808633377</v>
       </c>
       <c r="F137" s="85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>0.7521812420263907</v>
       </c>
       <c r="G137" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>39330</v>
       </c>
       <c r="H137">
@@ -39076,19 +39182,19 @@
         <v>78.630924756297816</v>
       </c>
       <c r="D138" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>118733</v>
       </c>
       <c r="E138" s="85">
-        <f>C138-C137</f>
+        <f t="shared" si="26"/>
         <v>32.981304550558249</v>
       </c>
       <c r="F138" s="85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>1.374221022939927</v>
       </c>
       <c r="G138" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>46840</v>
       </c>
       <c r="H138">
@@ -39109,19 +39215,19 @@
         <v>124.15409172047022</v>
       </c>
       <c r="D139" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>163883</v>
       </c>
       <c r="E139" s="85">
-        <f>C139-C138</f>
+        <f t="shared" si="26"/>
         <v>45.523166964172404</v>
       </c>
       <c r="F139" s="85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>1.8967986235071834</v>
       </c>
       <c r="G139" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>66490</v>
       </c>
       <c r="H139">
@@ -39142,19 +39248,19 @@
         <v>193.6126186674</v>
       </c>
       <c r="D140" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>250051</v>
       </c>
       <c r="E140" s="85">
-        <f>C140-C139</f>
+        <f t="shared" si="26"/>
         <v>69.45852694692978</v>
       </c>
       <c r="F140" s="85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>2.8941052894554073</v>
       </c>
       <c r="G140" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>83260</v>
       </c>
       <c r="H140">
@@ -39175,19 +39281,19 @@
         <v>285.32385908879996</v>
       </c>
       <c r="D141" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>330160</v>
       </c>
       <c r="E141" s="85">
-        <f>C141-C140</f>
+        <f t="shared" si="26"/>
         <v>91.711240421399964</v>
       </c>
       <c r="F141" s="85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>3.8213016842249985</v>
       </c>
       <c r="G141" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>98290</v>
       </c>
       <c r="H141">
@@ -39208,19 +39314,19 @@
         <v>402.24228254999997</v>
       </c>
       <c r="D142" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>420906</v>
       </c>
       <c r="E142" s="85">
-        <f>C142-C141</f>
+        <f t="shared" si="26"/>
         <v>116.91842346120001</v>
       </c>
       <c r="F142" s="85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>4.87160097755</v>
       </c>
       <c r="G142" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>115630</v>
       </c>
       <c r="H142">
@@ -39241,19 +39347,19 @@
         <v>547.61405483999999</v>
       </c>
       <c r="D143" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>523338</v>
       </c>
       <c r="E143" s="85">
-        <f>C143-C142</f>
+        <f t="shared" si="26"/>
         <v>145.37177229000002</v>
       </c>
       <c r="F143" s="85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>6.0571571787500007</v>
       </c>
       <c r="G143" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>132980</v>
       </c>
       <c r="H143">
@@ -39274,19 +39380,19 @@
         <v>725.00178719999997</v>
       </c>
       <c r="D144" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>638596</v>
       </c>
       <c r="E144" s="85">
-        <f>C144-C143</f>
+        <f t="shared" si="26"/>
         <v>177.38773235999997</v>
       </c>
       <c r="F144" s="85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>7.3911555149999986</v>
       </c>
       <c r="G144" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>152050</v>
       </c>
       <c r="H144">
@@ -39307,19 +39413,19 @@
         <v>938.31119999999987</v>
       </c>
       <c r="D145" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>767914</v>
       </c>
       <c r="E145" s="85">
-        <f>C145-C144</f>
+        <f t="shared" si="26"/>
         <v>213.3094127999999</v>
       </c>
       <c r="F145" s="85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>8.887892199999996</v>
       </c>
       <c r="G145" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>173440</v>
       </c>
       <c r="H145">
@@ -39340,19 +39446,19 @@
         <v>1191.8198399999997</v>
       </c>
       <c r="D146" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>912631</v>
       </c>
       <c r="E146" s="85">
-        <f>C146-C145</f>
+        <f t="shared" si="26"/>
         <v>253.50863999999979</v>
       </c>
       <c r="F146" s="85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>10.562859999999992</v>
       </c>
       <c r="G146" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>196570</v>
       </c>
       <c r="H146">
@@ -39373,11 +39479,11 @@
         <v>1490.2079999999999</v>
       </c>
       <c r="D147" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1074197</v>
       </c>
       <c r="E147" s="85">
-        <f>C147-C146</f>
+        <f t="shared" si="26"/>
         <v>298.3881600000002</v>
       </c>
       <c r="F147" s="85">
@@ -39385,7 +39491,7 @@
         <v>12.432840000000008</v>
       </c>
       <c r="G147" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>231260</v>
       </c>
       <c r="H147">
@@ -39451,15 +39557,15 @@
         <v>8.6036621378050127E-2</v>
       </c>
       <c r="D150" s="86">
-        <f t="shared" ref="D150:D168" si="22">ROUND(E150*3600,0)</f>
+        <f t="shared" ref="D150:D168" si="29">ROUND(E150*3600,0)</f>
         <v>274</v>
       </c>
       <c r="E150" s="85">
-        <f>C150-C149</f>
+        <f t="shared" ref="E150:E168" si="30">C150-C149</f>
         <v>7.624909374225218E-2</v>
       </c>
       <c r="F150" s="85">
-        <f t="shared" ref="F150:F167" si="23">E150/24</f>
+        <f t="shared" ref="F150:F167" si="31">E150/24</f>
         <v>3.1770455725938407E-3</v>
       </c>
     </row>
@@ -39476,15 +39582,15 @@
         <v>0.36225945843389534</v>
       </c>
       <c r="D151" s="86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>994</v>
       </c>
       <c r="E151" s="85">
-        <f>C151-C150</f>
+        <f t="shared" si="30"/>
         <v>0.27622283705584522</v>
       </c>
       <c r="F151" s="85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>1.1509284877326885E-2</v>
       </c>
     </row>
@@ -39501,15 +39607,15 @@
         <v>0.85798292786975194</v>
       </c>
       <c r="D152" s="86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>1785</v>
       </c>
       <c r="E152" s="85">
-        <f>C152-C151</f>
+        <f t="shared" si="30"/>
         <v>0.4957234694358566</v>
       </c>
       <c r="F152" s="85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>2.0655144559827358E-2</v>
       </c>
     </row>
@@ -39526,15 +39632,15 @@
         <v>1.7059309676942438</v>
       </c>
       <c r="D153" s="86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>3053</v>
       </c>
       <c r="E153" s="85">
-        <f>C153-C152</f>
+        <f t="shared" si="30"/>
         <v>0.84794803982449185</v>
       </c>
       <c r="F153" s="85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>3.5331168326020491E-2</v>
       </c>
     </row>
@@ -39551,15 +39657,15 @@
         <v>2.9576512133398651</v>
       </c>
       <c r="D154" s="86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>4506</v>
       </c>
       <c r="E154" s="85">
-        <f>C154-C153</f>
+        <f t="shared" si="30"/>
         <v>1.2517202456456213</v>
       </c>
       <c r="F154" s="85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>5.2155010235234223E-2</v>
       </c>
     </row>
@@ -39576,15 +39682,15 @@
         <v>5.1147351809636756</v>
       </c>
       <c r="D155" s="86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>7766</v>
       </c>
       <c r="E155" s="85">
-        <f>C155-C154</f>
+        <f t="shared" si="30"/>
         <v>2.1570839676238105</v>
       </c>
       <c r="F155" s="85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8.9878498650992109E-2</v>
       </c>
     </row>
@@ -39601,15 +39707,15 @@
         <v>10.065611568944535</v>
       </c>
       <c r="D156" s="86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>17823</v>
       </c>
       <c r="E156" s="85">
-        <f>C156-C155</f>
+        <f t="shared" si="30"/>
         <v>4.9508763879808591</v>
       </c>
       <c r="F156" s="85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0.20628651616586913</v>
       </c>
     </row>
@@ -39626,15 +39732,15 @@
         <v>17.248293998191368</v>
       </c>
       <c r="D157" s="86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>25858</v>
       </c>
       <c r="E157" s="85">
-        <f>C157-C156</f>
+        <f t="shared" si="30"/>
         <v>7.1826824292468334</v>
       </c>
       <c r="F157" s="85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0.29927843455195141</v>
       </c>
     </row>
@@ -39651,15 +39757,15 @@
         <v>28.531012628587231</v>
       </c>
       <c r="D158" s="86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>40618</v>
       </c>
       <c r="E158" s="85">
-        <f>C158-C157</f>
+        <f t="shared" si="30"/>
         <v>11.282718630395863</v>
       </c>
       <c r="F158" s="85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0.4701132762664943</v>
       </c>
     </row>
@@ -39676,15 +39782,15 @@
         <v>49.144327972686142</v>
       </c>
       <c r="D159" s="86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>74208</v>
       </c>
       <c r="E159" s="85">
-        <f>C159-C158</f>
+        <f t="shared" si="30"/>
         <v>20.613315344098911</v>
       </c>
       <c r="F159" s="85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0.85888813933745467</v>
       </c>
     </row>
@@ -39701,15 +39807,15 @@
         <v>77.596307325293893</v>
       </c>
       <c r="D160" s="86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>102427</v>
       </c>
       <c r="E160" s="85">
-        <f>C160-C159</f>
+        <f t="shared" si="30"/>
         <v>28.451979352607751</v>
       </c>
       <c r="F160" s="85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>1.1854991396919896</v>
       </c>
     </row>
@@ -39726,15 +39832,15 @@
         <v>121.00788666712499</v>
       </c>
       <c r="D161" s="86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>156282</v>
       </c>
       <c r="E161" s="85">
-        <f>C161-C160</f>
+        <f t="shared" si="30"/>
         <v>43.4115793418311</v>
       </c>
       <c r="F161" s="85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>1.8088158059096291</v>
       </c>
     </row>
@@ -39751,15 +39857,15 @@
         <v>178.32741193050001</v>
       </c>
       <c r="D162" s="86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>206350</v>
       </c>
       <c r="E162" s="85">
-        <f>C162-C161</f>
+        <f t="shared" si="30"/>
         <v>57.319525263375013</v>
       </c>
       <c r="F162" s="85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>2.3883135526406254</v>
       </c>
     </row>
@@ -39776,15 +39882,15 @@
         <v>251.40142659374999</v>
       </c>
       <c r="D163" s="86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>263066</v>
       </c>
       <c r="E163" s="85">
-        <f>C163-C162</f>
+        <f t="shared" si="30"/>
         <v>73.074014663249983</v>
       </c>
       <c r="F163" s="85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>3.0447506109687494</v>
       </c>
     </row>
@@ -39801,15 +39907,15 @@
         <v>342.25878427499998</v>
       </c>
       <c r="D164" s="86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>327086</v>
       </c>
       <c r="E164" s="85">
-        <f>C164-C163</f>
+        <f t="shared" si="30"/>
         <v>90.857357681249994</v>
       </c>
       <c r="F164" s="85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>3.7857232367187499</v>
       </c>
     </row>
@@ -39826,15 +39932,15 @@
         <v>453.12611700000002</v>
       </c>
       <c r="D165" s="86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>399122</v>
       </c>
       <c r="E165" s="85">
-        <f>C165-C164</f>
+        <f t="shared" si="30"/>
         <v>110.86733272500004</v>
       </c>
       <c r="F165" s="85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>4.6194721968750017</v>
       </c>
     </row>
@@ -39851,15 +39957,15 @@
         <v>586.44449999999995</v>
       </c>
       <c r="D166" s="86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>479946</v>
       </c>
       <c r="E166" s="85">
-        <f>C166-C165</f>
+        <f t="shared" si="30"/>
         <v>133.31838299999993</v>
       </c>
       <c r="F166" s="85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>5.5549326249999966</v>
       </c>
     </row>
@@ -39876,15 +39982,15 @@
         <v>744.88739999999984</v>
       </c>
       <c r="D167" s="86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>570394</v>
       </c>
       <c r="E167" s="85">
-        <f>C167-C166</f>
+        <f t="shared" si="30"/>
         <v>158.4428999999999</v>
       </c>
       <c r="F167" s="85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>6.6017874999999959</v>
       </c>
     </row>
@@ -39901,11 +40007,11 @@
         <v>931.38</v>
       </c>
       <c r="D168" s="86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>671373</v>
       </c>
       <c r="E168" s="85">
-        <f>C168-C167</f>
+        <f t="shared" si="30"/>
         <v>186.49260000000015</v>
       </c>
       <c r="F168" s="85">
@@ -39971,15 +40077,15 @@
         <v>6.882929710244011E-2</v>
       </c>
       <c r="D171" s="86">
-        <f t="shared" ref="D171:D189" si="24">ROUND(E171*3600,0)</f>
+        <f t="shared" ref="D171:D189" si="32">ROUND(E171*3600,0)</f>
         <v>220</v>
       </c>
       <c r="E171" s="85">
-        <f>C171-C170</f>
+        <f t="shared" ref="E171:E189" si="33">C171-C170</f>
         <v>6.0999274993801748E-2</v>
       </c>
       <c r="F171" s="85">
-        <f t="shared" ref="F171:F188" si="25">E171/24</f>
+        <f t="shared" ref="F171:F188" si="34">E171/24</f>
         <v>2.541636458075073E-3</v>
       </c>
     </row>
@@ -39996,15 +40102,15 @@
         <v>0.28980756674711627</v>
       </c>
       <c r="D172" s="86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>796</v>
       </c>
       <c r="E172" s="85">
-        <f>C172-C171</f>
+        <f t="shared" si="33"/>
         <v>0.22097826964467615</v>
       </c>
       <c r="F172" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>9.2074279018615063E-3</v>
       </c>
     </row>
@@ -40021,15 +40127,15 @@
         <v>0.68638634229580153</v>
       </c>
       <c r="D173" s="86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1428</v>
       </c>
       <c r="E173" s="85">
-        <f>C173-C172</f>
+        <f t="shared" si="33"/>
         <v>0.39657877554868526</v>
       </c>
       <c r="F173" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1.6524115647861885E-2</v>
       </c>
     </row>
@@ -40046,15 +40152,15 @@
         <v>1.3647447741553951</v>
       </c>
       <c r="D174" s="86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>2442</v>
       </c>
       <c r="E174" s="85">
-        <f>C174-C173</f>
+        <f t="shared" si="33"/>
         <v>0.67835843185959355</v>
       </c>
       <c r="F174" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>2.8264934660816397E-2</v>
       </c>
     </row>
@@ -40071,15 +40177,15 @@
         <v>2.3661209706718918</v>
       </c>
       <c r="D175" s="86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>3605</v>
       </c>
       <c r="E175" s="85">
-        <f>C175-C174</f>
+        <f t="shared" si="33"/>
         <v>1.0013761965164967</v>
       </c>
       <c r="F175" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>4.1724008188187361E-2</v>
       </c>
     </row>
@@ -40096,15 +40202,15 @@
         <v>4.0917881447709403</v>
       </c>
       <c r="D176" s="86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>6212</v>
       </c>
       <c r="E176" s="85">
-        <f>C176-C175</f>
+        <f t="shared" si="33"/>
         <v>1.7256671740990486</v>
       </c>
       <c r="F176" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>7.1902798920793695E-2</v>
       </c>
     </row>
@@ -40121,15 +40227,15 @@
         <v>8.0524892551556277</v>
       </c>
       <c r="D177" s="86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>14259</v>
       </c>
       <c r="E177" s="85">
-        <f>C177-C176</f>
+        <f t="shared" si="33"/>
         <v>3.9607011103846874</v>
       </c>
       <c r="F177" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0.16502921293269532</v>
       </c>
     </row>
@@ -40146,15 +40252,15 @@
         <v>13.798635198553095</v>
       </c>
       <c r="D178" s="86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>20686</v>
       </c>
       <c r="E178" s="85">
-        <f>C178-C177</f>
+        <f t="shared" si="33"/>
         <v>5.7461459433974671</v>
       </c>
       <c r="F178" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0.23942274764156113</v>
       </c>
     </row>
@@ -40171,15 +40277,15 @@
         <v>22.824810102869783</v>
       </c>
       <c r="D179" s="86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>32494</v>
       </c>
       <c r="E179" s="85">
-        <f>C179-C178</f>
+        <f t="shared" si="33"/>
         <v>9.0261749043166883</v>
       </c>
       <c r="F179" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0.37609062101319535</v>
       </c>
     </row>
@@ -40196,15 +40302,15 @@
         <v>39.315462378148908</v>
       </c>
       <c r="D180" s="86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>59366</v>
       </c>
       <c r="E180" s="85">
-        <f>C180-C179</f>
+        <f t="shared" si="33"/>
         <v>16.490652275279125</v>
       </c>
       <c r="F180" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0.68711051146996349</v>
       </c>
     </row>
@@ -40221,15 +40327,15 @@
         <v>62.07704586023511</v>
       </c>
       <c r="D181" s="86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>81942</v>
       </c>
       <c r="E181" s="85">
-        <f>C181-C180</f>
+        <f t="shared" si="33"/>
         <v>22.761583482086202</v>
       </c>
       <c r="F181" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>0.94839931175359171</v>
       </c>
     </row>
@@ -40246,15 +40352,15 @@
         <v>96.8063093337</v>
       </c>
       <c r="D182" s="86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>125025</v>
       </c>
       <c r="E182" s="85">
-        <f>C182-C181</f>
+        <f t="shared" si="33"/>
         <v>34.72926347346489</v>
       </c>
       <c r="F182" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1.4470526447277037</v>
       </c>
     </row>
@@ -40271,15 +40377,15 @@
         <v>142.66192954439998</v>
       </c>
       <c r="D183" s="86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>165080</v>
       </c>
       <c r="E183" s="85">
-        <f>C183-C182</f>
+        <f t="shared" si="33"/>
         <v>45.855620210699982</v>
       </c>
       <c r="F183" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>1.9106508421124992</v>
       </c>
     </row>
@@ -40296,15 +40402,15 @@
         <v>201.12114127499999</v>
       </c>
       <c r="D184" s="86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>210453</v>
       </c>
       <c r="E184" s="85">
-        <f>C184-C183</f>
+        <f t="shared" si="33"/>
         <v>58.459211730600003</v>
       </c>
       <c r="F184" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>2.435800488775</v>
       </c>
     </row>
@@ -40321,15 +40427,15 @@
         <v>273.80702742</v>
       </c>
       <c r="D185" s="86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>261669</v>
       </c>
       <c r="E185" s="85">
-        <f>C185-C184</f>
+        <f t="shared" si="33"/>
         <v>72.685886145000012</v>
       </c>
       <c r="F185" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>3.0285785893750004</v>
       </c>
     </row>
@@ -40346,15 +40452,15 @@
         <v>362.50089359999998</v>
       </c>
       <c r="D186" s="86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>319298</v>
       </c>
       <c r="E186" s="85">
-        <f>C186-C185</f>
+        <f t="shared" si="33"/>
         <v>88.693866179999986</v>
       </c>
       <c r="F186" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>3.6955777574999993</v>
       </c>
     </row>
@@ -40371,15 +40477,15 @@
         <v>469.15559999999994</v>
       </c>
       <c r="D187" s="86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>383957</v>
       </c>
       <c r="E187" s="85">
-        <f>C187-C186</f>
+        <f t="shared" si="33"/>
         <v>106.65470639999995</v>
       </c>
       <c r="F187" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>4.443946099999998</v>
       </c>
     </row>
@@ -40396,15 +40502,15 @@
         <v>595.90991999999983</v>
       </c>
       <c r="D188" s="86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>456316</v>
       </c>
       <c r="E188" s="85">
-        <f>C188-C187</f>
+        <f t="shared" si="33"/>
         <v>126.75431999999989</v>
       </c>
       <c r="F188" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>5.2814299999999959</v>
       </c>
     </row>
@@ -40421,11 +40527,11 @@
         <v>745.10399999999993</v>
       </c>
       <c r="D189" s="86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>537099</v>
       </c>
       <c r="E189" s="85">
-        <f>C189-C188</f>
+        <f t="shared" si="33"/>
         <v>149.1940800000001</v>
       </c>
       <c r="F189" s="85">
@@ -40491,15 +40597,15 @@
         <v>6.882929710244011E-2</v>
       </c>
       <c r="D192" s="86">
-        <f t="shared" ref="D192:D210" si="26">ROUND(E192*3600,0)</f>
+        <f t="shared" ref="D192:D210" si="35">ROUND(E192*3600,0)</f>
         <v>220</v>
       </c>
       <c r="E192" s="85">
-        <f>C192-C191</f>
+        <f t="shared" ref="E192:E210" si="36">C192-C191</f>
         <v>6.0999274993801748E-2</v>
       </c>
       <c r="F192" s="85">
-        <f t="shared" ref="F192:F209" si="27">E192/24</f>
+        <f t="shared" ref="F192:F209" si="37">E192/24</f>
         <v>2.541636458075073E-3</v>
       </c>
     </row>
@@ -40516,15 +40622,15 @@
         <v>0.28980756674711627</v>
       </c>
       <c r="D193" s="86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>796</v>
       </c>
       <c r="E193" s="85">
-        <f>C193-C192</f>
+        <f t="shared" si="36"/>
         <v>0.22097826964467615</v>
       </c>
       <c r="F193" s="85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>9.2074279018615063E-3</v>
       </c>
     </row>
@@ -40541,15 +40647,15 @@
         <v>0.68638634229580153</v>
       </c>
       <c r="D194" s="86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>1428</v>
       </c>
       <c r="E194" s="85">
-        <f>C194-C193</f>
+        <f t="shared" si="36"/>
         <v>0.39657877554868526</v>
       </c>
       <c r="F194" s="85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>1.6524115647861885E-2</v>
       </c>
     </row>
@@ -40566,15 +40672,15 @@
         <v>1.3647447741553951</v>
       </c>
       <c r="D195" s="86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>2442</v>
       </c>
       <c r="E195" s="85">
-        <f>C195-C194</f>
+        <f t="shared" si="36"/>
         <v>0.67835843185959355</v>
       </c>
       <c r="F195" s="85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>2.8264934660816397E-2</v>
       </c>
     </row>
@@ -40591,15 +40697,15 @@
         <v>2.3661209706718918</v>
       </c>
       <c r="D196" s="86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>3605</v>
       </c>
       <c r="E196" s="85">
-        <f>C196-C195</f>
+        <f t="shared" si="36"/>
         <v>1.0013761965164967</v>
       </c>
       <c r="F196" s="85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>4.1724008188187361E-2</v>
       </c>
     </row>
@@ -40616,15 +40722,15 @@
         <v>4.0917881447709403</v>
       </c>
       <c r="D197" s="86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>6212</v>
       </c>
       <c r="E197" s="85">
-        <f>C197-C196</f>
+        <f t="shared" si="36"/>
         <v>1.7256671740990486</v>
       </c>
       <c r="F197" s="85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>7.1902798920793695E-2</v>
       </c>
     </row>
@@ -40641,15 +40747,15 @@
         <v>8.0524892551556277</v>
       </c>
       <c r="D198" s="86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>14259</v>
       </c>
       <c r="E198" s="85">
-        <f>C198-C197</f>
+        <f t="shared" si="36"/>
         <v>3.9607011103846874</v>
       </c>
       <c r="F198" s="85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>0.16502921293269532</v>
       </c>
     </row>
@@ -40666,15 +40772,15 @@
         <v>13.798635198553095</v>
       </c>
       <c r="D199" s="86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>20686</v>
       </c>
       <c r="E199" s="85">
-        <f>C199-C198</f>
+        <f t="shared" si="36"/>
         <v>5.7461459433974671</v>
       </c>
       <c r="F199" s="85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>0.23942274764156113</v>
       </c>
     </row>
@@ -40691,15 +40797,15 @@
         <v>22.824810102869783</v>
       </c>
       <c r="D200" s="86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>32494</v>
       </c>
       <c r="E200" s="85">
-        <f>C200-C199</f>
+        <f t="shared" si="36"/>
         <v>9.0261749043166883</v>
       </c>
       <c r="F200" s="85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>0.37609062101319535</v>
       </c>
     </row>
@@ -40716,15 +40822,15 @@
         <v>39.315462378148908</v>
       </c>
       <c r="D201" s="86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>59366</v>
       </c>
       <c r="E201" s="85">
-        <f>C201-C200</f>
+        <f t="shared" si="36"/>
         <v>16.490652275279125</v>
       </c>
       <c r="F201" s="85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>0.68711051146996349</v>
       </c>
     </row>
@@ -40741,15 +40847,15 @@
         <v>62.07704586023511</v>
       </c>
       <c r="D202" s="86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>81942</v>
       </c>
       <c r="E202" s="85">
-        <f>C202-C201</f>
+        <f t="shared" si="36"/>
         <v>22.761583482086202</v>
       </c>
       <c r="F202" s="85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>0.94839931175359171</v>
       </c>
     </row>
@@ -40766,15 +40872,15 @@
         <v>96.8063093337</v>
       </c>
       <c r="D203" s="86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>125025</v>
       </c>
       <c r="E203" s="85">
-        <f>C203-C202</f>
+        <f t="shared" si="36"/>
         <v>34.72926347346489</v>
       </c>
       <c r="F203" s="85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>1.4470526447277037</v>
       </c>
     </row>
@@ -40791,15 +40897,15 @@
         <v>142.66192954439998</v>
       </c>
       <c r="D204" s="86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>165080</v>
       </c>
       <c r="E204" s="85">
-        <f>C204-C203</f>
+        <f t="shared" si="36"/>
         <v>45.855620210699982</v>
       </c>
       <c r="F204" s="85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>1.9106508421124992</v>
       </c>
     </row>
@@ -40816,15 +40922,15 @@
         <v>201.12114127499999</v>
       </c>
       <c r="D205" s="86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>210453</v>
       </c>
       <c r="E205" s="85">
-        <f>C205-C204</f>
+        <f t="shared" si="36"/>
         <v>58.459211730600003</v>
       </c>
       <c r="F205" s="85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>2.435800488775</v>
       </c>
     </row>
@@ -40841,15 +40947,15 @@
         <v>273.80702742</v>
       </c>
       <c r="D206" s="86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>261669</v>
       </c>
       <c r="E206" s="85">
-        <f>C206-C205</f>
+        <f t="shared" si="36"/>
         <v>72.685886145000012</v>
       </c>
       <c r="F206" s="85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>3.0285785893750004</v>
       </c>
     </row>
@@ -40866,15 +40972,15 @@
         <v>362.50089359999998</v>
       </c>
       <c r="D207" s="86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>319298</v>
       </c>
       <c r="E207" s="85">
-        <f>C207-C206</f>
+        <f t="shared" si="36"/>
         <v>88.693866179999986</v>
       </c>
       <c r="F207" s="85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>3.6955777574999993</v>
       </c>
     </row>
@@ -40891,15 +40997,15 @@
         <v>469.15559999999994</v>
       </c>
       <c r="D208" s="86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>383957</v>
       </c>
       <c r="E208" s="85">
-        <f>C208-C207</f>
+        <f t="shared" si="36"/>
         <v>106.65470639999995</v>
       </c>
       <c r="F208" s="85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>4.443946099999998</v>
       </c>
     </row>
@@ -40916,15 +41022,15 @@
         <v>595.90991999999983</v>
       </c>
       <c r="D209" s="86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>456316</v>
       </c>
       <c r="E209" s="85">
-        <f>C209-C208</f>
+        <f t="shared" si="36"/>
         <v>126.75431999999989</v>
       </c>
       <c r="F209" s="85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>5.2814299999999959</v>
       </c>
     </row>
@@ -40941,11 +41047,11 @@
         <v>745.10399999999993</v>
       </c>
       <c r="D210" s="86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>537099</v>
       </c>
       <c r="E210" s="85">
-        <f>C210-C209</f>
+        <f t="shared" si="36"/>
         <v>149.1940800000001</v>
       </c>
       <c r="F210" s="85">
@@ -41011,15 +41117,15 @@
         <v>6.882929710244011E-2</v>
       </c>
       <c r="D213" s="86">
-        <f t="shared" ref="D213:D231" si="28">ROUND(E213*3600,0)</f>
+        <f t="shared" ref="D213:D231" si="38">ROUND(E213*3600,0)</f>
         <v>220</v>
       </c>
       <c r="E213" s="85">
-        <f>C213-C212</f>
+        <f t="shared" ref="E213:E231" si="39">C213-C212</f>
         <v>6.0999274993801748E-2</v>
       </c>
       <c r="F213" s="85">
-        <f t="shared" ref="F213:F230" si="29">E213/24</f>
+        <f t="shared" ref="F213:F230" si="40">E213/24</f>
         <v>2.541636458075073E-3</v>
       </c>
     </row>
@@ -41036,15 +41142,15 @@
         <v>0.28980756674711627</v>
       </c>
       <c r="D214" s="86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>796</v>
       </c>
       <c r="E214" s="85">
-        <f>C214-C213</f>
+        <f t="shared" si="39"/>
         <v>0.22097826964467615</v>
       </c>
       <c r="F214" s="85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>9.2074279018615063E-3</v>
       </c>
     </row>
@@ -41061,15 +41167,15 @@
         <v>0.68638634229580153</v>
       </c>
       <c r="D215" s="86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>1428</v>
       </c>
       <c r="E215" s="85">
-        <f>C215-C214</f>
+        <f t="shared" si="39"/>
         <v>0.39657877554868526</v>
       </c>
       <c r="F215" s="85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>1.6524115647861885E-2</v>
       </c>
     </row>
@@ -41086,15 +41192,15 @@
         <v>1.3647447741553951</v>
       </c>
       <c r="D216" s="86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>2442</v>
       </c>
       <c r="E216" s="85">
-        <f>C216-C215</f>
+        <f t="shared" si="39"/>
         <v>0.67835843185959355</v>
       </c>
       <c r="F216" s="85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>2.8264934660816397E-2</v>
       </c>
     </row>
@@ -41111,15 +41217,15 @@
         <v>2.3661209706718918</v>
       </c>
       <c r="D217" s="86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>3605</v>
       </c>
       <c r="E217" s="85">
-        <f>C217-C216</f>
+        <f t="shared" si="39"/>
         <v>1.0013761965164967</v>
       </c>
       <c r="F217" s="85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>4.1724008188187361E-2</v>
       </c>
     </row>
@@ -41136,15 +41242,15 @@
         <v>4.0917881447709403</v>
       </c>
       <c r="D218" s="86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>6212</v>
       </c>
       <c r="E218" s="85">
-        <f>C218-C217</f>
+        <f t="shared" si="39"/>
         <v>1.7256671740990486</v>
       </c>
       <c r="F218" s="85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>7.1902798920793695E-2</v>
       </c>
     </row>
@@ -41161,15 +41267,15 @@
         <v>8.0524892551556277</v>
       </c>
       <c r="D219" s="86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>14259</v>
       </c>
       <c r="E219" s="85">
-        <f>C219-C218</f>
+        <f t="shared" si="39"/>
         <v>3.9607011103846874</v>
       </c>
       <c r="F219" s="85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>0.16502921293269532</v>
       </c>
     </row>
@@ -41186,15 +41292,15 @@
         <v>13.798635198553095</v>
       </c>
       <c r="D220" s="86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>20686</v>
       </c>
       <c r="E220" s="85">
-        <f>C220-C219</f>
+        <f t="shared" si="39"/>
         <v>5.7461459433974671</v>
       </c>
       <c r="F220" s="85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>0.23942274764156113</v>
       </c>
     </row>
@@ -41211,15 +41317,15 @@
         <v>22.824810102869783</v>
       </c>
       <c r="D221" s="86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>32494</v>
       </c>
       <c r="E221" s="85">
-        <f>C221-C220</f>
+        <f t="shared" si="39"/>
         <v>9.0261749043166883</v>
       </c>
       <c r="F221" s="85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>0.37609062101319535</v>
       </c>
     </row>
@@ -41236,15 +41342,15 @@
         <v>39.315462378148908</v>
       </c>
       <c r="D222" s="86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>59366</v>
       </c>
       <c r="E222" s="85">
-        <f>C222-C221</f>
+        <f t="shared" si="39"/>
         <v>16.490652275279125</v>
       </c>
       <c r="F222" s="85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>0.68711051146996349</v>
       </c>
     </row>
@@ -41261,15 +41367,15 @@
         <v>62.07704586023511</v>
       </c>
       <c r="D223" s="86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>81942</v>
       </c>
       <c r="E223" s="85">
-        <f>C223-C222</f>
+        <f t="shared" si="39"/>
         <v>22.761583482086202</v>
       </c>
       <c r="F223" s="85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>0.94839931175359171</v>
       </c>
     </row>
@@ -41286,15 +41392,15 @@
         <v>96.8063093337</v>
       </c>
       <c r="D224" s="86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>125025</v>
       </c>
       <c r="E224" s="85">
-        <f>C224-C223</f>
+        <f t="shared" si="39"/>
         <v>34.72926347346489</v>
       </c>
       <c r="F224" s="85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>1.4470526447277037</v>
       </c>
     </row>
@@ -41311,15 +41417,15 @@
         <v>142.66192954439998</v>
       </c>
       <c r="D225" s="86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>165080</v>
       </c>
       <c r="E225" s="85">
-        <f>C225-C224</f>
+        <f t="shared" si="39"/>
         <v>45.855620210699982</v>
       </c>
       <c r="F225" s="85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>1.9106508421124992</v>
       </c>
     </row>
@@ -41336,15 +41442,15 @@
         <v>201.12114127499999</v>
       </c>
       <c r="D226" s="86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>210453</v>
       </c>
       <c r="E226" s="85">
-        <f>C226-C225</f>
+        <f t="shared" si="39"/>
         <v>58.459211730600003</v>
       </c>
       <c r="F226" s="85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>2.435800488775</v>
       </c>
     </row>
@@ -41361,15 +41467,15 @@
         <v>273.80702742</v>
       </c>
       <c r="D227" s="86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>261669</v>
       </c>
       <c r="E227" s="85">
-        <f>C227-C226</f>
+        <f t="shared" si="39"/>
         <v>72.685886145000012</v>
       </c>
       <c r="F227" s="85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>3.0285785893750004</v>
       </c>
     </row>
@@ -41386,15 +41492,15 @@
         <v>362.50089359999998</v>
       </c>
       <c r="D228" s="86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>319298</v>
       </c>
       <c r="E228" s="85">
-        <f>C228-C227</f>
+        <f t="shared" si="39"/>
         <v>88.693866179999986</v>
       </c>
       <c r="F228" s="85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>3.6955777574999993</v>
       </c>
     </row>
@@ -41411,15 +41517,15 @@
         <v>469.15559999999994</v>
       </c>
       <c r="D229" s="86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>383957</v>
       </c>
       <c r="E229" s="85">
-        <f>C229-C228</f>
+        <f t="shared" si="39"/>
         <v>106.65470639999995</v>
       </c>
       <c r="F229" s="85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>4.443946099999998</v>
       </c>
     </row>
@@ -41436,15 +41542,15 @@
         <v>595.90991999999983</v>
       </c>
       <c r="D230" s="86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>456316</v>
       </c>
       <c r="E230" s="85">
-        <f>C230-C229</f>
+        <f t="shared" si="39"/>
         <v>126.75431999999989</v>
       </c>
       <c r="F230" s="85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>5.2814299999999959</v>
       </c>
     </row>
@@ -41461,11 +41567,11 @@
         <v>745.10399999999993</v>
       </c>
       <c r="D231" s="86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>537099</v>
       </c>
       <c r="E231" s="85">
-        <f>C231-C230</f>
+        <f t="shared" si="39"/>
         <v>149.1940800000001</v>
       </c>
       <c r="F231" s="85">
@@ -41531,15 +41637,15 @@
         <v>5.1621972826830072E-2</v>
       </c>
       <c r="D234" s="86">
-        <f t="shared" ref="D234:D252" si="30">ROUND(E234*3600,0)</f>
+        <f t="shared" ref="D234:D252" si="41">ROUND(E234*3600,0)</f>
         <v>165</v>
       </c>
       <c r="E234" s="85">
-        <f>C234-C233</f>
+        <f t="shared" ref="E234:E252" si="42">C234-C233</f>
         <v>4.5749456245351303E-2</v>
       </c>
       <c r="F234" s="85">
-        <f t="shared" ref="F234:F251" si="31">E234/24</f>
+        <f t="shared" ref="F234:F251" si="43">E234/24</f>
         <v>1.9062273435563042E-3</v>
       </c>
     </row>
@@ -41556,15 +41662,15 @@
         <v>0.21735567506033718</v>
       </c>
       <c r="D235" s="86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>597</v>
       </c>
       <c r="E235" s="85">
-        <f>C235-C234</f>
+        <f t="shared" si="42"/>
         <v>0.16573370223350711</v>
       </c>
       <c r="F235" s="85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>6.9055709263961297E-3</v>
       </c>
     </row>
@@ -41581,15 +41687,15 @@
         <v>0.51478975672185112</v>
       </c>
       <c r="D236" s="86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>1071</v>
       </c>
       <c r="E236" s="85">
-        <f>C236-C235</f>
+        <f t="shared" si="42"/>
         <v>0.29743408166151397</v>
       </c>
       <c r="F236" s="85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>1.2393086735896416E-2</v>
       </c>
     </row>
@@ -41606,15 +41712,15 @@
         <v>1.0235585806165461</v>
       </c>
       <c r="D237" s="86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>1832</v>
       </c>
       <c r="E237" s="85">
-        <f>C237-C236</f>
+        <f t="shared" si="42"/>
         <v>0.50876882389469502</v>
       </c>
       <c r="F237" s="85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>2.1198700995612291E-2</v>
       </c>
     </row>
@@ -41631,15 +41737,15 @@
         <v>1.7745907280039188</v>
       </c>
       <c r="D238" s="86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>2704</v>
       </c>
       <c r="E238" s="85">
-        <f>C238-C237</f>
+        <f t="shared" si="42"/>
         <v>0.75103214738737267</v>
       </c>
       <c r="F238" s="85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>3.1293006141140528E-2</v>
       </c>
     </row>
@@ -41656,15 +41762,15 @@
         <v>3.068841108578205</v>
       </c>
       <c r="D239" s="86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>4659</v>
       </c>
       <c r="E239" s="85">
-        <f>C239-C238</f>
+        <f t="shared" si="42"/>
         <v>1.2942503805742862</v>
       </c>
       <c r="F239" s="85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>5.3927099190595261E-2</v>
       </c>
     </row>
@@ -41681,15 +41787,15 @@
         <v>6.0393669413667208</v>
       </c>
       <c r="D240" s="86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>10694</v>
       </c>
       <c r="E240" s="85">
-        <f>C240-C239</f>
+        <f t="shared" si="42"/>
         <v>2.9705258327885158</v>
       </c>
       <c r="F240" s="85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>0.1237719096995215</v>
       </c>
     </row>
@@ -41706,15 +41812,15 @@
         <v>10.348976398914822</v>
       </c>
       <c r="D241" s="86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>15515</v>
       </c>
       <c r="E241" s="85">
-        <f>C241-C240</f>
+        <f t="shared" si="42"/>
         <v>4.3096094575481008</v>
       </c>
       <c r="F241" s="85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>0.17956706073117087</v>
       </c>
     </row>
@@ -41731,15 +41837,15 @@
         <v>17.118607577152336</v>
       </c>
       <c r="D242" s="86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>24371</v>
       </c>
       <c r="E242" s="85">
-        <f>C242-C241</f>
+        <f t="shared" si="42"/>
         <v>6.769631178237514</v>
       </c>
       <c r="F242" s="85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>0.2820679657598964</v>
       </c>
     </row>
@@ -41756,15 +41862,15 @@
         <v>29.486596783611681</v>
       </c>
       <c r="D243" s="86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>44525</v>
       </c>
       <c r="E243" s="85">
-        <f>C243-C242</f>
+        <f t="shared" si="42"/>
         <v>12.367989206459345</v>
       </c>
       <c r="F243" s="85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>0.51533288360247276</v>
       </c>
     </row>
@@ -41781,15 +41887,15 @@
         <v>46.557784395176334</v>
       </c>
       <c r="D244" s="86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>61456</v>
       </c>
       <c r="E244" s="85">
-        <f>C244-C243</f>
+        <f t="shared" si="42"/>
         <v>17.071187611564653</v>
       </c>
       <c r="F244" s="85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>0.71129948381519392</v>
       </c>
     </row>
@@ -41806,15 +41912,15 @@
         <v>72.604732000274993</v>
       </c>
       <c r="D245" s="86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>93769</v>
       </c>
       <c r="E245" s="85">
-        <f>C245-C244</f>
+        <f t="shared" si="42"/>
         <v>26.046947605098659</v>
       </c>
       <c r="F245" s="85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>1.0852894835457774</v>
       </c>
     </row>
@@ -41831,15 +41937,15 @@
         <v>106.99644715829999</v>
       </c>
       <c r="D246" s="86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>123810</v>
       </c>
       <c r="E246" s="85">
-        <f>C246-C245</f>
+        <f t="shared" si="42"/>
         <v>34.391715158024994</v>
       </c>
       <c r="F246" s="85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>1.4329881315843747</v>
       </c>
     </row>
@@ -41856,15 +41962,15 @@
         <v>150.84085595624998</v>
       </c>
       <c r="D247" s="86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>157840</v>
       </c>
       <c r="E247" s="85">
-        <f>C247-C246</f>
+        <f t="shared" si="42"/>
         <v>43.844408797949995</v>
       </c>
       <c r="F247" s="85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>1.8268503665812499</v>
       </c>
     </row>
@@ -41881,15 +41987,15 @@
         <v>205.35527056499998</v>
       </c>
       <c r="D248" s="86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>196252</v>
       </c>
       <c r="E248" s="85">
-        <f>C248-C247</f>
+        <f t="shared" si="42"/>
         <v>54.514414608750002</v>
       </c>
       <c r="F248" s="85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>2.2714339420312499</v>
       </c>
     </row>
@@ -41906,15 +42012,15 @@
         <v>271.8756702</v>
       </c>
       <c r="D249" s="86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>239473</v>
       </c>
       <c r="E249" s="85">
-        <f>C249-C248</f>
+        <f t="shared" si="42"/>
         <v>66.520399635000018</v>
       </c>
       <c r="F249" s="85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>2.7716833181250009</v>
       </c>
     </row>
@@ -41931,15 +42037,15 @@
         <v>351.86669999999992</v>
       </c>
       <c r="D250" s="86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>287968</v>
       </c>
       <c r="E250" s="85">
-        <f>C250-C249</f>
+        <f t="shared" si="42"/>
         <v>79.991029799999922</v>
       </c>
       <c r="F250" s="85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>3.3329595749999967</v>
       </c>
     </row>
@@ -41956,15 +42062,15 @@
         <v>446.93243999999987</v>
       </c>
       <c r="D251" s="86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>342237</v>
       </c>
       <c r="E251" s="85">
-        <f>C251-C250</f>
+        <f t="shared" si="42"/>
         <v>95.065739999999948</v>
       </c>
       <c r="F251" s="85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>3.961072499999998</v>
       </c>
     </row>
@@ -41981,11 +42087,11 @@
         <v>558.82799999999997</v>
       </c>
       <c r="D252" s="86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>402824</v>
       </c>
       <c r="E252" s="85">
-        <f>C252-C251</f>
+        <f t="shared" si="42"/>
         <v>111.8955600000001</v>
       </c>
       <c r="F252" s="85">
@@ -42051,15 +42157,15 @@
         <v>6.0225634964635094E-2</v>
       </c>
       <c r="D255" s="86">
-        <f t="shared" ref="D255:D273" si="32">ROUND(E255*3600,0)</f>
+        <f t="shared" ref="D255:D273" si="44">ROUND(E255*3600,0)</f>
         <v>192</v>
       </c>
       <c r="E255" s="85">
-        <f>C255-C254</f>
+        <f t="shared" ref="E255:E273" si="45">C255-C254</f>
         <v>5.3374365619576529E-2</v>
       </c>
       <c r="F255" s="85">
-        <f t="shared" ref="F255:F272" si="33">E255/24</f>
+        <f t="shared" ref="F255:F272" si="46">E255/24</f>
         <v>2.2239319008156887E-3</v>
       </c>
     </row>
@@ -42076,15 +42182,15 @@
         <v>0.25358162090372677</v>
       </c>
       <c r="D256" s="86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>696</v>
       </c>
       <c r="E256" s="85">
-        <f>C256-C255</f>
+        <f t="shared" si="45"/>
         <v>0.19335598593909167</v>
       </c>
       <c r="F256" s="85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>8.0564994141288197E-3</v>
       </c>
     </row>
@@ -42101,15 +42207,15 @@
         <v>0.60058804950882638</v>
       </c>
       <c r="D257" s="86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>1249</v>
       </c>
       <c r="E257" s="85">
-        <f>C257-C256</f>
+        <f t="shared" si="45"/>
         <v>0.34700642860509961</v>
       </c>
       <c r="F257" s="85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>1.4458601191879151E-2</v>
       </c>
     </row>
@@ -42126,15 +42232,15 @@
         <v>1.1941516773859706</v>
       </c>
       <c r="D258" s="86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2137</v>
       </c>
       <c r="E258" s="85">
-        <f>C258-C257</f>
+        <f t="shared" si="45"/>
         <v>0.59356362787714423</v>
       </c>
       <c r="F258" s="85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>2.4731817828214344E-2</v>
       </c>
     </row>
@@ -42151,15 +42257,15 @@
         <v>2.0703558493379055</v>
       </c>
       <c r="D259" s="86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>3154</v>
       </c>
       <c r="E259" s="85">
-        <f>C259-C258</f>
+        <f t="shared" si="45"/>
         <v>0.8762041719519349</v>
       </c>
       <c r="F259" s="85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>3.6508507164663952E-2</v>
       </c>
     </row>
@@ -42176,15 +42282,15 @@
         <v>3.5803146266745731</v>
       </c>
       <c r="D260" s="86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>5436</v>
       </c>
       <c r="E260" s="85">
-        <f>C260-C259</f>
+        <f t="shared" si="45"/>
         <v>1.5099587773366676</v>
       </c>
       <c r="F260" s="85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>6.2914949055694488E-2</v>
       </c>
     </row>
@@ -42201,15 +42307,15 @@
         <v>7.0459280982611743</v>
       </c>
       <c r="D261" s="86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>12476</v>
       </c>
       <c r="E261" s="85">
-        <f>C261-C260</f>
+        <f t="shared" si="45"/>
         <v>3.4656134715866012</v>
       </c>
       <c r="F261" s="85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0.14440056131610837</v>
       </c>
     </row>
@@ -42226,15 +42332,15 @@
         <v>12.073805798733959</v>
       </c>
       <c r="D262" s="86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>18100</v>
       </c>
       <c r="E262" s="85">
-        <f>C262-C261</f>
+        <f t="shared" si="45"/>
         <v>5.0278777004727848</v>
       </c>
       <c r="F262" s="85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0.20949490418636604</v>
       </c>
     </row>
@@ -42251,15 +42357,15 @@
         <v>19.971708840011061</v>
       </c>
       <c r="D263" s="86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>28432</v>
       </c>
       <c r="E263" s="85">
-        <f>C263-C262</f>
+        <f t="shared" si="45"/>
         <v>7.8979030412771021</v>
       </c>
       <c r="F263" s="85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0.3290792933865459</v>
       </c>
     </row>
@@ -42276,15 +42382,15 @@
         <v>34.401029580880298</v>
       </c>
       <c r="D264" s="86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>51946</v>
       </c>
       <c r="E264" s="85">
-        <f>C264-C263</f>
+        <f t="shared" si="45"/>
         <v>14.429320740869237</v>
       </c>
       <c r="F264" s="85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0.60122169753621824</v>
       </c>
     </row>
@@ -42301,15 +42407,15 @@
         <v>54.317415127705729</v>
       </c>
       <c r="D265" s="86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>71699</v>
       </c>
       <c r="E265" s="85">
-        <f>C265-C264</f>
+        <f t="shared" si="45"/>
         <v>19.916385546825431</v>
       </c>
       <c r="F265" s="85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>0.82984939778439293</v>
       </c>
     </row>
@@ -42326,15 +42432,15 @@
         <v>84.705520666987496</v>
       </c>
       <c r="D266" s="86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>109397</v>
       </c>
       <c r="E266" s="85">
-        <f>C266-C265</f>
+        <f t="shared" si="45"/>
         <v>30.388105539281767</v>
       </c>
       <c r="F266" s="85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>1.2661710641367403</v>
       </c>
     </row>
@@ -42351,15 +42457,15 @@
         <v>124.82918835135</v>
       </c>
       <c r="D267" s="86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>144445</v>
       </c>
       <c r="E267" s="85">
-        <f>C267-C266</f>
+        <f t="shared" si="45"/>
         <v>40.123667684362502</v>
       </c>
       <c r="F267" s="85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>1.6718194868484375</v>
       </c>
     </row>
@@ -42376,15 +42482,15 @@
         <v>175.980998615625</v>
       </c>
       <c r="D268" s="86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>184147</v>
       </c>
       <c r="E268" s="85">
-        <f>C268-C267</f>
+        <f t="shared" si="45"/>
         <v>51.151810264274999</v>
       </c>
       <c r="F268" s="85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>2.1313254276781248</v>
       </c>
     </row>
@@ -42401,15 +42507,15 @@
         <v>239.5811489925</v>
       </c>
       <c r="D269" s="86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>228961</v>
       </c>
       <c r="E269" s="85">
-        <f>C269-C268</f>
+        <f t="shared" si="45"/>
         <v>63.600150376875007</v>
       </c>
       <c r="F269" s="85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>2.6500062657031251</v>
       </c>
     </row>
@@ -42426,15 +42532,15 @@
         <v>317.18828189999999</v>
       </c>
       <c r="D270" s="86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>279386</v>
       </c>
       <c r="E270" s="85">
-        <f>C270-C269</f>
+        <f t="shared" si="45"/>
         <v>77.607132907499988</v>
       </c>
       <c r="F270" s="85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>3.2336305378124997</v>
       </c>
     </row>
@@ -42451,15 +42557,15 @@
         <v>410.51114999999993</v>
       </c>
       <c r="D271" s="86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>335962</v>
       </c>
       <c r="E271" s="85">
-        <f>C271-C270</f>
+        <f t="shared" si="45"/>
         <v>93.322868099999937</v>
       </c>
       <c r="F271" s="85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>3.8884528374999974</v>
       </c>
     </row>
@@ -42476,15 +42582,15 @@
         <v>521.42117999999994</v>
       </c>
       <c r="D272" s="86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>399276</v>
       </c>
       <c r="E272" s="85">
-        <f>C272-C271</f>
+        <f t="shared" si="45"/>
         <v>110.91003000000001</v>
       </c>
       <c r="F272" s="85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>4.6212512500000003</v>
       </c>
     </row>
@@ -42501,11 +42607,11 @@
         <v>651.96600000000001</v>
       </c>
       <c r="D273" s="86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>469961</v>
       </c>
       <c r="E273" s="85">
-        <f>C273-C272</f>
+        <f t="shared" si="45"/>
         <v>130.54482000000007</v>
       </c>
       <c r="F273" s="85">
@@ -42571,15 +42677,15 @@
         <v>6.882929710244011E-2</v>
       </c>
       <c r="D276" s="86">
-        <f t="shared" ref="D276:D294" si="34">ROUND(E276*3600,0)</f>
+        <f t="shared" ref="D276:D294" si="47">ROUND(E276*3600,0)</f>
         <v>220</v>
       </c>
       <c r="E276" s="85">
-        <f>C276-C275</f>
+        <f t="shared" ref="E276:E294" si="48">C276-C275</f>
         <v>6.0999274993801748E-2</v>
       </c>
       <c r="F276" s="85">
-        <f t="shared" ref="F276:F293" si="35">E276/24</f>
+        <f t="shared" ref="F276:F293" si="49">E276/24</f>
         <v>2.541636458075073E-3</v>
       </c>
     </row>
@@ -42596,15 +42702,15 @@
         <v>0.28980756674711627</v>
       </c>
       <c r="D277" s="86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>796</v>
       </c>
       <c r="E277" s="85">
-        <f>C277-C276</f>
+        <f t="shared" si="48"/>
         <v>0.22097826964467615</v>
       </c>
       <c r="F277" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>9.2074279018615063E-3</v>
       </c>
     </row>
@@ -42621,15 +42727,15 @@
         <v>0.68638634229580153</v>
       </c>
       <c r="D278" s="86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>1428</v>
       </c>
       <c r="E278" s="85">
-        <f>C278-C277</f>
+        <f t="shared" si="48"/>
         <v>0.39657877554868526</v>
       </c>
       <c r="F278" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>1.6524115647861885E-2</v>
       </c>
     </row>
@@ -42646,15 +42752,15 @@
         <v>1.3647447741553951</v>
       </c>
       <c r="D279" s="86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>2442</v>
       </c>
       <c r="E279" s="85">
-        <f>C279-C278</f>
+        <f t="shared" si="48"/>
         <v>0.67835843185959355</v>
       </c>
       <c r="F279" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>2.8264934660816397E-2</v>
       </c>
     </row>
@@ -42671,15 +42777,15 @@
         <v>2.3661209706718918</v>
       </c>
       <c r="D280" s="86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>3605</v>
       </c>
       <c r="E280" s="85">
-        <f>C280-C279</f>
+        <f t="shared" si="48"/>
         <v>1.0013761965164967</v>
       </c>
       <c r="F280" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>4.1724008188187361E-2</v>
       </c>
     </row>
@@ -42696,15 +42802,15 @@
         <v>4.0917881447709403</v>
       </c>
       <c r="D281" s="86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>6212</v>
       </c>
       <c r="E281" s="85">
-        <f>C281-C280</f>
+        <f t="shared" si="48"/>
         <v>1.7256671740990486</v>
       </c>
       <c r="F281" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>7.1902798920793695E-2</v>
       </c>
     </row>
@@ -42721,15 +42827,15 @@
         <v>8.0524892551556277</v>
       </c>
       <c r="D282" s="86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>14259</v>
       </c>
       <c r="E282" s="85">
-        <f>C282-C281</f>
+        <f t="shared" si="48"/>
         <v>3.9607011103846874</v>
       </c>
       <c r="F282" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>0.16502921293269532</v>
       </c>
     </row>
@@ -42746,15 +42852,15 @@
         <v>13.798635198553095</v>
       </c>
       <c r="D283" s="86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>20686</v>
       </c>
       <c r="E283" s="85">
-        <f>C283-C282</f>
+        <f t="shared" si="48"/>
         <v>5.7461459433974671</v>
       </c>
       <c r="F283" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>0.23942274764156113</v>
       </c>
     </row>
@@ -42771,15 +42877,15 @@
         <v>22.824810102869783</v>
       </c>
       <c r="D284" s="86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>32494</v>
       </c>
       <c r="E284" s="85">
-        <f>C284-C283</f>
+        <f t="shared" si="48"/>
         <v>9.0261749043166883</v>
       </c>
       <c r="F284" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>0.37609062101319535</v>
       </c>
     </row>
@@ -42796,15 +42902,15 @@
         <v>39.315462378148908</v>
       </c>
       <c r="D285" s="86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>59366</v>
       </c>
       <c r="E285" s="85">
-        <f>C285-C284</f>
+        <f t="shared" si="48"/>
         <v>16.490652275279125</v>
       </c>
       <c r="F285" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>0.68711051146996349</v>
       </c>
     </row>
@@ -42821,15 +42927,15 @@
         <v>62.07704586023511</v>
       </c>
       <c r="D286" s="86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>81942</v>
       </c>
       <c r="E286" s="85">
-        <f>C286-C285</f>
+        <f t="shared" si="48"/>
         <v>22.761583482086202</v>
       </c>
       <c r="F286" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>0.94839931175359171</v>
       </c>
     </row>
@@ -42846,15 +42952,15 @@
         <v>96.8063093337</v>
       </c>
       <c r="D287" s="86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>125025</v>
       </c>
       <c r="E287" s="85">
-        <f>C287-C286</f>
+        <f t="shared" si="48"/>
         <v>34.72926347346489</v>
       </c>
       <c r="F287" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>1.4470526447277037</v>
       </c>
     </row>
@@ -42871,19 +42977,19 @@
         <v>142.66192954439998</v>
       </c>
       <c r="D288" s="86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>165080</v>
       </c>
       <c r="E288" s="85">
-        <f>C288-C287</f>
+        <f t="shared" si="48"/>
         <v>45.855620210699982</v>
       </c>
       <c r="F288" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>1.9106508421124992</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:8">
       <c r="A289" s="7">
         <v>15</v>
       </c>
@@ -42896,19 +43002,19 @@
         <v>201.12114127499999</v>
       </c>
       <c r="D289" s="86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>210453</v>
       </c>
       <c r="E289" s="85">
-        <f>C289-C288</f>
+        <f t="shared" si="48"/>
         <v>58.459211730600003</v>
       </c>
       <c r="F289" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>2.435800488775</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:8">
       <c r="A290" s="7">
         <v>16</v>
       </c>
@@ -42921,19 +43027,19 @@
         <v>273.80702742</v>
       </c>
       <c r="D290" s="86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>261669</v>
       </c>
       <c r="E290" s="85">
-        <f>C290-C289</f>
+        <f t="shared" si="48"/>
         <v>72.685886145000012</v>
       </c>
       <c r="F290" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>3.0285785893750004</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:8">
       <c r="A291" s="7">
         <v>17</v>
       </c>
@@ -42946,19 +43052,19 @@
         <v>362.50089359999998</v>
       </c>
       <c r="D291" s="86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>319298</v>
       </c>
       <c r="E291" s="85">
-        <f>C291-C290</f>
+        <f t="shared" si="48"/>
         <v>88.693866179999986</v>
       </c>
       <c r="F291" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>3.6955777574999993</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:8">
       <c r="A292" s="7">
         <v>18</v>
       </c>
@@ -42971,19 +43077,19 @@
         <v>469.15559999999994</v>
       </c>
       <c r="D292" s="86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>383957</v>
       </c>
       <c r="E292" s="85">
-        <f>C292-C291</f>
+        <f t="shared" si="48"/>
         <v>106.65470639999995</v>
       </c>
       <c r="F292" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>4.443946099999998</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:8">
       <c r="A293" s="7">
         <v>19</v>
       </c>
@@ -42996,19 +43102,19 @@
         <v>595.90991999999983</v>
       </c>
       <c r="D293" s="86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>456316</v>
       </c>
       <c r="E293" s="85">
-        <f>C293-C292</f>
+        <f t="shared" si="48"/>
         <v>126.75431999999989</v>
       </c>
       <c r="F293" s="85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>5.2814299999999959</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:8">
       <c r="A294" s="7">
         <v>20</v>
       </c>
@@ -43021,11 +43127,11 @@
         <v>745.10399999999993</v>
       </c>
       <c r="D294" s="86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>537099</v>
       </c>
       <c r="E294" s="85">
-        <f>C294-C293</f>
+        <f t="shared" si="48"/>
         <v>149.1940800000001</v>
       </c>
       <c r="F294" s="85">
@@ -43033,7 +43139,7 @@
         <v>6.2164200000000038</v>
       </c>
     </row>
-    <row r="295" spans="1:6" s="48" customFormat="1" ht="27">
+    <row r="295" spans="1:8" s="48" customFormat="1" ht="27">
       <c r="A295" s="48" t="s">
         <v>481</v>
       </c>
@@ -43052,8 +43158,14 @@
       <c r="F295" s="84" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="296" spans="1:6">
+      <c r="G295" s="48" t="s">
+        <v>488</v>
+      </c>
+      <c r="H295" s="48" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296" s="7">
         <v>1</v>
       </c>
@@ -43077,8 +43189,11 @@
         <f>E296/24</f>
         <v>5.7093911208821373E-4</v>
       </c>
-    </row>
-    <row r="297" spans="1:6">
+      <c r="G296" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" s="7">
         <v>2</v>
       </c>
@@ -43091,19 +43206,22 @@
         <v>0.12045126992927019</v>
       </c>
       <c r="D297" s="86">
-        <f t="shared" ref="D297:D315" si="36">ROUND(E297*3600,0)</f>
+        <f t="shared" ref="D297:D315" si="50">ROUND(E297*3600,0)</f>
         <v>384</v>
       </c>
       <c r="E297" s="85">
-        <f>C297-C296</f>
+        <f t="shared" ref="E297:E315" si="51">C297-C296</f>
         <v>0.10674873123915306</v>
       </c>
       <c r="F297" s="85">
-        <f t="shared" ref="F297:F314" si="37">E297/24</f>
+        <f t="shared" ref="F297:F314" si="52">E297/24</f>
         <v>4.4478638016313774E-3</v>
       </c>
-    </row>
-    <row r="298" spans="1:6">
+      <c r="G297" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298" s="7">
         <v>3</v>
       </c>
@@ -43116,19 +43234,22 @@
         <v>0.50716324180745354</v>
       </c>
       <c r="D298" s="86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>1392</v>
       </c>
       <c r="E298" s="85">
-        <f>C298-C297</f>
+        <f t="shared" si="51"/>
         <v>0.38671197187818335</v>
       </c>
       <c r="F298" s="85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>1.6112998828257639E-2</v>
       </c>
-    </row>
-    <row r="299" spans="1:6">
+      <c r="G298" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299" s="7">
         <v>4</v>
       </c>
@@ -43141,19 +43262,22 @@
         <v>1.2011760990176528</v>
       </c>
       <c r="D299" s="86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>2498</v>
       </c>
       <c r="E299" s="85">
-        <f>C299-C298</f>
+        <f t="shared" si="51"/>
         <v>0.69401285721019923</v>
       </c>
       <c r="F299" s="85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>2.8917202383758302E-2</v>
       </c>
-    </row>
-    <row r="300" spans="1:6">
+      <c r="G299" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300" s="7">
         <v>5</v>
       </c>
@@ -43166,19 +43290,22 @@
         <v>2.3883033547719412</v>
       </c>
       <c r="D300" s="86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>4274</v>
       </c>
       <c r="E300" s="85">
-        <f>C300-C299</f>
+        <f t="shared" si="51"/>
         <v>1.1871272557542885</v>
       </c>
       <c r="F300" s="85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>4.9463635656428688E-2</v>
       </c>
-    </row>
-    <row r="301" spans="1:6">
+      <c r="G300" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301" s="7">
         <v>6</v>
       </c>
@@ -43191,19 +43318,22 @@
         <v>4.140711698675811</v>
       </c>
       <c r="D301" s="86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>6309</v>
       </c>
       <c r="E301" s="85">
-        <f>C301-C300</f>
+        <f t="shared" si="51"/>
         <v>1.7524083439038698</v>
       </c>
       <c r="F301" s="85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>7.3017014329327903E-2</v>
       </c>
-    </row>
-    <row r="302" spans="1:6">
+      <c r="G301" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302" s="7">
         <v>7</v>
       </c>
@@ -43216,19 +43346,22 @@
         <v>7.1606292533491462</v>
       </c>
       <c r="D302" s="86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>10872</v>
       </c>
       <c r="E302" s="85">
-        <f>C302-C301</f>
+        <f t="shared" si="51"/>
         <v>3.0199175546733352</v>
       </c>
       <c r="F302" s="85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>0.12582989811138898</v>
       </c>
-    </row>
-    <row r="303" spans="1:6">
+      <c r="G302" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303" s="7">
         <v>8</v>
       </c>
@@ -43241,19 +43374,22 @@
         <v>14.091856196522349</v>
       </c>
       <c r="D303" s="86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>24952</v>
       </c>
       <c r="E303" s="85">
-        <f>C303-C302</f>
+        <f t="shared" si="51"/>
         <v>6.9312269431732023</v>
       </c>
       <c r="F303" s="85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>0.28880112263221674</v>
       </c>
-    </row>
-    <row r="304" spans="1:6">
+      <c r="G303" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304" s="7">
         <v>9</v>
       </c>
@@ -43266,19 +43402,22 @@
         <v>24.147611597467918</v>
       </c>
       <c r="D304" s="86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>36201</v>
       </c>
       <c r="E304" s="85">
-        <f>C304-C303</f>
+        <f t="shared" si="51"/>
         <v>10.05575540094557</v>
       </c>
       <c r="F304" s="85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>0.41898980837273209</v>
       </c>
-    </row>
-    <row r="305" spans="1:6">
+      <c r="G304" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305" s="7">
         <v>10</v>
       </c>
@@ -43291,19 +43430,22 @@
         <v>39.943417680022122</v>
       </c>
       <c r="D305" s="86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>56865</v>
       </c>
       <c r="E305" s="85">
-        <f>C305-C304</f>
+        <f t="shared" si="51"/>
         <v>15.795806082554204</v>
       </c>
       <c r="F305" s="85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>0.6581585867730918</v>
       </c>
-    </row>
-    <row r="306" spans="1:6">
+      <c r="G305" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306" s="7">
         <v>11</v>
       </c>
@@ -43316,19 +43458,22 @@
         <v>68.802059161760596</v>
       </c>
       <c r="D306" s="86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>103891</v>
       </c>
       <c r="E306" s="85">
-        <f>C306-C305</f>
+        <f t="shared" si="51"/>
         <v>28.858641481738474</v>
       </c>
       <c r="F306" s="85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>1.2024433950724365</v>
       </c>
-    </row>
-    <row r="307" spans="1:6">
+      <c r="G306" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307" s="7">
         <v>12</v>
       </c>
@@ -43341,19 +43486,22 @@
         <v>108.63483025541146</v>
       </c>
       <c r="D307" s="86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>143398</v>
       </c>
       <c r="E307" s="85">
-        <f>C307-C306</f>
+        <f t="shared" si="51"/>
         <v>39.832771093650862</v>
       </c>
       <c r="F307" s="85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>1.6596987955687859</v>
       </c>
-    </row>
-    <row r="308" spans="1:6">
+      <c r="G307" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308" s="7">
         <v>13</v>
       </c>
@@ -43366,19 +43514,22 @@
         <v>169.41104133397499</v>
       </c>
       <c r="D308" s="86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>218794</v>
       </c>
       <c r="E308" s="85">
-        <f>C308-C307</f>
+        <f t="shared" si="51"/>
         <v>60.776211078563534</v>
       </c>
       <c r="F308" s="85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>2.5323421282734806</v>
       </c>
-    </row>
-    <row r="309" spans="1:6">
+      <c r="G308" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309" s="7">
         <v>14</v>
       </c>
@@ -43391,19 +43542,22 @@
         <v>249.6583767027</v>
       </c>
       <c r="D309" s="86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>288890</v>
       </c>
       <c r="E309" s="85">
-        <f>C309-C308</f>
+        <f t="shared" si="51"/>
         <v>80.247335368725004</v>
       </c>
       <c r="F309" s="85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>3.343638973696875</v>
       </c>
-    </row>
-    <row r="310" spans="1:6">
+      <c r="G309" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310" s="7">
         <v>15</v>
       </c>
@@ -43416,19 +43570,22 @@
         <v>351.96199723125</v>
       </c>
       <c r="D310" s="86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>368293</v>
       </c>
       <c r="E310" s="85">
-        <f>C310-C309</f>
+        <f t="shared" si="51"/>
         <v>102.30362052855</v>
       </c>
       <c r="F310" s="85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>4.2626508553562497</v>
       </c>
-    </row>
-    <row r="311" spans="1:6">
+      <c r="G310" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311" s="7">
         <v>16</v>
       </c>
@@ -43441,19 +43598,22 @@
         <v>479.16229798500001</v>
       </c>
       <c r="D311" s="86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>457921</v>
       </c>
       <c r="E311" s="85">
-        <f>C311-C310</f>
+        <f t="shared" si="51"/>
         <v>127.20030075375001</v>
       </c>
       <c r="F311" s="85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>5.3000125314062503</v>
       </c>
-    </row>
-    <row r="312" spans="1:6">
+      <c r="G311" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312" s="7">
         <v>17</v>
       </c>
@@ -43466,19 +43626,22 @@
         <v>634.37656379999999</v>
       </c>
       <c r="D312" s="86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>558771</v>
       </c>
       <c r="E312" s="85">
-        <f>C312-C311</f>
+        <f t="shared" si="51"/>
         <v>155.21426581499998</v>
       </c>
       <c r="F312" s="85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>6.4672610756249993</v>
       </c>
-    </row>
-    <row r="313" spans="1:6">
+      <c r="G312" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313" s="7">
         <v>18</v>
       </c>
@@ -43491,19 +43654,22 @@
         <v>821.02229999999986</v>
       </c>
       <c r="D313" s="86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>671925</v>
       </c>
       <c r="E313" s="85">
-        <f>C313-C312</f>
+        <f t="shared" si="51"/>
         <v>186.64573619999987</v>
       </c>
       <c r="F313" s="85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>7.7769056749999947</v>
       </c>
-    </row>
-    <row r="314" spans="1:6">
+      <c r="G313" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314" s="7">
         <v>19</v>
       </c>
@@ -43516,19 +43682,22 @@
         <v>1042.8423599999999</v>
       </c>
       <c r="D314" s="86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>798552</v>
       </c>
       <c r="E314" s="85">
-        <f>C314-C313</f>
+        <f t="shared" si="51"/>
         <v>221.82006000000001</v>
       </c>
       <c r="F314" s="85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>9.2425025000000005</v>
       </c>
-    </row>
-    <row r="315" spans="1:6">
+      <c r="G314" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315" s="7">
         <v>20</v>
       </c>
@@ -43541,16 +43710,19 @@
         <v>1303.932</v>
       </c>
       <c r="D315" s="86">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>939923</v>
       </c>
       <c r="E315" s="85">
-        <f>C315-C314</f>
+        <f t="shared" si="51"/>
         <v>261.08964000000014</v>
       </c>
       <c r="F315" s="85">
         <f>E315/24</f>
         <v>10.878735000000006</v>
+      </c>
+      <c r="G315" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -43560,14 +43732,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -59066,7 +59238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -59081,7 +59253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -59192,23 +59364,23 @@
         <v>2E-3</v>
       </c>
       <c r="H3" s="34">
-        <f>ROUND(C3/SUM(C3:G3),4)</f>
+        <f t="shared" ref="H3:H22" si="0">ROUND(C3/SUM(C3:G3),4)</f>
         <v>0.57689999999999997</v>
       </c>
       <c r="I3" s="34">
-        <f>ROUND(D3/SUM(C3:G3),4)</f>
+        <f t="shared" ref="I3:I22" si="1">ROUND(D3/SUM(C3:G3),4)</f>
         <v>0.32690000000000002</v>
       </c>
       <c r="J3" s="34">
-        <f>ROUND(E3/SUM(C3:G3),4)</f>
+        <f t="shared" ref="J3:J22" si="2">ROUND(E3/SUM(C3:G3),4)</f>
         <v>6.54E-2</v>
       </c>
       <c r="K3" s="34">
-        <f>ROUND(F3/SUM(C3:G3),4)</f>
+        <f t="shared" ref="K3:K22" si="3">ROUND(F3/SUM(C3:G3),4)</f>
         <v>2.8799999999999999E-2</v>
       </c>
       <c r="L3" s="34">
-        <f>ROUND(G3/SUM(C3:G3),4)</f>
+        <f t="shared" ref="L3:L22" si="4">ROUND(G3/SUM(C3:G3),4)</f>
         <v>1.9E-3</v>
       </c>
     </row>
@@ -59237,23 +59409,23 @@
         <v>2E-3</v>
       </c>
       <c r="H4" s="34">
-        <f>ROUND(C4/SUM(C4:G4),4)</f>
+        <f t="shared" si="0"/>
         <v>0.56069999999999998</v>
       </c>
       <c r="I4" s="34">
-        <f>ROUND(D4/SUM(C4:G4),4)</f>
+        <f t="shared" si="1"/>
         <v>0.3458</v>
       </c>
       <c r="J4" s="34">
-        <f>ROUND(E4/SUM(C4:G4),4)</f>
+        <f t="shared" si="2"/>
         <v>6.3600000000000004E-2</v>
       </c>
       <c r="K4" s="34">
-        <f>ROUND(F4/SUM(C4:G4),4)</f>
+        <f t="shared" si="3"/>
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="L4" s="34">
-        <f>ROUND(G4/SUM(C4:G4),4)</f>
+        <f t="shared" si="4"/>
         <v>1.9E-3</v>
       </c>
     </row>
@@ -59282,23 +59454,23 @@
         <v>2E-3</v>
       </c>
       <c r="H5" s="34">
-        <f>ROUND(C5/SUM(C5:G5),4)</f>
+        <f t="shared" si="0"/>
         <v>0.54049999999999998</v>
       </c>
       <c r="I5" s="34">
-        <f>ROUND(D5/SUM(C5:G5),4)</f>
+        <f t="shared" si="1"/>
         <v>0.3604</v>
       </c>
       <c r="J5" s="34">
-        <f>ROUND(E5/SUM(C5:G5),4)</f>
+        <f t="shared" si="2"/>
         <v>7.0300000000000001E-2</v>
       </c>
       <c r="K5" s="34">
-        <f>ROUND(F5/SUM(C5:G5),4)</f>
+        <f t="shared" si="3"/>
         <v>2.7E-2</v>
       </c>
       <c r="L5" s="34">
-        <f>ROUND(G5/SUM(C5:G5),4)</f>
+        <f t="shared" si="4"/>
         <v>1.8E-3</v>
       </c>
     </row>
@@ -59327,23 +59499,23 @@
         <v>2E-3</v>
       </c>
       <c r="H6" s="34">
-        <f>ROUND(C6/SUM(C6:G6),4)</f>
+        <f t="shared" si="0"/>
         <v>0.51719999999999999</v>
       </c>
       <c r="I6" s="34">
-        <f>ROUND(D6/SUM(C6:G6),4)</f>
+        <f t="shared" si="1"/>
         <v>0.38790000000000002</v>
       </c>
       <c r="J6" s="34">
-        <f>ROUND(E6/SUM(C6:G6),4)</f>
+        <f t="shared" si="2"/>
         <v>6.7199999999999996E-2</v>
       </c>
       <c r="K6" s="34">
-        <f>ROUND(F6/SUM(C6:G6),4)</f>
+        <f t="shared" si="3"/>
         <v>2.5899999999999999E-2</v>
       </c>
       <c r="L6" s="34">
-        <f>ROUND(G6/SUM(C6:G6),4)</f>
+        <f t="shared" si="4"/>
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
@@ -59372,23 +59544,23 @@
         <v>2E-3</v>
       </c>
       <c r="H7" s="34">
-        <f>ROUND(C7/SUM(C7:G7),4)</f>
+        <f t="shared" si="0"/>
         <v>0.49180000000000001</v>
       </c>
       <c r="I7" s="34">
-        <f>ROUND(D7/SUM(C7:G7),4)</f>
+        <f t="shared" si="1"/>
         <v>0.4098</v>
       </c>
       <c r="J7" s="34">
-        <f>ROUND(E7/SUM(C7:G7),4)</f>
+        <f t="shared" si="2"/>
         <v>7.2099999999999997E-2</v>
       </c>
       <c r="K7" s="34">
-        <f>ROUND(F7/SUM(C7:G7),4)</f>
+        <f t="shared" si="3"/>
         <v>2.46E-2</v>
       </c>
       <c r="L7" s="34">
-        <f>ROUND(G7/SUM(C7:G7),4)</f>
+        <f t="shared" si="4"/>
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -59417,23 +59589,23 @@
         <v>2E-3</v>
       </c>
       <c r="H8" s="34">
-        <f>ROUND(C8/SUM(C8:G8),4)</f>
+        <f t="shared" si="0"/>
         <v>0.46879999999999999</v>
       </c>
       <c r="I8" s="34">
-        <f>ROUND(D8/SUM(C8:G8),4)</f>
+        <f t="shared" si="1"/>
         <v>0.42970000000000003</v>
       </c>
       <c r="J8" s="34">
-        <f>ROUND(E8/SUM(C8:G8),4)</f>
+        <f t="shared" si="2"/>
         <v>7.6600000000000001E-2</v>
       </c>
       <c r="K8" s="34">
-        <f>ROUND(F8/SUM(C8:G8),4)</f>
+        <f t="shared" si="3"/>
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="L8" s="34">
-        <f>ROUND(G8/SUM(C8:G8),4)</f>
+        <f t="shared" si="4"/>
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -59462,23 +59634,23 @@
         <v>2E-3</v>
       </c>
       <c r="H9" s="34">
-        <f>ROUND(C9/SUM(C9:G9),4)</f>
+        <f t="shared" si="0"/>
         <v>0.4839</v>
       </c>
       <c r="I9" s="34">
-        <f>ROUND(D9/SUM(C9:G9),4)</f>
+        <f t="shared" si="1"/>
         <v>0.4032</v>
       </c>
       <c r="J9" s="34">
-        <f>ROUND(E9/SUM(C9:G9),4)</f>
+        <f t="shared" si="2"/>
         <v>8.7099999999999997E-2</v>
       </c>
       <c r="K9" s="34">
-        <f>ROUND(F9/SUM(C9:G9),4)</f>
+        <f t="shared" si="3"/>
         <v>2.4199999999999999E-2</v>
       </c>
       <c r="L9" s="34">
-        <f>ROUND(G9/SUM(C9:G9),4)</f>
+        <f t="shared" si="4"/>
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -59507,23 +59679,23 @@
         <v>2E-3</v>
       </c>
       <c r="H10" s="34">
-        <f>ROUND(C10/SUM(C10:G10),4)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="I10" s="34">
-        <f>ROUND(D10/SUM(C10:G10),4)</f>
+        <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
       <c r="J10" s="34">
-        <f>ROUND(E10/SUM(C10:G10),4)</f>
+        <f t="shared" si="2"/>
         <v>9.8299999999999998E-2</v>
       </c>
       <c r="K10" s="34">
-        <f>ROUND(F10/SUM(C10:G10),4)</f>
+        <f t="shared" si="3"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L10" s="34">
-        <f>ROUND(G10/SUM(C10:G10),4)</f>
+        <f t="shared" si="4"/>
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
@@ -59552,23 +59724,23 @@
         <v>2E-3</v>
       </c>
       <c r="H11" s="34">
-        <f>ROUND(C11/SUM(C11:G11),4)</f>
+        <f t="shared" si="0"/>
         <v>0.51280000000000003</v>
       </c>
       <c r="I11" s="34">
-        <f>ROUND(D11/SUM(C11:G11),4)</f>
+        <f t="shared" si="1"/>
         <v>0.34189999999999998</v>
       </c>
       <c r="J11" s="34">
-        <f>ROUND(E11/SUM(C11:G11),4)</f>
+        <f t="shared" si="2"/>
         <v>0.1094</v>
       </c>
       <c r="K11" s="34">
-        <f>ROUND(F11/SUM(C11:G11),4)</f>
+        <f t="shared" si="3"/>
         <v>3.4200000000000001E-2</v>
       </c>
       <c r="L11" s="34">
-        <f>ROUND(G11/SUM(C11:G11),4)</f>
+        <f t="shared" si="4"/>
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
@@ -59597,23 +59769,23 @@
         <v>2E-3</v>
       </c>
       <c r="H12" s="34">
-        <f>ROUND(C12/SUM(C12:G12),4)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="I12" s="34">
-        <f>ROUND(D12/SUM(C12:G12),4)</f>
+        <f t="shared" si="1"/>
         <v>0.33329999999999999</v>
       </c>
       <c r="J12" s="34">
-        <f>ROUND(E12/SUM(C12:G12),4)</f>
+        <f t="shared" si="2"/>
         <v>0.12330000000000001</v>
       </c>
       <c r="K12" s="34">
-        <f>ROUND(F12/SUM(C12:G12),4)</f>
+        <f t="shared" si="3"/>
         <v>4.1700000000000001E-2</v>
       </c>
       <c r="L12" s="34">
-        <f>ROUND(G12/SUM(C12:G12),4)</f>
+        <f t="shared" si="4"/>
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
@@ -59642,23 +59814,23 @@
         <v>2E-3</v>
       </c>
       <c r="H13" s="34">
-        <f>ROUND(C13/SUM(C13:G13),4)</f>
+        <f t="shared" si="0"/>
         <v>0.48780000000000001</v>
       </c>
       <c r="I13" s="34">
-        <f>ROUND(D13/SUM(C13:G13),4)</f>
+        <f t="shared" si="1"/>
         <v>0.32519999999999999</v>
       </c>
       <c r="J13" s="34">
-        <f>ROUND(E13/SUM(C13:G13),4)</f>
+        <f t="shared" si="2"/>
         <v>0.1366</v>
       </c>
       <c r="K13" s="34">
-        <f>ROUND(F13/SUM(C13:G13),4)</f>
+        <f t="shared" si="3"/>
         <v>4.8800000000000003E-2</v>
       </c>
       <c r="L13" s="34">
-        <f>ROUND(G13/SUM(C13:G13),4)</f>
+        <f t="shared" si="4"/>
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -59687,23 +59859,23 @@
         <v>2E-3</v>
       </c>
       <c r="H14" s="34">
-        <f>ROUND(C14/SUM(C14:G14),4)</f>
+        <f t="shared" si="0"/>
         <v>0.47620000000000001</v>
       </c>
       <c r="I14" s="34">
-        <f>ROUND(D14/SUM(C14:G14),4)</f>
+        <f t="shared" si="1"/>
         <v>0.3175</v>
       </c>
       <c r="J14" s="34">
-        <f>ROUND(E14/SUM(C14:G14),4)</f>
+        <f t="shared" si="2"/>
         <v>0.1492</v>
       </c>
       <c r="K14" s="34">
-        <f>ROUND(F14/SUM(C14:G14),4)</f>
+        <f t="shared" si="3"/>
         <v>5.5599999999999997E-2</v>
       </c>
       <c r="L14" s="34">
-        <f>ROUND(G14/SUM(C14:G14),4)</f>
+        <f t="shared" si="4"/>
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -59732,23 +59904,23 @@
         <v>1.2E-2</v>
       </c>
       <c r="H15" s="34">
-        <f>ROUND(C15/SUM(C15:G15),4)</f>
+        <f t="shared" si="0"/>
         <v>0.46150000000000002</v>
       </c>
       <c r="I15" s="34">
-        <f>ROUND(D15/SUM(C15:G15),4)</f>
+        <f t="shared" si="1"/>
         <v>0.30769999999999997</v>
       </c>
       <c r="J15" s="34">
-        <f>ROUND(E15/SUM(C15:G15),4)</f>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="K15" s="34">
-        <f>ROUND(F15/SUM(C15:G15),4)</f>
+        <f t="shared" si="3"/>
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="L15" s="34">
-        <f>ROUND(G15/SUM(C15:G15),4)</f>
+        <f t="shared" si="4"/>
         <v>9.1999999999999998E-3</v>
       </c>
     </row>
@@ -59777,23 +59949,23 @@
         <v>1.4E-2</v>
       </c>
       <c r="H16" s="34">
-        <f>ROUND(C16/SUM(C16:G16),4)</f>
+        <f t="shared" si="0"/>
         <v>0.45050000000000001</v>
       </c>
       <c r="I16" s="34">
-        <f>ROUND(D16/SUM(C16:G16),4)</f>
+        <f t="shared" si="1"/>
         <v>0.30030000000000001</v>
       </c>
       <c r="J16" s="34">
-        <f>ROUND(E16/SUM(C16:G16),4)</f>
+        <f t="shared" si="2"/>
         <v>0.17119999999999999</v>
       </c>
       <c r="K16" s="34">
-        <f>ROUND(F16/SUM(C16:G16),4)</f>
+        <f t="shared" si="3"/>
         <v>6.7599999999999993E-2</v>
       </c>
       <c r="L16" s="34">
-        <f>ROUND(G16/SUM(C16:G16),4)</f>
+        <f t="shared" si="4"/>
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
@@ -59822,23 +59994,23 @@
         <v>1.6E-2</v>
       </c>
       <c r="H17" s="34">
-        <f>ROUND(C17/SUM(C17:G17),4)</f>
+        <f t="shared" si="0"/>
         <v>0.43669999999999998</v>
       </c>
       <c r="I17" s="34">
-        <f>ROUND(D17/SUM(C17:G17),4)</f>
+        <f t="shared" si="1"/>
         <v>0.29110000000000003</v>
       </c>
       <c r="J17" s="34">
-        <f>ROUND(E17/SUM(C17:G17),4)</f>
+        <f t="shared" si="2"/>
         <v>0.18779999999999999</v>
       </c>
       <c r="K17" s="34">
-        <f>ROUND(F17/SUM(C17:G17),4)</f>
+        <f t="shared" si="3"/>
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="L17" s="34">
-        <f>ROUND(G17/SUM(C17:G17),4)</f>
+        <f t="shared" si="4"/>
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
@@ -59867,23 +60039,23 @@
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="H18" s="34">
-        <f>ROUND(C18/SUM(C18:G18),4)</f>
+        <f t="shared" si="0"/>
         <v>0.42370000000000002</v>
       </c>
       <c r="I18" s="34">
-        <f>ROUND(D18/SUM(C18:G18),4)</f>
+        <f t="shared" si="1"/>
         <v>0.28249999999999997</v>
       </c>
       <c r="J18" s="34">
-        <f>ROUND(E18/SUM(C18:G18),4)</f>
+        <f t="shared" si="2"/>
         <v>0.2034</v>
       </c>
       <c r="K18" s="34">
-        <f>ROUND(F18/SUM(C18:G18),4)</f>
+        <f t="shared" si="3"/>
         <v>7.7700000000000005E-2</v>
       </c>
       <c r="L18" s="34">
-        <f>ROUND(G18/SUM(C18:G18),4)</f>
+        <f t="shared" si="4"/>
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
@@ -59912,23 +60084,23 @@
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="H19" s="34">
-        <f>ROUND(C19/SUM(C19:G19),4)</f>
+        <f t="shared" si="0"/>
         <v>0.41149999999999998</v>
       </c>
       <c r="I19" s="34">
-        <f>ROUND(D19/SUM(C19:G19),4)</f>
+        <f t="shared" si="1"/>
         <v>0.27429999999999999</v>
       </c>
       <c r="J19" s="34">
-        <f>ROUND(E19/SUM(C19:G19),4)</f>
+        <f t="shared" si="2"/>
         <v>0.21809999999999999</v>
       </c>
       <c r="K19" s="34">
-        <f>ROUND(F19/SUM(C19:G19),4)</f>
+        <f t="shared" si="3"/>
         <v>8.2299999999999998E-2</v>
       </c>
       <c r="L19" s="34">
-        <f>ROUND(G19/SUM(C19:G19),4)</f>
+        <f t="shared" si="4"/>
         <v>1.37E-2</v>
       </c>
     </row>
@@ -59957,23 +60129,23 @@
         <v>2.2000000000000006E-2</v>
       </c>
       <c r="H20" s="34">
-        <f>ROUND(C20/SUM(C20:G20),4)</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="I20" s="34">
-        <f>ROUND(D20/SUM(C20:G20),4)</f>
+        <f t="shared" si="1"/>
         <v>0.26669999999999999</v>
       </c>
       <c r="J20" s="34">
-        <f>ROUND(E20/SUM(C20:G20),4)</f>
+        <f t="shared" si="2"/>
         <v>0.23200000000000001</v>
       </c>
       <c r="K20" s="34">
-        <f>ROUND(F20/SUM(C20:G20),4)</f>
+        <f t="shared" si="3"/>
         <v>8.6699999999999999E-2</v>
       </c>
       <c r="L20" s="34">
-        <f>ROUND(G20/SUM(C20:G20),4)</f>
+        <f t="shared" si="4"/>
         <v>1.47E-2</v>
       </c>
     </row>
@@ -60002,23 +60174,23 @@
         <v>2.4000000000000007E-2</v>
       </c>
       <c r="H21" s="34">
-        <f>ROUND(C21/SUM(C21:G21),4)</f>
+        <f t="shared" si="0"/>
         <v>0.3891</v>
       </c>
       <c r="I21" s="34">
-        <f>ROUND(D21/SUM(C21:G21),4)</f>
+        <f t="shared" si="1"/>
         <v>0.25940000000000002</v>
       </c>
       <c r="J21" s="34">
-        <f>ROUND(E21/SUM(C21:G21),4)</f>
+        <f t="shared" si="2"/>
         <v>0.24510000000000001</v>
       </c>
       <c r="K21" s="34">
-        <f>ROUND(F21/SUM(C21:G21),4)</f>
+        <f t="shared" si="3"/>
         <v>9.0800000000000006E-2</v>
       </c>
       <c r="L21" s="34">
-        <f>ROUND(G21/SUM(C21:G21),4)</f>
+        <f t="shared" si="4"/>
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
@@ -60047,23 +60219,23 @@
         <v>2.6000000000000009E-2</v>
       </c>
       <c r="H22" s="34">
-        <f>ROUND(C22/SUM(C22:G22),4)</f>
+        <f t="shared" si="0"/>
         <v>0.37880000000000003</v>
       </c>
       <c r="I22" s="34">
-        <f>ROUND(D22/SUM(C22:G22),4)</f>
+        <f t="shared" si="1"/>
         <v>0.2525</v>
       </c>
       <c r="J22" s="34">
-        <f>ROUND(E22/SUM(C22:G22),4)</f>
+        <f t="shared" si="2"/>
         <v>0.2576</v>
       </c>
       <c r="K22" s="34">
-        <f>ROUND(F22/SUM(C22:G22),4)</f>
+        <f t="shared" si="3"/>
         <v>9.4700000000000006E-2</v>
       </c>
       <c r="L22" s="34">
-        <f>ROUND(G22/SUM(C22:G22),4)</f>
+        <f t="shared" si="4"/>
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
@@ -60247,7 +60419,7 @@
         <v>327</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37:F40" si="0">SUM(C37:E37)</f>
+        <f t="shared" ref="F37:F40" si="5">SUM(C37:E37)</f>
         <v>0</v>
       </c>
       <c r="G37">
@@ -60266,7 +60438,7 @@
         <v>329</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G38">
@@ -60285,7 +60457,7 @@
         <v>417</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G39">
@@ -60304,7 +60476,7 @@
         <v>330</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G40">
@@ -61214,7 +61386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
